--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46838748-8A5D-4D27-8F7C-404BC45F58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99436B28-A542-484B-A446-8769CA352491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11670" yWindow="-18630" windowWidth="26820" windowHeight="15330" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-10845" yWindow="-19935" windowWidth="23010" windowHeight="18330" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes release 3.1-&gt;3.3" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294967190" uniqueCount="567">
   <si>
     <t>All</t>
   </si>
@@ -1728,6 +1728,18 @@
   </si>
   <si>
     <t>DDF00006</t>
+  </si>
+  <si>
+    <t>An activity with children must not refer to a timeline, procedure, biomedical concept, biomedical concept category or biomedical concept surrogate.</t>
+  </si>
+  <si>
+    <t>CHK0178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ordering of activities (using the previous and next attributes) must include the parents (e.g. activities refering to children) preceding their children. </t>
+  </si>
+  <si>
+    <t>CHK0179</t>
   </si>
 </sst>
 </file>
@@ -2165,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2586,287 +2598,241 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>428</v>
+        <v>563</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>429</v>
+        <v>107</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="J10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="P10" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>433</v>
+        <v>565</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>122</v>
-      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="K13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="M13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="K14" s="4" t="s">
         <v>122</v>
       </c>
@@ -2883,7 +2849,7 @@
         <v>122</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>436</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -2891,16 +2857,16 @@
         <v>416</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>2</v>
@@ -2909,13 +2875,13 @@
         <v>2</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>122</v>
+        <v>434</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>122</v>
@@ -2941,66 +2907,66 @@
         <v>416</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2</v>
@@ -3012,10 +2978,10 @@
         <v>122</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>122</v>
@@ -3041,137 +3007,137 @@
         <v>416</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="F20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="L20" s="6" t="s">
-        <v>447</v>
+        <v>122</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>122</v>
@@ -3183,7 +3149,7 @@
         <v>122</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>448</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -3191,16 +3157,16 @@
         <v>416</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>439</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>47</v>
+        <v>441</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>2</v>
@@ -3209,13 +3175,13 @@
         <v>2</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>122</v>
@@ -3233,24 +3199,24 @@
         <v>122</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>450</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>227</v>
+        <v>445</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>451</v>
+        <v>107</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>2</v>
@@ -3259,19 +3225,19 @@
         <v>2</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>453</v>
+        <v>105</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>454</v>
+        <v>321</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>122</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>122</v>
+        <v>447</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>122</v>
@@ -3283,7 +3249,7 @@
         <v>122</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>122</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -3291,16 +3257,16 @@
         <v>416</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>2</v>
@@ -3309,13 +3275,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>122</v>
+        <v>449</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>122</v>
@@ -3338,19 +3304,19 @@
     </row>
     <row r="24" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>227</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>228</v>
+        <v>451</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>2</v>
@@ -3359,13 +3325,13 @@
         <v>2</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>122</v>
+        <v>452</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
+        <v>453</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>122</v>
@@ -3391,16 +3357,16 @@
         <v>416</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>2</v>
@@ -3412,10 +3378,10 @@
         <v>122</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>122</v>
@@ -3436,21 +3402,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>455</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>2</v>
@@ -3462,10 +3428,7 @@
         <v>122</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>325</v>
+        <v>456</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>122</v>
@@ -3491,7 +3454,7 @@
         <v>416</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1</v>
@@ -3500,7 +3463,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>2</v>
@@ -3512,10 +3475,10 @@
         <v>122</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>122</v>
@@ -3536,21 +3499,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>2</v>
@@ -3562,10 +3525,10 @@
         <v>122</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>122</v>
@@ -3591,16 +3554,16 @@
         <v>416</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>2</v>
@@ -3612,10 +3575,10 @@
         <v>122</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>122</v>
@@ -3638,240 +3601,240 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B32" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C32" s="3">
         <v>0</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="H32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="K32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="10" t="s">
+      <c r="F33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="K33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="M33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="F34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L32" s="6" t="s">
+      <c r="K34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>122</v>
@@ -3891,7 +3854,7 @@
         <v>416</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>1</v>
@@ -3900,22 +3863,22 @@
         <v>94</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>122</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>122</v>
@@ -3930,7 +3893,7 @@
         <v>122</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>122</v>
@@ -3941,7 +3904,7 @@
         <v>416</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>1</v>
@@ -3950,22 +3913,22 @@
         <v>94</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>122</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>122</v>
@@ -3980,7 +3943,7 @@
         <v>122</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>122</v>
@@ -3988,10 +3951,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>1</v>
@@ -4000,22 +3963,22 @@
         <v>94</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="H37" s="10" t="s">
         <v>122</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>122</v>
@@ -4030,7 +3993,7 @@
         <v>122</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>122</v>
@@ -4038,10 +4001,10 @@
     </row>
     <row r="38" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>1</v>
@@ -4050,22 +4013,22 @@
         <v>94</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="H38" s="10" t="s">
         <v>122</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0</v>
+        <v>282</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>122</v>
@@ -4080,18 +4043,18 @@
         <v>122</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>553</v>
+        <v>294</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>1</v>
@@ -4100,10 +4063,10 @@
         <v>94</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>554</v>
+        <v>295</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>2</v>
@@ -4112,10 +4075,7 @@
         <v>122</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>459</v>
+        <v>293</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>122</v>
@@ -4138,34 +4098,31 @@
     </row>
     <row r="40" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>458</v>
+        <v>122</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>122</v>
@@ -4186,21 +4143,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>460</v>
+        <v>553</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>78</v>
+        <v>554</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>2</v>
@@ -4212,10 +4169,10 @@
         <v>122</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>122</v>
@@ -4241,16 +4198,16 @@
         <v>416</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>2</v>
@@ -4259,13 +4216,13 @@
         <v>2</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>122</v>
+        <v>458</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>122</v>
@@ -4286,21 +4243,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>2</v>
@@ -4312,10 +4269,10 @@
         <v>122</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>127</v>
+        <v>461</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>122</v>
@@ -4341,7 +4298,7 @@
         <v>416</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1</v>
@@ -4362,10 +4319,10 @@
         <v>122</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>122</v>
@@ -4391,7 +4348,7 @@
         <v>416</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>1</v>
@@ -4412,236 +4369,236 @@
         <v>122</v>
       </c>
       <c r="I45" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="K47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="F48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J48" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="K48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="F49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J49" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="K49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
@@ -4650,122 +4607,122 @@
         <v>104</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="F51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J52" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>122</v>
@@ -4791,184 +4748,181 @@
         <v>416</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="C55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" s="4" t="s">
+      <c r="F55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
+      <c r="K55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="C56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I54" s="4" t="s">
+      <c r="F56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>467</v>
-      </c>
       <c r="K56" s="4" t="s">
-        <v>438</v>
+        <v>122</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>122</v>
@@ -4991,16 +4945,16 @@
         <v>416</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>37</v>
+        <v>463</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>2</v>
@@ -5009,13 +4963,13 @@
         <v>2</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>466</v>
+        <v>122</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>122</v>
@@ -5033,24 +4987,24 @@
         <v>122</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>469</v>
+        <v>111</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>470</v>
+        <v>112</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>2</v>
@@ -5062,13 +5016,13 @@
         <v>122</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>122</v>
+        <v>438</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>122</v>
@@ -5086,36 +5040,36 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>473</v>
+        <v>37</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>469</v>
+        <v>38</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>474</v>
+        <v>39</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>122</v>
+        <v>466</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>475</v>
+        <v>36</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>122</v>
+        <v>347</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>122</v>
@@ -5127,13 +5081,13 @@
         <v>122</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>431</v>
+        <v>122</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>122</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
@@ -5141,16 +5095,16 @@
         <v>416</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>469</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>39</v>
+        <v>470</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>2</v>
@@ -5162,10 +5116,10 @@
         <v>122</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>122</v>
@@ -5186,162 +5140,162 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>469</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I61" s="4" t="s">
+      <c r="F62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J63" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P61" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="K63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P62" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1</v>
@@ -5350,7 +5304,7 @@
         <v>42</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>2</v>
@@ -5362,16 +5316,16 @@
         <v>122</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>122</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>402</v>
+        <v>122</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>122</v>
@@ -5391,7 +5345,7 @@
         <v>416</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>1</v>
@@ -5400,7 +5354,7 @@
         <v>42</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>2</v>
@@ -5409,16 +5363,16 @@
         <v>2</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>122</v>
+        <v>485</v>
       </c>
       <c r="L65" s="6" t="s">
         <v>402</v>
@@ -5430,10 +5384,10 @@
         <v>122</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>122</v>
+        <v>405</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>122</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -5441,7 +5395,7 @@
         <v>416</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>1</v>
@@ -5450,7 +5404,7 @@
         <v>42</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>2</v>
@@ -5462,10 +5416,10 @@
         <v>122</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>122</v>
@@ -5491,7 +5445,7 @@
         <v>416</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>1</v>
@@ -5500,7 +5454,7 @@
         <v>42</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>2</v>
@@ -5509,13 +5463,13 @@
         <v>2</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>122</v>
@@ -5536,174 +5490,174 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P68" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P69" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>493</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P70" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>2</v>
@@ -5712,10 +5666,10 @@
         <v>122</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>122</v>
@@ -5736,36 +5690,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>299</v>
+        <v>493</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>122</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>122</v>
@@ -5774,7 +5725,7 @@
         <v>122</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>122</v>
+        <v>495</v>
       </c>
       <c r="N72" s="4" t="s">
         <v>122</v>
@@ -5791,31 +5742,28 @@
         <v>415</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>288</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>122</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>122</v>
@@ -5841,7 +5789,7 @@
         <v>415</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>95</v>
@@ -5850,7 +5798,7 @@
         <v>288</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>2</v>
@@ -5862,110 +5810,101 @@
         <v>122</v>
       </c>
       <c r="I74" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M74" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P74" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P75" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>122</v>
@@ -5991,7 +5930,7 @@
         <v>416</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>1</v>
@@ -6000,7 +5939,7 @@
         <v>62</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>2</v>
@@ -6009,13 +5948,13 @@
         <v>2</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>122</v>
@@ -6041,31 +5980,31 @@
         <v>416</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>498</v>
+        <v>61</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>499</v>
+        <v>63</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>122</v>
@@ -6074,7 +6013,7 @@
         <v>122</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>502</v>
+        <v>122</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>122</v>
@@ -6091,157 +6030,157 @@
         <v>416</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="F81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J81" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="K79" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P79" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="K81" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M80" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P80" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P81" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>1</v>
@@ -6250,7 +6189,7 @@
         <v>83</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>2</v>
@@ -6259,13 +6198,13 @@
         <v>2</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>506</v>
+        <v>122</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>122</v>
@@ -6291,7 +6230,7 @@
         <v>416</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>241</v>
+        <v>503</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>1</v>
@@ -6300,7 +6239,7 @@
         <v>83</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>2</v>
@@ -6312,10 +6251,10 @@
         <v>122</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>240</v>
+        <v>504</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>363</v>
+        <v>507</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>122</v>
@@ -6341,16 +6280,16 @@
         <v>416</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>200</v>
+        <v>505</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>2</v>
@@ -6359,13 +6298,13 @@
         <v>2</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>122</v>
+        <v>506</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>122</v>
@@ -6391,16 +6330,16 @@
         <v>416</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>2</v>
@@ -6412,10 +6351,10 @@
         <v>122</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>122</v>
@@ -6436,12 +6375,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>1</v>
@@ -6450,7 +6389,7 @@
         <v>191</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>2</v>
@@ -6462,10 +6401,10 @@
         <v>122</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>122</v>
@@ -6486,12 +6425,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>1</v>
@@ -6500,7 +6439,7 @@
         <v>191</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>2</v>
@@ -6512,10 +6451,10 @@
         <v>122</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>122</v>
@@ -6536,12 +6475,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>1</v>
@@ -6550,7 +6489,7 @@
         <v>191</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>2</v>
@@ -6562,10 +6501,10 @@
         <v>122</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>122</v>
@@ -6574,7 +6513,7 @@
         <v>122</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>412</v>
+        <v>122</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>122</v>
@@ -6591,7 +6530,7 @@
         <v>416</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>1</v>
@@ -6600,7 +6539,7 @@
         <v>191</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>2</v>
@@ -6612,10 +6551,10 @@
         <v>122</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>122</v>
@@ -6636,12 +6575,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>1</v>
@@ -6650,7 +6589,7 @@
         <v>191</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>2</v>
@@ -6662,10 +6601,10 @@
         <v>122</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>122</v>
@@ -6674,7 +6613,7 @@
         <v>122</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>122</v>
+        <v>412</v>
       </c>
       <c r="N90" s="4" t="s">
         <v>122</v>
@@ -6691,7 +6630,7 @@
         <v>416</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>1</v>
@@ -6700,7 +6639,7 @@
         <v>191</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>2</v>
@@ -6712,10 +6651,10 @@
         <v>122</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>122</v>
@@ -6741,7 +6680,7 @@
         <v>416</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>1</v>
@@ -6750,7 +6689,7 @@
         <v>191</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>2</v>
@@ -6762,10 +6701,10 @@
         <v>122</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>122</v>
@@ -6791,31 +6730,31 @@
         <v>416</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>508</v>
+        <v>194</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>122</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>122</v>
@@ -6836,21 +6775,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>2</v>
@@ -6862,10 +6801,10 @@
         <v>122</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>122</v>
@@ -6891,7 +6830,7 @@
         <v>416</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>262</v>
+        <v>508</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>1</v>
@@ -6900,22 +6839,22 @@
         <v>6</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>122</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>122</v>
@@ -6941,7 +6880,7 @@
         <v>416</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>1</v>
@@ -6950,7 +6889,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>2</v>
@@ -6962,10 +6901,10 @@
         <v>122</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>122</v>
@@ -6991,7 +6930,7 @@
         <v>416</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>1</v>
@@ -7000,7 +6939,7 @@
         <v>6</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>2</v>
@@ -7012,10 +6951,10 @@
         <v>122</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>122</v>
@@ -7041,7 +6980,7 @@
         <v>416</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>1</v>
@@ -7050,7 +6989,7 @@
         <v>6</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>2</v>
@@ -7062,10 +7001,10 @@
         <v>122</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>122</v>
@@ -7091,16 +7030,16 @@
         <v>416</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>509</v>
+        <v>265</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>2</v>
@@ -7112,10 +7051,10 @@
         <v>122</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>122</v>
@@ -7141,16 +7080,16 @@
         <v>416</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>510</v>
+        <v>90</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>511</v>
+        <v>6</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>512</v>
+        <v>91</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>2</v>
@@ -7162,10 +7101,10 @@
         <v>122</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>513</v>
+        <v>89</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>514</v>
+        <v>377</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>122</v>
@@ -7191,16 +7130,16 @@
         <v>416</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>558</v>
+        <v>162</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>559</v>
+        <v>163</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>2</v>
@@ -7209,13 +7148,13 @@
         <v>2</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>560</v>
+        <v>122</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>561</v>
+        <v>161</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>520</v>
+        <v>378</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>122</v>
@@ -7233,24 +7172,24 @@
         <v>122</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>2</v>
@@ -7259,13 +7198,13 @@
         <v>2</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>518</v>
+        <v>122</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>122</v>
@@ -7283,7 +7222,7 @@
         <v>122</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>525</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -7291,140 +7230,140 @@
         <v>416</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C105" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="10" t="s">
+      <c r="F105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J103" s="6" t="s">
+      <c r="J105" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K103" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M103" s="6" t="s">
+      <c r="K105" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M105" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="N103" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O103" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P103" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M104" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="N104" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O104" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P104" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A105" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L105" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M105" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="N105" s="4" t="s">
         <v>122</v>
@@ -7441,16 +7380,16 @@
         <v>416</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>2</v>
@@ -7459,13 +7398,13 @@
         <v>2</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>122</v>
+        <v>526</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>411</v>
+        <v>122</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>122</v>
@@ -7474,7 +7413,7 @@
         <v>122</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>122</v>
+        <v>400</v>
       </c>
       <c r="N106" s="4" t="s">
         <v>122</v>
@@ -7491,7 +7430,7 @@
         <v>416</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>1</v>
@@ -7500,7 +7439,7 @@
         <v>172</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>2</v>
@@ -7512,10 +7451,10 @@
         <v>122</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>122</v>
@@ -7541,7 +7480,7 @@
         <v>416</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>1</v>
@@ -7550,7 +7489,7 @@
         <v>172</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>2</v>
@@ -7562,10 +7501,10 @@
         <v>122</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>122</v>
@@ -7586,21 +7525,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>2</v>
@@ -7612,10 +7551,10 @@
         <v>122</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>122</v>
@@ -7636,18 +7575,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>527</v>
+        <v>246</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>528</v>
+        <v>172</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>66</v>
@@ -7662,111 +7601,111 @@
         <v>122</v>
       </c>
       <c r="I110" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P111" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="J110" s="6" t="s">
+      <c r="J112" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="K110" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L110" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M110" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N110" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O110" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P110" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A111" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L111" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M111" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N111" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O111" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P111" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A112" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="K112" s="4" t="s">
         <v>122</v>
       </c>
@@ -7774,7 +7713,7 @@
         <v>122</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>401</v>
+        <v>122</v>
       </c>
       <c r="N112" s="4" t="s">
         <v>122</v>
@@ -7788,22 +7727,22 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>301</v>
+        <v>530</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>22</v>
+        <v>528</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>2</v>
@@ -7812,10 +7751,10 @@
         <v>122</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="J113" s="6">
-        <v>0</v>
+        <v>531</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>122</v>
@@ -7838,10 +7777,10 @@
     </row>
     <row r="114" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>1</v>
@@ -7850,22 +7789,22 @@
         <v>22</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>122</v>
+        <v>533</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J114" s="6">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>122</v>
@@ -7874,7 +7813,7 @@
         <v>122</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>122</v>
+        <v>401</v>
       </c>
       <c r="N114" s="4" t="s">
         <v>122</v>
@@ -7886,12 +7825,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>1</v>
@@ -7900,22 +7839,19 @@
         <v>22</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>535</v>
+        <v>122</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>122</v>
@@ -7938,10 +7874,10 @@
     </row>
     <row r="116" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>1</v>
@@ -7950,10 +7886,10 @@
         <v>22</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>2</v>
@@ -7962,10 +7898,7 @@
         <v>122</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J116" s="6" t="s">
-        <v>384</v>
+        <v>302</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>122</v>
@@ -7991,16 +7924,16 @@
         <v>416</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>536</v>
+        <v>49</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>537</v>
+        <v>50</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>2</v>
@@ -8009,13 +7942,13 @@
         <v>2</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>122</v>
+        <v>535</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>538</v>
+        <v>48</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>540</v>
+        <v>383</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>122</v>
@@ -8041,16 +7974,16 @@
         <v>416</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>2</v>
@@ -8059,13 +7992,13 @@
         <v>2</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>539</v>
+        <v>122</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>122</v>
@@ -8091,7 +8024,7 @@
         <v>416</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>152</v>
+        <v>536</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>1</v>
@@ -8100,7 +8033,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>59</v>
+        <v>537</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>2</v>
@@ -8112,10 +8045,10 @@
         <v>122</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>151</v>
+        <v>538</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>386</v>
+        <v>540</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>122</v>
@@ -8136,12 +8069,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>1</v>
@@ -8150,7 +8083,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>2</v>
@@ -8159,13 +8092,13 @@
         <v>2</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>122</v>
@@ -8186,12 +8119,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>1</v>
@@ -8200,7 +8133,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>2</v>
@@ -8209,13 +8142,13 @@
         <v>2</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>542</v>
+        <v>122</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>122</v>
@@ -8236,12 +8169,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>1</v>
@@ -8259,13 +8192,13 @@
         <v>2</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>122</v>
+        <v>541</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>122</v>
@@ -8283,15 +8216,15 @@
         <v>122</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>1</v>
@@ -8300,7 +8233,7 @@
         <v>4</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>2</v>
@@ -8309,13 +8242,13 @@
         <v>2</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>122</v>
+        <v>542</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>122</v>
@@ -8341,7 +8274,7 @@
         <v>416</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>1</v>
@@ -8350,7 +8283,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>2</v>
@@ -8362,10 +8295,10 @@
         <v>122</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>122</v>
@@ -8383,7 +8316,7 @@
         <v>122</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>122</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -8391,7 +8324,7 @@
         <v>416</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>1</v>
@@ -8400,7 +8333,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>2</v>
@@ -8409,13 +8342,13 @@
         <v>2</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>562</v>
+        <v>122</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>122</v>
@@ -8441,7 +8374,7 @@
         <v>416</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>1</v>
@@ -8450,7 +8383,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>2</v>
@@ -8459,13 +8392,13 @@
         <v>2</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>544</v>
+        <v>122</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>122</v>
@@ -8486,12 +8419,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>1</v>
@@ -8500,7 +8433,7 @@
         <v>4</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>2</v>
@@ -8509,13 +8442,13 @@
         <v>2</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>122</v>
+        <v>562</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>122</v>
@@ -8536,12 +8469,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>1</v>
@@ -8550,39 +8483,139 @@
         <v>4</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P129" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I128" s="4" t="s">
+      <c r="F130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I130" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J128" s="6" t="s">
+      <c r="J130" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="K128" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L128" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M128" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N128" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O128" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="P128" s="6" t="s">
+      <c r="K130" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O130" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P130" s="6" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99436B28-A542-484B-A446-8769CA352491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0024EF-FAA0-4867-BCC5-59141E154FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10845" yWindow="-19935" windowWidth="23010" windowHeight="18330" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="7215" yWindow="-16755" windowWidth="24555" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Changes release 3.1-&gt;3.3" sheetId="5" r:id="rId1"/>
+    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId1"/>
+    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Changes release 3.1-&gt;3.3'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294967190" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="601">
   <si>
     <t>All</t>
   </si>
@@ -1740,6 +1741,108 @@
   </si>
   <si>
     <t>CHK0179</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptCategory, StudyProtocolDocumentVersion, StudyDefinitionDocumentVersion, NarrativeContent, Activity</t>
+  </si>
+  <si>
+    <t>BiomedicalConceptCategory, StudyProtocolDocumentVersion, NarrativeContent, Activity =&gt; BiomedicalConceptCategory, StudyProtocolDocumentVersion, StudyDefinitionDocumentVersion, NarrativeContent, Activity</t>
+  </si>
+  <si>
+    <t>Narrative content is expected to point to a child and/or to a content item text.</t>
+  </si>
+  <si>
+    <t>children, contentItem</t>
+  </si>
+  <si>
+    <t>CHK0182</t>
+  </si>
+  <si>
+    <t>A piece of narrative content must only reference narrative content items that have been defined within the study version as the narrative content.</t>
+  </si>
+  <si>
+    <t>contentItem</t>
+  </si>
+  <si>
+    <t>CHK0188</t>
+  </si>
+  <si>
+    <t>Within a document version, the specified section numbers for narrative content must be unique.</t>
+  </si>
+  <si>
+    <t>If a section number is to be displayed then a number must be specified and vice versa.</t>
+  </si>
+  <si>
+    <t>sectionNumber, displaySectionNumber</t>
+  </si>
+  <si>
+    <t>CHK0183</t>
+  </si>
+  <si>
+    <t>If a section title is to be displayed then a title must be specified and vice versa.</t>
+  </si>
+  <si>
+    <t>sectionTitle, displaySectionTitle</t>
+  </si>
+  <si>
+    <t>CHK0184</t>
+  </si>
+  <si>
+    <t>NarrativeContentItem</t>
+  </si>
+  <si>
+    <t>CHK0181</t>
+  </si>
+  <si>
+    <t>For a specified range at least a minimum or maximum value is expected.</t>
+  </si>
+  <si>
+    <t>A study cell must only reference elements that are defined within the same study design as the study cell.</t>
+  </si>
+  <si>
+    <t>A study cell must refer to at least one element.</t>
+  </si>
+  <si>
+    <t>CHK0180</t>
+  </si>
+  <si>
+    <t>A study definition document language must be specifed using the XXX (Cnnn) codelist.</t>
+  </si>
+  <si>
+    <t>StudyDefinitionDocument</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>CHK0186</t>
+  </si>
+  <si>
+    <t>A study definition document type must be specifed using the XXX (Cnnn) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0185</t>
+  </si>
+  <si>
+    <t>A study definition document version's status must be specifed using the status Value Set Terminology (XXX) DDF codelist.</t>
+  </si>
+  <si>
+    <t>StudyDefinitionDocumentVersion</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CHK0189</t>
+  </si>
+  <si>
+    <t>A study definition document version must not be referenced more than once by the same study version.</t>
+  </si>
+  <si>
+    <t>documentVersions</t>
+  </si>
+  <si>
+    <t>CHK0187</t>
   </si>
 </sst>
 </file>
@@ -2177,10 +2280,838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="77.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="4"/>
+    <col min="10" max="10" width="99.36328125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.08984375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.26953125" style="6" customWidth="1"/>
+    <col min="14" max="15" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>571</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
+        <v>574</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>581</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>583</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" t="s">
+        <v>475</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>587</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
+        <v>591</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" t="s">
+        <v>593</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>597</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="s">
+        <v>600</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O1" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2720FBDC-F538-4F79-9784-827E5ACB3995}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8620,7 +9551,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0024EF-FAA0-4867-BCC5-59141E154FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F7C510-A7C2-46C6-846B-B820F9970ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="-16755" windowWidth="24555" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-12165" yWindow="-18450" windowWidth="27495" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId1"/>
-    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId2"/>
+    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId1"/>
+    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId2"/>
+    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="616">
   <si>
     <t>All</t>
   </si>
@@ -1794,9 +1795,6 @@
     <t>CHK0181</t>
   </si>
   <si>
-    <t>For a specified range at least a minimum or maximum value is expected.</t>
-  </si>
-  <si>
     <t>A study cell must only reference elements that are defined within the same study design as the study cell.</t>
   </si>
   <si>
@@ -1843,6 +1841,54 @@
   </si>
   <si>
     <t>CHK0187</t>
+  </si>
+  <si>
+    <t>Change?</t>
+  </si>
+  <si>
+    <t>All abbreviations defined for a study version must be unique.</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>CHK0191</t>
+  </si>
+  <si>
+    <t>The long names for all abbreviations defined for a study version are expected to be unique.</t>
+  </si>
+  <si>
+    <t>longName</t>
+  </si>
+  <si>
+    <t>CHK0192</t>
+  </si>
+  <si>
+    <t>If the duration of an administration will vary, a quantity is not expected for the administration duration and vice versa.</t>
+  </si>
+  <si>
+    <t>Within a code system and corresponding version, a one-to-one relationship between code and decode is expected.</t>
+  </si>
+  <si>
+    <t>A study arm must only reference populations that are defined within the same study design as the study arm.</t>
+  </si>
+  <si>
+    <t>DDF00049</t>
+  </si>
+  <si>
+    <t>A study arm must only reference cohorts that are defined within the population that is defined within the same study design as the study arm.</t>
+  </si>
+  <si>
+    <t>DDF00050</t>
+  </si>
+  <si>
+    <t>CHK0190</t>
+  </si>
+  <si>
+    <t>Textual statement of rule (old, if changed)</t>
   </si>
 </sst>
 </file>
@@ -2279,11 +2325,362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B456D714-2DB6-4B8B-BC8E-8AA7501F8C79}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="10" max="10" width="47.7265625" customWidth="1"/>
+    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="K1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>604</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>607</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="I4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" t="s">
+        <v>438</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" t="s">
+        <v>453</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="I7" t="s">
+        <v>614</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}">
+  <dimension ref="A1:O195"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2323,7 +2720,7 @@
       <c r="G1" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>552</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2373,25 +2770,25 @@
       <c r="H2" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="M2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2420,25 +2817,25 @@
       <c r="H3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="J3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2467,25 +2864,25 @@
       <c r="H4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="J4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2514,25 +2911,25 @@
       <c r="H5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="K5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2561,25 +2958,25 @@
       <c r="H6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="J6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2608,25 +3005,25 @@
       <c r="H7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="J7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2655,25 +3052,25 @@
       <c r="H8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N8" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="J8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>407</v>
       </c>
     </row>
@@ -2702,29 +3099,29 @@
       <c r="H9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>416</v>
       </c>
@@ -2732,48 +3129,48 @@
         <v>584</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>469</v>
+        <v>83</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>474</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I10" t="s">
-        <v>475</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="K10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="I10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>585</v>
@@ -2788,33 +3185,33 @@
         <v>84</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I11" t="s">
-        <v>240</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="I11" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2823,45 +3220,45 @@
         <v>415</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>588</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>84</v>
+        <v>589</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I12" t="s">
-        <v>587</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="I12" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2870,16 +3267,16 @@
         <v>415</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>589</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>590</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>8</v>
@@ -2890,43 +3287,43 @@
       <c r="H13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I13" t="s">
-        <v>591</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I13" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
+        <v>595</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -2937,168 +3334,1195 @@
       <c r="H14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I14" t="s">
-        <v>593</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="I14" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>594</v>
+        <v>186</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>595</v>
+        <v>187</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>596</v>
+        <v>188</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I15" t="s">
-        <v>597</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" t="s">
-        <v>122</v>
+      <c r="I15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>186</v>
+        <v>597</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>188</v>
+        <v>598</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I16" t="s">
-        <v>185</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" t="s">
-        <v>600</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" t="s">
-        <v>122</v>
-      </c>
+      <c r="J16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+    </row>
+    <row r="163" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+    </row>
+    <row r="164" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+    </row>
+    <row r="165" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+    </row>
+    <row r="166" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+    </row>
+    <row r="167" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+    </row>
+    <row r="174" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+    </row>
+    <row r="175" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+    </row>
+    <row r="176" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+    </row>
+    <row r="178" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+    </row>
+    <row r="179" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+    </row>
+    <row r="180" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+    </row>
+    <row r="185" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+    </row>
+    <row r="186" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+    </row>
+    <row r="187" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+    </row>
+    <row r="188" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+    </row>
+    <row r="189" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+    </row>
+    <row r="190" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+    </row>
+    <row r="191" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+    </row>
+    <row r="192" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+    </row>
+    <row r="193" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+    </row>
+    <row r="194" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+    </row>
+    <row r="195" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}"/>
@@ -3106,7 +4530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2720FBDC-F538-4F79-9784-827E5ACB3995}">
   <dimension ref="A1:P130"/>
   <sheetViews>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F7C510-A7C2-46C6-846B-B820F9970ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E2AF5C-8C65-4C65-99FC-F0CB8BCE0B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12165" yWindow="-18450" windowWidth="27495" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-10515" yWindow="-18885" windowWidth="25020" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId1"/>
-    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId2"/>
-    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId3"/>
+    <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId1"/>
+    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId2"/>
+    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId3"/>
+    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="732">
   <si>
     <t>All</t>
   </si>
@@ -1889,6 +1890,354 @@
   </si>
   <si>
     <t>Textual statement of rule (old, if changed)</t>
+  </si>
+  <si>
+    <t>An administrable dose form must be specfied according to the extensible Pharmaceutical Dosage Form (C66726) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>AdministrableProduct</t>
+  </si>
+  <si>
+    <t>administrableDoseForm</t>
+  </si>
+  <si>
+    <t>CHK0203</t>
+  </si>
+  <si>
+    <t>An administrable product property type must be specified according to the extensible administrable property type (Cxxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>AdministrableProductProperty</t>
+  </si>
+  <si>
+    <t>CHK0204</t>
+  </si>
+  <si>
+    <t>If a dose is specified then a corresponding frequency must also be specified.</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>CHK0202</t>
+  </si>
+  <si>
+    <t>If a dose is specified then a corresponding administrable product must also be specified and vice versa.</t>
+  </si>
+  <si>
+    <t>dose, administrableProduct</t>
+  </si>
+  <si>
+    <t>CHK0220</t>
+  </si>
+  <si>
+    <t>If an administration's dose is specified then a corresponding route is expected and vice versa.</t>
+  </si>
+  <si>
+    <t>dose, route</t>
+  </si>
+  <si>
+    <t>CHK0201</t>
+  </si>
+  <si>
+    <t>An administration's frequency must be specfied according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0199</t>
+  </si>
+  <si>
+    <t>An administration's route must be specfied according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0200</t>
+  </si>
+  <si>
+    <t>An agent administration's frequency must be specfied according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>An agent administration's route must be specfied according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>All standard code aliases referenced by an instance of the alias code class must be unique.</t>
+  </si>
+  <si>
+    <t>DDF00052</t>
+  </si>
+  <si>
+    <t>An encounter's contact modes must be specfied according to the Mode of Subject Contact (C171445) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>An encounter's environmental setting must be specified according to the extensible Environmental Setting (C127262) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>An encounter type must be specified according to the extensible encounter type (C188728) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0218</t>
+  </si>
+  <si>
+    <t>An endpoint level must be specified using the endpoint level (C188726) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0216</t>
+  </si>
+  <si>
+    <t>A study geographic scope type must be specified using the geographic scope type (C207412) DDF codelist.</t>
+  </si>
+  <si>
+    <t>GeographicScope</t>
+  </si>
+  <si>
+    <t>CHK0211</t>
+  </si>
+  <si>
+    <t>A governance date type must be specified according to the extensible governance date type (C207413) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0209</t>
+  </si>
+  <si>
+    <t>A masking role must be specifed according to the extensible masking role (C207414) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Section numbers are expected to be continuous. No gaps are expected in numbering.</t>
+  </si>
+  <si>
+    <t>sectionNumber, previous, next</t>
+  </si>
+  <si>
+    <t>Section numbers are expected to follow the ordering as specified in the previous next attributes.</t>
+  </si>
+  <si>
+    <t>An objective level must be specified using the objective level (C188725) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0215</t>
+  </si>
+  <si>
+    <t>An organization type must be specified according to the extensible organization type (C188724) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Organization, ResearchOrganization</t>
+  </si>
+  <si>
+    <t>organizationType</t>
+  </si>
+  <si>
+    <t>CHK0205</t>
+  </si>
+  <si>
+    <t>The minimum value of a range must be less than the maximum value of the range.</t>
+  </si>
+  <si>
+    <t>CHK0198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unit must be coded according to the extensible unit (C71620) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist). </t>
+  </si>
+  <si>
+    <t>Range, Quantity</t>
+  </si>
+  <si>
+    <t>CHK0212</t>
+  </si>
+  <si>
+    <t>A reference identifier type must be specified according to the extensible reference identifier type (Cxxx) DDF codelist  (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>ReferenceIdentifier</t>
+  </si>
+  <si>
+    <t>CHK0214</t>
+  </si>
+  <si>
+    <t>A unit must be specified for every strength denominator and numerator</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>numerator, denominator</t>
+  </si>
+  <si>
+    <t>CHK0221</t>
+  </si>
+  <si>
+    <t>A study amendment reason must be coded using the study amendment reason (C207415) DDF codelist.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>CHK0210</t>
+  </si>
+  <si>
+    <t>A study arm data origin type must be specified according to the extensible data origin type (C188727) DDF codelist  (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>dataOriginType</t>
+  </si>
+  <si>
+    <t>CHK0217</t>
+  </si>
+  <si>
+    <t>A study arm must only reference cohorts that are defined within the same study design as the study arm.</t>
+  </si>
+  <si>
+    <t>A study definition document type must be specifed according to the extensible XXX (Cnnn) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>dateValues</t>
+  </si>
+  <si>
+    <t>CHK0207</t>
+  </si>
+  <si>
+    <t>Within a study protocol document version, if a date of a specific type exists with a global geographic scope then no other dates are expected with the same type.</t>
+  </si>
+  <si>
+    <t>CHK0208</t>
+  </si>
+  <si>
+    <t>A study definition document version's status must be specifed using the status Value Set Terminology (C188723) DDF codelist.</t>
+  </si>
+  <si>
+    <t>A study design's blinding schema must be specified according to the extensible Trial Blinding Schema Response (C66735) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study design's characteristics must be specifed according to the Study design characteristics (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study design's intervention model must be specified according to the extensible Intervention Model Response (C99076) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study design's trial intent types must be specified according to the extensible Trial Intent Type Response (C66736) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>A study design's trial types must be specified according to the extensible Trial Type Response (C66739) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Range =&gt; StudyDesignPopulation, StudyCohort</t>
+  </si>
+  <si>
+    <t>unit =&gt; plannedAge</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber, plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>DDF00043</t>
+  </si>
+  <si>
+    <t>unit =&gt; plannedEnrollmentNumber, plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>A planned sex must be specfied using to the Sex of participants (C66732) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>CHK0206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every study version must have exactly one study identifier with an identifier scope that references a clinical study sponsor organization. </t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>CHK0193</t>
+  </si>
+  <si>
+    <t>An identified organization is not expected to have more than 1 identifier for the study.</t>
+  </si>
+  <si>
+    <t>CHK0197</t>
+  </si>
+  <si>
+    <t>Every identifier must be unique within the scope of an identified organization.</t>
+  </si>
+  <si>
+    <t>studyIdentifier</t>
+  </si>
+  <si>
+    <t>CHK0194</t>
+  </si>
+  <si>
+    <t>CHK0196</t>
+  </si>
+  <si>
+    <t>StudyIdentifier, ReferenceIdentifier, AdministrableProductIdentifier</t>
+  </si>
+  <si>
+    <t>CHK0195</t>
+  </si>
+  <si>
+    <t>A study intervention's product designation must be specifed using the product Designation (C207418) DDF codelist.</t>
+  </si>
+  <si>
+    <t>A study intervention's role must be specifed using the study intervention role (C207417) DDF codelist.</t>
+  </si>
+  <si>
+    <t>GovernanceDate =&gt; StudyProtocolDocumentVersion</t>
+  </si>
+  <si>
+    <t>type, geographicScopes =&gt; dateValues</t>
+  </si>
+  <si>
+    <t>A study title type must be specified using the study title type (C207419) DDF codelist.</t>
+  </si>
+  <si>
+    <t>CHK0213</t>
+  </si>
+  <si>
+    <t>GovernanceDate =&gt; StudyVersion</t>
+  </si>
+  <si>
+    <t>Within a study version, if a date of a specific type exists with a global geographic scope then no other dates are expected with the same type.</t>
+  </si>
+  <si>
+    <t>A study version's study phase must be specifed according to the extensible Trial Phase Response (C66737) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>StudyTitle =&gt; StudyVersion</t>
+  </si>
+  <si>
+    <t>type =&gt; titles</t>
+  </si>
+  <si>
+    <t>Every study version must have a title of type "Official Study Title".</t>
+  </si>
+  <si>
+    <t>SubjectEnrollment</t>
+  </si>
+  <si>
+    <t>Quantity =&gt; SubjectEnrollment</t>
+  </si>
+  <si>
+    <t>unit =&gt; quantity</t>
+  </si>
+  <si>
+    <t>A referenced substance must not have any references itself.</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>referenceSubstance</t>
+  </si>
+  <si>
+    <t>CHK0219</t>
+  </si>
+  <si>
+    <t>A timing must only be specified as being relative to/from a scheduled activity/decision instance that is defined within the same timeline as the timing.</t>
+  </si>
+  <si>
+    <t>DDF00046</t>
   </si>
 </sst>
 </file>
@@ -2325,11 +2674,2997 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A424D0F2-3B88-4770-93C0-98D49DE8D516}">
+  <dimension ref="A1:O63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="59.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
+    <col min="10" max="10" width="63.6328125" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
+    <col min="12" max="12" width="20.36328125" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>622</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
+        <v>626</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>629</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>632</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>634</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>636</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>644</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" t="s">
+        <v>646</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="s">
+        <v>649</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" t="s">
+        <v>651</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="K20" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="K21" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" t="s">
+        <v>122</v>
+      </c>
+      <c r="O21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" t="s">
+        <v>657</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s">
+        <v>661</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" t="s">
+        <v>663</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s">
+        <v>666</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" t="s">
+        <v>122</v>
+      </c>
+      <c r="O25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" t="s">
+        <v>669</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>673</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N27" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" t="s">
+        <v>676</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" t="s">
+        <v>679</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" t="s">
+        <v>122</v>
+      </c>
+      <c r="O29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="I30" t="s">
+        <v>614</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="K30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" t="s">
+        <v>122</v>
+      </c>
+      <c r="O30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="K31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" t="s">
+        <v>592</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K32" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" t="s">
+        <v>683</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" t="s">
+        <v>685</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" t="s">
+        <v>122</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N34" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" t="s">
+        <v>596</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="K35" t="s">
+        <v>122</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" t="s">
+        <v>122</v>
+      </c>
+      <c r="O35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" t="s">
+        <v>199</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36" t="s">
+        <v>122</v>
+      </c>
+      <c r="O36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" t="s">
+        <v>202</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" t="s">
+        <v>122</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K38" t="s">
+        <v>122</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N38" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" t="s">
+        <v>122</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" t="s">
+        <v>122</v>
+      </c>
+      <c r="O39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" t="s">
+        <v>193</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K40" t="s">
+        <v>122</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" t="s">
+        <v>122</v>
+      </c>
+      <c r="O40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" t="s">
+        <v>480</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="N41" t="s">
+        <v>122</v>
+      </c>
+      <c r="O41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="I42" t="s">
+        <v>478</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" t="s">
+        <v>122</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="N42" t="s">
+        <v>122</v>
+      </c>
+      <c r="O42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
+        <v>698</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" t="s">
+        <v>122</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N43" t="s">
+        <v>122</v>
+      </c>
+      <c r="O43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" t="s">
+        <v>701</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K44" t="s">
+        <v>122</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N44" t="s">
+        <v>122</v>
+      </c>
+      <c r="O44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" t="s">
+        <v>703</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N45" t="s">
+        <v>122</v>
+      </c>
+      <c r="O45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" t="s">
+        <v>706</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46" t="s">
+        <v>122</v>
+      </c>
+      <c r="O46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K47" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N47" t="s">
+        <v>122</v>
+      </c>
+      <c r="O47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48" t="s">
+        <v>122</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N48" t="s">
+        <v>122</v>
+      </c>
+      <c r="O48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" t="s">
+        <v>707</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49" t="s">
+        <v>122</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N49" t="s">
+        <v>122</v>
+      </c>
+      <c r="O49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" t="s">
+        <v>709</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K50" t="s">
+        <v>122</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N50" t="s">
+        <v>122</v>
+      </c>
+      <c r="O50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" t="s">
+        <v>247</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K51" t="s">
+        <v>122</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N51" t="s">
+        <v>122</v>
+      </c>
+      <c r="O51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" t="s">
+        <v>170</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" t="s">
+        <v>122</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N52" t="s">
+        <v>122</v>
+      </c>
+      <c r="O52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K53" t="s">
+        <v>122</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N53" t="s">
+        <v>122</v>
+      </c>
+      <c r="O53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" t="s">
+        <v>131</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" t="s">
+        <v>438</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N54" t="s">
+        <v>122</v>
+      </c>
+      <c r="O54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" t="s">
+        <v>715</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55" t="s">
+        <v>122</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N55" t="s">
+        <v>122</v>
+      </c>
+      <c r="O55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K56" t="s">
+        <v>122</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N56" t="s">
+        <v>122</v>
+      </c>
+      <c r="O56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I57" t="s">
+        <v>129</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" t="s">
+        <v>438</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="N57" t="s">
+        <v>122</v>
+      </c>
+      <c r="O57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I58" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" t="s">
+        <v>122</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N58" t="s">
+        <v>122</v>
+      </c>
+      <c r="O58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" t="s">
+        <v>529</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K59" t="s">
+        <v>122</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="N59" t="s">
+        <v>122</v>
+      </c>
+      <c r="O59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" t="s">
+        <v>531</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K60" t="s">
+        <v>122</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="N60" t="s">
+        <v>122</v>
+      </c>
+      <c r="O60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I61" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K61" t="s">
+        <v>122</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="N61" t="s">
+        <v>122</v>
+      </c>
+      <c r="O61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" t="s">
+        <v>729</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K62" t="s">
+        <v>122</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N62" t="s">
+        <v>122</v>
+      </c>
+      <c r="O62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I63" t="s">
+        <v>538</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K63" t="s">
+        <v>122</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N63" t="s">
+        <v>122</v>
+      </c>
+      <c r="O63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B456D714-2DB6-4B8B-BC8E-8AA7501F8C79}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2675,7 +6010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}">
   <dimension ref="A1:O195"/>
   <sheetViews>
@@ -4530,7 +7865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2720FBDC-F538-4F79-9784-827E5ACB3995}">
   <dimension ref="A1:P130"/>
   <sheetViews>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E2AF5C-8C65-4C65-99FC-F0CB8BCE0B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E198D8-0F1E-4A75-B2CE-17902D047A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10515" yWindow="-18885" windowWidth="25020" windowHeight="15225" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="10350" yWindow="-19785" windowWidth="22170" windowHeight="18135" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966088" uniqueCount="795">
   <si>
     <t>All</t>
   </si>
@@ -2238,6 +2238,195 @@
   </si>
   <si>
     <t>DDF00046</t>
+  </si>
+  <si>
+    <t>Each specified biomedical concept category is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>CHK0061</t>
+  </si>
+  <si>
+    <t>Each specified biomedical concept surrogate is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>bcSurrogates</t>
+  </si>
+  <si>
+    <t>CHK0064</t>
+  </si>
+  <si>
+    <t>Each specified biomedical concept is expected to be referenced by an activity.</t>
+  </si>
+  <si>
+    <t>biomedicalConcepts</t>
+  </si>
+  <si>
+    <t>CHK0062</t>
+  </si>
+  <si>
+    <t>An activity must only reference activities that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0225</t>
+  </si>
+  <si>
+    <t>An activity must only reference timelines that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0228</t>
+  </si>
+  <si>
+    <t>Any parameter name referenced in a tag in the text should be specified in the data dictionary parameter maps.</t>
+  </si>
+  <si>
+    <t>Syntax template text is expected to be HTML formatted.</t>
+  </si>
+  <si>
+    <t>CHK0229</t>
+  </si>
+  <si>
+    <t>DDF00054</t>
+  </si>
+  <si>
+    <t>DDF00053</t>
+  </si>
+  <si>
+    <t>Encounter ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their specified default conditions.</t>
+  </si>
+  <si>
+    <t>CHK0044</t>
+  </si>
+  <si>
+    <t>Encounter ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their defaultcondition attribute.</t>
+  </si>
+  <si>
+    <t>An encounter must only reference encounters that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0226</t>
+  </si>
+  <si>
+    <t>If geographic scope type is global then no codes are expected to specify the specific area within scope while if it is not global then at least one code is expected to specify the specific area within scope.</t>
+  </si>
+  <si>
+    <t>CHK0075</t>
+  </si>
+  <si>
+    <t>if geographic scope type is not global then a code is expected to specify the specific area within scope.</t>
+  </si>
+  <si>
+    <t>If geographic scope type is global then there must be only one geographic scope specified.</t>
+  </si>
+  <si>
+    <t>geographicScopes</t>
+  </si>
+  <si>
+    <t>CHK0222</t>
+  </si>
+  <si>
+    <t>DDF00058</t>
+  </si>
+  <si>
+    <t>CHK0106</t>
+  </si>
+  <si>
+    <t>Narrative content children are expected to have section numbers that start with the parent section numbers.</t>
+  </si>
+  <si>
+    <t>CHK0107</t>
+  </si>
+  <si>
+    <t>CHK0132</t>
+  </si>
+  <si>
+    <t>When included in text, references to items stored elsewhere in the data model must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
+  </si>
+  <si>
+    <t>N =&gt; ?</t>
+  </si>
+  <si>
+    <t>Narrative content text is expected to be HTML formatted.</t>
+  </si>
+  <si>
+    <t>CHK0230</t>
+  </si>
+  <si>
+    <t>Narrative content item text is expected to be HTML formatted.</t>
+  </si>
+  <si>
+    <t>CHK0231</t>
+  </si>
+  <si>
+    <t>Within a study design there must be exactly one objective with level 'Primary Objective'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referenced items in a parameter map must be available elsewhere in the data model. </t>
+  </si>
+  <si>
+    <t>References must be a fixed value or a reference to items stored elsewhere in the data model which must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
+  </si>
+  <si>
+    <t>All scheduled activity instances are expected to refer to an epoch within the same study Design</t>
+  </si>
+  <si>
+    <t>Within a study design, there must be exactly one scheduled timeline which identifies as the main Timeline.</t>
+  </si>
+  <si>
+    <t>A study cell must only reference an arm that is defined within the same study design as the study cell.</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>CHK0223</t>
+  </si>
+  <si>
+    <t>A study cell must only reference an epoch that is defined within the same study design as the study cell.</t>
+  </si>
+  <si>
+    <t>CHK0224</t>
+  </si>
+  <si>
+    <t>DDF00056</t>
+  </si>
+  <si>
+    <t>DDF00057</t>
+  </si>
+  <si>
+    <t>DDF00055</t>
+  </si>
+  <si>
+    <t>Epoch ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their specified default conditions.</t>
+  </si>
+  <si>
+    <t>StudyEpoch</t>
+  </si>
+  <si>
+    <t>CHK0045</t>
+  </si>
+  <si>
+    <t>Epoch ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their defaultcondition attribute.</t>
+  </si>
+  <si>
+    <t>An epoch must only reference encounters that are specified within the same study design.</t>
+  </si>
+  <si>
+    <t>CHK0227</t>
+  </si>
+  <si>
+    <t>DDF00059</t>
+  </si>
+  <si>
+    <t>Within a study version, if more than 1 business therapeutic area is defined then they must be distinct.</t>
+  </si>
+  <si>
+    <t>If timing type is "Fixed Reference" then it must point to only one scheduled instance (e.g. attribute relativeToScheduledInstance must be equal to relativeFromScheduledInstance or it must be missing).</t>
+  </si>
+  <si>
+    <t>DDF00051</t>
+  </si>
+  <si>
+    <t>A window must not be defined for an anchor timing (e.g. type is "Fixed Reference".</t>
   </si>
 </sst>
 </file>
@@ -2675,10 +2864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A424D0F2-3B88-4770-93C0-98D49DE8D516}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2740,33 +2929,33 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>616</v>
+        <v>732</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>617</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>618</v>
+        <v>109</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>619</v>
+        <v>733</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>122</v>
@@ -2781,39 +2970,39 @@
         <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="O2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>620</v>
+        <v>734</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>621</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>735</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>622</v>
+        <v>736</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>122</v>
@@ -2828,39 +3017,39 @@
         <v>122</v>
       </c>
       <c r="N3" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="O3" t="s">
-        <v>122</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>623</v>
+        <v>737</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>624</v>
+        <v>108</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>626</v>
+        <v>739</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>122</v>
@@ -2875,10 +3064,10 @@
         <v>122</v>
       </c>
       <c r="N4" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -2886,19 +3075,19 @@
         <v>415</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>627</v>
+        <v>740</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>624</v>
+        <v>108</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>628</v>
+        <v>88</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -2907,7 +3096,7 @@
         <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>122</v>
@@ -2933,19 +3122,19 @@
         <v>415</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>630</v>
+        <v>742</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>624</v>
+        <v>108</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>631</v>
+        <v>143</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>2</v>
@@ -2954,7 +3143,7 @@
         <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>632</v>
+        <v>743</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>122</v>
@@ -2980,16 +3169,16 @@
         <v>415</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>177</v>
+        <v>618</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
@@ -3001,7 +3190,7 @@
         <v>122</v>
       </c>
       <c r="I7" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>122</v>
@@ -3027,16 +3216,16 @@
         <v>415</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>8</v>
@@ -3048,7 +3237,7 @@
         <v>122</v>
       </c>
       <c r="I8" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>122</v>
@@ -3069,83 +3258,83 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>176</v>
+        <v>624</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>177</v>
+        <v>625</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>626</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I10" t="s">
-        <v>250</v>
+        <v>629</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
         <v>122</v>
@@ -3160,39 +3349,39 @@
         <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>624</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>119</v>
+        <v>631</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>640</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>632</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
         <v>122</v>
@@ -3212,22 +3401,22 @@
     </row>
     <row r="12" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>624</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2</v>
@@ -3236,10 +3425,10 @@
         <v>122</v>
       </c>
       <c r="I12" t="s">
-        <v>284</v>
+        <v>634</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
         <v>122</v>
@@ -3259,34 +3448,34 @@
     </row>
     <row r="13" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>94</v>
+        <v>624</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>282</v>
+        <v>636</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
         <v>122</v>
@@ -3309,31 +3498,31 @@
         <v>416</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I14" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="K14" t="s">
         <v>122</v>
@@ -3348,39 +3537,39 @@
         <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I15" t="s">
-        <v>644</v>
+        <v>250</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>251</v>
       </c>
       <c r="K15" t="s">
         <v>122</v>
@@ -3395,24 +3584,24 @@
         <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>2</v>
@@ -3421,13 +3610,13 @@
         <v>2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>122</v>
+        <v>640</v>
       </c>
       <c r="I16" t="s">
-        <v>646</v>
+        <v>116</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s">
         <v>122</v>
@@ -3445,33 +3634,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>647</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>648</v>
+        <v>98</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>122</v>
+        <v>457</v>
       </c>
       <c r="I17" t="s">
-        <v>649</v>
+        <v>96</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>122</v>
@@ -3486,27 +3675,27 @@
         <v>122</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="O17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>650</v>
+        <v>744</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>2</v>
@@ -3518,10 +3707,10 @@
         <v>122</v>
       </c>
       <c r="I18" t="s">
-        <v>651</v>
+        <v>100</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s">
         <v>122</v>
@@ -3541,19 +3730,19 @@
     </row>
     <row r="19" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>652</v>
+        <v>745</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>2</v>
@@ -3565,10 +3754,10 @@
         <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>205</v>
+        <v>746</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="K19" t="s">
         <v>122</v>
@@ -3586,36 +3775,36 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
+        <v>416</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>747</v>
+      </c>
+      <c r="I20" t="s">
+        <v>256</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>653</v>
+        <v>122</v>
       </c>
       <c r="K20" t="s">
         <v>122</v>
@@ -3633,36 +3822,36 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
+        <v>416</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I21">
-        <v>0</v>
+      <c r="I21" t="s">
+        <v>284</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>655</v>
+        <v>285</v>
       </c>
       <c r="K21" t="s">
         <v>122</v>
@@ -3680,33 +3869,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>656</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>122</v>
+        <v>748</v>
       </c>
       <c r="I22" t="s">
-        <v>657</v>
+        <v>164</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>122</v>
@@ -3729,34 +3918,34 @@
     </row>
     <row r="23" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>659</v>
+        <v>94</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>660</v>
+        <v>166</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>661</v>
+        <v>282</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="K23" t="s">
         <v>122</v>
@@ -3774,24 +3963,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>469</v>
+        <v>94</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>474</v>
+        <v>295</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2</v>
@@ -3800,10 +3989,10 @@
         <v>122</v>
       </c>
       <c r="I24" t="s">
-        <v>663</v>
+        <v>296</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="K24" t="s">
         <v>122</v>
@@ -3823,19 +4012,19 @@
     </row>
     <row r="25" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>664</v>
+        <v>749</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>665</v>
+        <v>94</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>2</v>
@@ -3847,10 +4036,10 @@
         <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>122</v>
+        <v>751</v>
       </c>
       <c r="K25" t="s">
         <v>122</v>
@@ -3868,24 +4057,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>667</v>
+        <v>752</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>668</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>2</v>
@@ -3894,7 +4083,7 @@
         <v>122</v>
       </c>
       <c r="I26" t="s">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>122</v>
@@ -3915,24 +4104,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>671</v>
+        <v>94</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>672</v>
+        <v>66</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>2</v>
@@ -3941,7 +4130,7 @@
         <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>122</v>
@@ -3967,64 +4156,64 @@
         <v>415</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" t="s">
+        <v>646</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N28" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" t="s">
-        <v>676</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" t="s">
-        <v>122</v>
-      </c>
-      <c r="O28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>678</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>2</v>
       </c>
@@ -4035,10 +4224,10 @@
         <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>679</v>
+        <v>755</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>122</v>
+        <v>756</v>
       </c>
       <c r="K29" t="s">
         <v>122</v>
@@ -4058,19 +4247,19 @@
     </row>
     <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>136</v>
+        <v>648</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>2</v>
@@ -4079,13 +4268,13 @@
         <v>2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>613</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>612</v>
+        <v>122</v>
       </c>
       <c r="K30" t="s">
         <v>122</v>
@@ -4105,34 +4294,34 @@
     </row>
     <row r="31" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>588</v>
+        <v>125</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
+        <v>758</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I31">
-        <v>0</v>
+      <c r="I31" t="s">
+        <v>759</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>587</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s">
         <v>122</v>
@@ -4152,22 +4341,22 @@
     </row>
     <row r="32" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>588</v>
+        <v>125</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>2</v>
@@ -4176,10 +4365,10 @@
         <v>122</v>
       </c>
       <c r="I32" t="s">
-        <v>592</v>
+        <v>651</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>591</v>
+        <v>122</v>
       </c>
       <c r="K32" t="s">
         <v>122</v>
@@ -4197,33 +4386,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>594</v>
+        <v>278</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>682</v>
+        <v>279</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>122</v>
+        <v>760</v>
       </c>
       <c r="I33" t="s">
-        <v>683</v>
+        <v>276</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>122</v>
@@ -4246,22 +4435,22 @@
     </row>
     <row r="34" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>594</v>
+        <v>207</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>682</v>
+        <v>173</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>2</v>
@@ -4270,10 +4459,10 @@
         <v>122</v>
       </c>
       <c r="I34" t="s">
-        <v>685</v>
+        <v>205</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="K34" t="s">
         <v>122</v>
@@ -4293,175 +4482,175 @@
     </row>
     <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>686</v>
+        <v>122</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>594</v>
+        <v>104</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>595</v>
+        <v>148</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" t="s">
+        <v>761</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="K35" t="s">
+        <v>122</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" t="s">
+        <v>122</v>
+      </c>
+      <c r="O35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" t="s">
+        <v>763</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="K36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36" t="s">
+        <v>122</v>
+      </c>
+      <c r="O36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" t="s">
+        <v>764</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="K37" t="s">
+        <v>122</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35" t="s">
-        <v>596</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="K35" t="s">
-        <v>122</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N35" t="s">
-        <v>122</v>
-      </c>
-      <c r="O35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I36" t="s">
-        <v>199</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K36" t="s">
-        <v>122</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N36" t="s">
-        <v>122</v>
-      </c>
-      <c r="O36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" t="s">
-        <v>202</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K37" t="s">
-        <v>122</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N37" t="s">
-        <v>122</v>
-      </c>
-      <c r="O37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I38" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s">
         <v>122</v>
@@ -4473,42 +4662,42 @@
         <v>122</v>
       </c>
       <c r="N38" t="s">
-        <v>122</v>
+        <v>407</v>
       </c>
       <c r="O38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I39" t="s">
-        <v>189</v>
+        <v>768</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="K39" t="s">
         <v>122</v>
@@ -4526,24 +4715,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>691</v>
+        <v>769</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>191</v>
+        <v>582</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>2</v>
@@ -4552,10 +4741,10 @@
         <v>122</v>
       </c>
       <c r="I40" t="s">
-        <v>193</v>
+        <v>770</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="K40" t="s">
         <v>122</v>
@@ -4573,21 +4762,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>479</v>
+        <v>771</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>2</v>
@@ -4599,19 +4788,19 @@
         <v>122</v>
       </c>
       <c r="I41" t="s">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s">
         <v>122</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>692</v>
+        <v>122</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>693</v>
+        <v>122</v>
       </c>
       <c r="N41" t="s">
         <v>122</v>
@@ -4620,21 +4809,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>477</v>
+        <v>122</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>694</v>
+        <v>78</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>2</v>
@@ -4643,22 +4832,22 @@
         <v>2</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>695</v>
+        <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>478</v>
+        <v>183</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s">
         <v>122</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>692</v>
+        <v>122</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>696</v>
+        <v>122</v>
       </c>
       <c r="N42" t="s">
         <v>122</v>
@@ -4672,16 +4861,16 @@
         <v>415</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>2</v>
@@ -4693,7 +4882,7 @@
         <v>122</v>
       </c>
       <c r="I43" t="s">
-        <v>698</v>
+        <v>657</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>122</v>
@@ -4714,24 +4903,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>699</v>
+        <v>658</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>18</v>
+        <v>659</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2</v>
@@ -4740,7 +4929,7 @@
         <v>122</v>
       </c>
       <c r="I44" t="s">
-        <v>701</v>
+        <v>661</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>122</v>
@@ -4763,22 +4952,22 @@
     </row>
     <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>700</v>
+        <v>211</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2</v>
@@ -4787,10 +4976,10 @@
         <v>122</v>
       </c>
       <c r="I45" t="s">
-        <v>703</v>
+        <v>208</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="K45" t="s">
         <v>122</v>
@@ -4808,36 +4997,36 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>704</v>
+        <v>773</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>705</v>
+        <v>211</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I46" t="s">
-        <v>706</v>
+        <v>304</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="K46" t="s">
         <v>122</v>
@@ -4857,34 +5046,34 @@
     </row>
     <row r="47" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>699</v>
+        <v>662</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>18</v>
+        <v>469</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>523</v>
+        <v>122</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>663</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>522</v>
+        <v>122</v>
       </c>
       <c r="K47" t="s">
         <v>122</v>
@@ -4899,39 +5088,39 @@
         <v>122</v>
       </c>
       <c r="O47" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>18</v>
+        <v>665</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I48">
-        <v>0</v>
+      <c r="I48" t="s">
+        <v>666</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="K48" t="s">
         <v>122</v>
@@ -4949,33 +5138,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>702</v>
+        <v>667</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>18</v>
+        <v>668</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I49" t="s">
-        <v>707</v>
+        <v>669</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>122</v>
@@ -4996,24 +5185,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>708</v>
+        <v>42</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>2</v>
@@ -5022,7 +5211,7 @@
         <v>122</v>
       </c>
       <c r="I50" t="s">
-        <v>709</v>
+        <v>494</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>122</v>
@@ -5045,19 +5234,19 @@
     </row>
     <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>710</v>
+        <v>122</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>2</v>
@@ -5069,10 +5258,10 @@
         <v>122</v>
       </c>
       <c r="I51" t="s">
-        <v>247</v>
+        <v>494</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>248</v>
+        <v>493</v>
       </c>
       <c r="K51" t="s">
         <v>122</v>
@@ -5095,16 +5284,16 @@
         <v>416</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>711</v>
+        <v>775</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>2</v>
@@ -5113,13 +5302,13 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>122</v>
+        <v>496</v>
       </c>
       <c r="I52" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="K52" t="s">
         <v>122</v>
@@ -5137,98 +5326,98 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>682</v>
+        <v>63</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K53" t="s">
+        <v>122</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N53" t="s">
+        <v>122</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K53" t="s">
-        <v>122</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="N53" t="s">
-        <v>122</v>
-      </c>
-      <c r="O53" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="G54" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I54" t="s">
-        <v>131</v>
+        <v>673</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K54" t="s">
-        <v>438</v>
+        <v>122</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>712</v>
+        <v>122</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>713</v>
+        <v>122</v>
       </c>
       <c r="N54" t="s">
         <v>122</v>
       </c>
       <c r="O54" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -5236,16 +5425,16 @@
         <v>415</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>66</v>
+        <v>675</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>2</v>
@@ -5257,7 +5446,7 @@
         <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>715</v>
+        <v>676</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>122</v>
@@ -5278,21 +5467,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>128</v>
+        <v>677</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>2</v>
@@ -5304,7 +5493,7 @@
         <v>122</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>679</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>122</v>
@@ -5313,10 +5502,10 @@
         <v>122</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>716</v>
+        <v>122</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>713</v>
+        <v>122</v>
       </c>
       <c r="N56" t="s">
         <v>122</v>
@@ -5330,16 +5519,16 @@
         <v>416</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>682</v>
+        <v>137</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>2</v>
@@ -5348,22 +5537,22 @@
         <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>122</v>
+        <v>613</v>
       </c>
       <c r="I57" t="s">
-        <v>129</v>
+        <v>614</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>130</v>
+        <v>612</v>
       </c>
       <c r="K57" t="s">
-        <v>438</v>
+        <v>122</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>716</v>
+        <v>122</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>713</v>
+        <v>122</v>
       </c>
       <c r="N57" t="s">
         <v>122</v>
@@ -5372,21 +5561,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>718</v>
+        <v>776</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>50</v>
+        <v>777</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>2</v>
@@ -5395,13 +5584,13 @@
         <v>2</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>535</v>
+        <v>122</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>778</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="K58" t="s">
         <v>122</v>
@@ -5419,33 +5608,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>719</v>
+        <v>84</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I59" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>122</v>
@@ -5454,13 +5643,13 @@
         <v>122</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>720</v>
+        <v>122</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>721</v>
+        <v>122</v>
       </c>
       <c r="N59" t="s">
-        <v>122</v>
+        <v>405</v>
       </c>
       <c r="O59" t="s">
         <v>122</v>
@@ -5468,22 +5657,22 @@
     </row>
     <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>722</v>
+        <v>122</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>22</v>
+        <v>588</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>719</v>
+        <v>589</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2</v>
@@ -5492,19 +5681,19 @@
         <v>122</v>
       </c>
       <c r="I60" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="K60" t="s">
         <v>122</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>720</v>
+        <v>122</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>721</v>
+        <v>122</v>
       </c>
       <c r="N60" t="s">
         <v>122</v>
@@ -5515,19 +5704,19 @@
     </row>
     <row r="61" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>37</v>
+        <v>779</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>723</v>
+        <v>83</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>2</v>
@@ -5536,10 +5725,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>466</v>
+        <v>122</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>780</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>122</v>
@@ -5548,10 +5737,10 @@
         <v>122</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>724</v>
+        <v>122</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>725</v>
+        <v>122</v>
       </c>
       <c r="N61" t="s">
         <v>122</v>
@@ -5560,21 +5749,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>726</v>
+        <v>681</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>727</v>
+        <v>588</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>728</v>
+        <v>66</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -5586,10 +5775,10 @@
         <v>122</v>
       </c>
       <c r="I62" t="s">
-        <v>729</v>
+        <v>592</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>122</v>
+        <v>591</v>
       </c>
       <c r="K62" t="s">
         <v>122</v>
@@ -5609,48 +5798,1975 @@
     </row>
     <row r="63" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" t="s">
+        <v>683</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K63" t="s">
+        <v>122</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N63" t="s">
+        <v>122</v>
+      </c>
+      <c r="O63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" t="s">
+        <v>685</v>
+      </c>
+      <c r="J64" t="s">
+        <v>122</v>
+      </c>
+      <c r="K64" t="s">
+        <v>122</v>
+      </c>
+      <c r="L64" t="s">
+        <v>122</v>
+      </c>
+      <c r="M64" t="s">
+        <v>122</v>
+      </c>
+      <c r="N64" t="s">
+        <v>122</v>
+      </c>
+      <c r="O64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" t="s">
+        <v>596</v>
+      </c>
+      <c r="J65" t="s">
+        <v>593</v>
+      </c>
+      <c r="K65" t="s">
+        <v>122</v>
+      </c>
+      <c r="L65" t="s">
+        <v>122</v>
+      </c>
+      <c r="M65" t="s">
+        <v>122</v>
+      </c>
+      <c r="N65" t="s">
+        <v>122</v>
+      </c>
+      <c r="O65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I66" t="s">
+        <v>199</v>
+      </c>
+      <c r="J66" t="s">
+        <v>200</v>
+      </c>
+      <c r="K66" t="s">
+        <v>122</v>
+      </c>
+      <c r="L66" t="s">
+        <v>122</v>
+      </c>
+      <c r="M66" t="s">
+        <v>122</v>
+      </c>
+      <c r="N66" t="s">
+        <v>122</v>
+      </c>
+      <c r="O66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I67" t="s">
+        <v>202</v>
+      </c>
+      <c r="J67" t="s">
+        <v>203</v>
+      </c>
+      <c r="K67" t="s">
+        <v>122</v>
+      </c>
+      <c r="L67" t="s">
+        <v>122</v>
+      </c>
+      <c r="M67" t="s">
+        <v>122</v>
+      </c>
+      <c r="N67" t="s">
+        <v>122</v>
+      </c>
+      <c r="O67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" t="s">
+        <v>196</v>
+      </c>
+      <c r="J68" t="s">
+        <v>197</v>
+      </c>
+      <c r="K68" t="s">
+        <v>122</v>
+      </c>
+      <c r="L68" t="s">
+        <v>122</v>
+      </c>
+      <c r="M68" t="s">
+        <v>122</v>
+      </c>
+      <c r="N68" t="s">
+        <v>122</v>
+      </c>
+      <c r="O68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="I69" t="s">
+        <v>271</v>
+      </c>
+      <c r="J69" t="s">
+        <v>122</v>
+      </c>
+      <c r="K69" t="s">
+        <v>122</v>
+      </c>
+      <c r="L69" t="s">
+        <v>122</v>
+      </c>
+      <c r="M69" t="s">
+        <v>122</v>
+      </c>
+      <c r="N69" t="s">
+        <v>122</v>
+      </c>
+      <c r="O69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70" t="s">
+        <v>189</v>
+      </c>
+      <c r="J70" t="s">
+        <v>190</v>
+      </c>
+      <c r="K70" t="s">
+        <v>122</v>
+      </c>
+      <c r="L70" t="s">
+        <v>122</v>
+      </c>
+      <c r="M70" t="s">
+        <v>122</v>
+      </c>
+      <c r="N70" t="s">
+        <v>122</v>
+      </c>
+      <c r="O70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="I71" t="s">
+        <v>274</v>
+      </c>
+      <c r="J71" t="s">
+        <v>122</v>
+      </c>
+      <c r="K71" t="s">
+        <v>122</v>
+      </c>
+      <c r="L71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M71" t="s">
+        <v>122</v>
+      </c>
+      <c r="N71" t="s">
+        <v>122</v>
+      </c>
+      <c r="O71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I72" t="s">
+        <v>193</v>
+      </c>
+      <c r="J72" t="s">
+        <v>194</v>
+      </c>
+      <c r="K72" t="s">
+        <v>122</v>
+      </c>
+      <c r="L72" t="s">
+        <v>122</v>
+      </c>
+      <c r="M72" t="s">
+        <v>122</v>
+      </c>
+      <c r="N72" t="s">
+        <v>122</v>
+      </c>
+      <c r="O72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="I73" t="s">
+        <v>269</v>
+      </c>
+      <c r="J73" t="s">
+        <v>122</v>
+      </c>
+      <c r="K73" t="s">
+        <v>122</v>
+      </c>
+      <c r="L73" t="s">
+        <v>122</v>
+      </c>
+      <c r="M73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N73" t="s">
+        <v>122</v>
+      </c>
+      <c r="O73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I74" t="s">
+        <v>480</v>
+      </c>
+      <c r="J74" t="s">
+        <v>122</v>
+      </c>
+      <c r="K74" t="s">
+        <v>122</v>
+      </c>
+      <c r="L74" t="s">
+        <v>692</v>
+      </c>
+      <c r="M74" t="s">
+        <v>693</v>
+      </c>
+      <c r="N74" t="s">
+        <v>122</v>
+      </c>
+      <c r="O74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I75" t="s">
+        <v>229</v>
+      </c>
+      <c r="J75" t="s">
+        <v>230</v>
+      </c>
+      <c r="K75" t="s">
+        <v>122</v>
+      </c>
+      <c r="L75" t="s">
+        <v>122</v>
+      </c>
+      <c r="M75" t="s">
+        <v>122</v>
+      </c>
+      <c r="N75" t="s">
+        <v>122</v>
+      </c>
+      <c r="O75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="I76" t="s">
+        <v>478</v>
+      </c>
+      <c r="J76" t="s">
+        <v>122</v>
+      </c>
+      <c r="K76" t="s">
+        <v>122</v>
+      </c>
+      <c r="L76" t="s">
+        <v>692</v>
+      </c>
+      <c r="M76" t="s">
+        <v>696</v>
+      </c>
+      <c r="N76" t="s">
+        <v>122</v>
+      </c>
+      <c r="O76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I77" t="s">
+        <v>698</v>
+      </c>
+      <c r="J77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K77" t="s">
+        <v>122</v>
+      </c>
+      <c r="L77" t="s">
+        <v>122</v>
+      </c>
+      <c r="M77" t="s">
+        <v>122</v>
+      </c>
+      <c r="N77" t="s">
+        <v>122</v>
+      </c>
+      <c r="O77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" t="s">
+        <v>786</v>
+      </c>
+      <c r="J78" t="s">
+        <v>787</v>
+      </c>
+      <c r="K78" t="s">
+        <v>122</v>
+      </c>
+      <c r="L78" t="s">
+        <v>122</v>
+      </c>
+      <c r="M78" t="s">
+        <v>122</v>
+      </c>
+      <c r="N78" t="s">
+        <v>122</v>
+      </c>
+      <c r="O78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I79" t="s">
+        <v>789</v>
+      </c>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+      <c r="K79" t="s">
+        <v>122</v>
+      </c>
+      <c r="L79" t="s">
+        <v>122</v>
+      </c>
+      <c r="M79" t="s">
+        <v>122</v>
+      </c>
+      <c r="N79" t="s">
+        <v>122</v>
+      </c>
+      <c r="O79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I80" t="s">
+        <v>701</v>
+      </c>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+      <c r="K80" t="s">
+        <v>122</v>
+      </c>
+      <c r="L80" t="s">
+        <v>122</v>
+      </c>
+      <c r="M80" t="s">
+        <v>122</v>
+      </c>
+      <c r="N80" t="s">
+        <v>122</v>
+      </c>
+      <c r="O80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I81" t="s">
+        <v>703</v>
+      </c>
+      <c r="J81" t="s">
+        <v>122</v>
+      </c>
+      <c r="K81" t="s">
+        <v>122</v>
+      </c>
+      <c r="L81" t="s">
+        <v>122</v>
+      </c>
+      <c r="M81" t="s">
+        <v>122</v>
+      </c>
+      <c r="N81" t="s">
+        <v>122</v>
+      </c>
+      <c r="O81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I82" t="s">
+        <v>706</v>
+      </c>
+      <c r="J82" t="s">
+        <v>122</v>
+      </c>
+      <c r="K82" t="s">
+        <v>122</v>
+      </c>
+      <c r="L82" t="s">
+        <v>122</v>
+      </c>
+      <c r="M82" t="s">
+        <v>122</v>
+      </c>
+      <c r="N82" t="s">
+        <v>122</v>
+      </c>
+      <c r="O82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>522</v>
+      </c>
+      <c r="K83" t="s">
+        <v>122</v>
+      </c>
+      <c r="L83" t="s">
+        <v>122</v>
+      </c>
+      <c r="M83" t="s">
+        <v>122</v>
+      </c>
+      <c r="N83" t="s">
+        <v>122</v>
+      </c>
+      <c r="O83" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I84" t="s">
+        <v>144</v>
+      </c>
+      <c r="J84" t="s">
+        <v>145</v>
+      </c>
+      <c r="K84" t="s">
+        <v>122</v>
+      </c>
+      <c r="L84" t="s">
+        <v>122</v>
+      </c>
+      <c r="M84" t="s">
+        <v>122</v>
+      </c>
+      <c r="N84" t="s">
+        <v>122</v>
+      </c>
+      <c r="O84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I85" t="s">
+        <v>707</v>
+      </c>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+      <c r="K85" t="s">
+        <v>122</v>
+      </c>
+      <c r="L85" t="s">
+        <v>122</v>
+      </c>
+      <c r="M85" t="s">
+        <v>122</v>
+      </c>
+      <c r="N85" t="s">
+        <v>122</v>
+      </c>
+      <c r="O85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I86" t="s">
+        <v>709</v>
+      </c>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+      <c r="K86" t="s">
+        <v>122</v>
+      </c>
+      <c r="L86" t="s">
+        <v>122</v>
+      </c>
+      <c r="M86" t="s">
+        <v>122</v>
+      </c>
+      <c r="N86" t="s">
+        <v>122</v>
+      </c>
+      <c r="O86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="I87" t="s">
+        <v>280</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+      <c r="K87" t="s">
+        <v>122</v>
+      </c>
+      <c r="L87" t="s">
+        <v>122</v>
+      </c>
+      <c r="M87" t="s">
+        <v>122</v>
+      </c>
+      <c r="N87" t="s">
+        <v>122</v>
+      </c>
+      <c r="O87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I88" t="s">
+        <v>247</v>
+      </c>
+      <c r="J88" t="s">
+        <v>248</v>
+      </c>
+      <c r="K88" t="s">
+        <v>122</v>
+      </c>
+      <c r="L88" t="s">
+        <v>122</v>
+      </c>
+      <c r="M88" t="s">
+        <v>122</v>
+      </c>
+      <c r="N88" t="s">
+        <v>122</v>
+      </c>
+      <c r="O88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I89" t="s">
+        <v>170</v>
+      </c>
+      <c r="J89" t="s">
+        <v>171</v>
+      </c>
+      <c r="K89" t="s">
+        <v>122</v>
+      </c>
+      <c r="L89" t="s">
+        <v>122</v>
+      </c>
+      <c r="M89" t="s">
+        <v>122</v>
+      </c>
+      <c r="N89" t="s">
+        <v>122</v>
+      </c>
+      <c r="O89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+      <c r="K90" t="s">
+        <v>122</v>
+      </c>
+      <c r="L90" t="s">
+        <v>712</v>
+      </c>
+      <c r="M90" t="s">
+        <v>713</v>
+      </c>
+      <c r="N90" t="s">
+        <v>122</v>
+      </c>
+      <c r="O90" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I91" t="s">
+        <v>131</v>
+      </c>
+      <c r="J91" t="s">
+        <v>132</v>
+      </c>
+      <c r="K91" t="s">
+        <v>438</v>
+      </c>
+      <c r="L91" t="s">
+        <v>712</v>
+      </c>
+      <c r="M91" t="s">
+        <v>713</v>
+      </c>
+      <c r="N91" t="s">
+        <v>122</v>
+      </c>
+      <c r="O91" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I92" t="s">
+        <v>715</v>
+      </c>
+      <c r="J92" t="s">
+        <v>122</v>
+      </c>
+      <c r="K92" t="s">
+        <v>122</v>
+      </c>
+      <c r="L92" t="s">
+        <v>122</v>
+      </c>
+      <c r="M92" t="s">
+        <v>122</v>
+      </c>
+      <c r="N92" t="s">
+        <v>122</v>
+      </c>
+      <c r="O92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
+        <v>21</v>
+      </c>
+      <c r="K93" t="s">
+        <v>122</v>
+      </c>
+      <c r="L93" t="s">
+        <v>122</v>
+      </c>
+      <c r="M93" t="s">
+        <v>122</v>
+      </c>
+      <c r="N93" t="s">
+        <v>122</v>
+      </c>
+      <c r="O93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+      <c r="K94" t="s">
+        <v>122</v>
+      </c>
+      <c r="L94" t="s">
+        <v>716</v>
+      </c>
+      <c r="M94" t="s">
+        <v>713</v>
+      </c>
+      <c r="N94" t="s">
+        <v>122</v>
+      </c>
+      <c r="O94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I95" t="s">
+        <v>129</v>
+      </c>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+      <c r="K95" t="s">
+        <v>438</v>
+      </c>
+      <c r="L95" t="s">
+        <v>716</v>
+      </c>
+      <c r="M95" t="s">
+        <v>713</v>
+      </c>
+      <c r="N95" t="s">
+        <v>122</v>
+      </c>
+      <c r="O95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I96" t="s">
+        <v>48</v>
+      </c>
+      <c r="J96" t="s">
+        <v>49</v>
+      </c>
+      <c r="K96" t="s">
+        <v>122</v>
+      </c>
+      <c r="L96" t="s">
+        <v>122</v>
+      </c>
+      <c r="M96" t="s">
+        <v>122</v>
+      </c>
+      <c r="N96" t="s">
+        <v>122</v>
+      </c>
+      <c r="O96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" t="s">
+        <v>529</v>
+      </c>
+      <c r="J97" t="s">
+        <v>122</v>
+      </c>
+      <c r="K97" t="s">
+        <v>122</v>
+      </c>
+      <c r="L97" t="s">
+        <v>720</v>
+      </c>
+      <c r="M97" t="s">
+        <v>721</v>
+      </c>
+      <c r="N97" t="s">
+        <v>122</v>
+      </c>
+      <c r="O97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I98" t="s">
+        <v>531</v>
+      </c>
+      <c r="J98" t="s">
+        <v>530</v>
+      </c>
+      <c r="K98" t="s">
+        <v>122</v>
+      </c>
+      <c r="L98" t="s">
+        <v>720</v>
+      </c>
+      <c r="M98" t="s">
+        <v>721</v>
+      </c>
+      <c r="N98" t="s">
+        <v>122</v>
+      </c>
+      <c r="O98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99" t="s">
+        <v>122</v>
+      </c>
+      <c r="K99" t="s">
+        <v>122</v>
+      </c>
+      <c r="L99" t="s">
+        <v>724</v>
+      </c>
+      <c r="M99" t="s">
+        <v>725</v>
+      </c>
+      <c r="N99" t="s">
+        <v>122</v>
+      </c>
+      <c r="O99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I100" t="s">
+        <v>729</v>
+      </c>
+      <c r="J100" t="s">
+        <v>122</v>
+      </c>
+      <c r="K100" t="s">
+        <v>122</v>
+      </c>
+      <c r="L100" t="s">
+        <v>122</v>
+      </c>
+      <c r="M100" t="s">
+        <v>122</v>
+      </c>
+      <c r="N100" t="s">
+        <v>122</v>
+      </c>
+      <c r="O100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="3" t="s">
+      <c r="F101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I101" t="s">
         <v>538</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J101" t="s">
         <v>536</v>
       </c>
-      <c r="K63" t="s">
-        <v>122</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N63" t="s">
-        <v>122</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="K101" t="s">
+        <v>122</v>
+      </c>
+      <c r="L101" t="s">
+        <v>122</v>
+      </c>
+      <c r="M101" t="s">
+        <v>122</v>
+      </c>
+      <c r="N101" t="s">
+        <v>122</v>
+      </c>
+      <c r="O101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="I102" t="s">
+        <v>67</v>
+      </c>
+      <c r="J102" t="s">
+        <v>68</v>
+      </c>
+      <c r="K102" t="s">
+        <v>122</v>
+      </c>
+      <c r="L102" t="s">
+        <v>122</v>
+      </c>
+      <c r="M102" t="s">
+        <v>122</v>
+      </c>
+      <c r="N102" t="s">
+        <v>122</v>
+      </c>
+      <c r="O102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I103" t="s">
+        <v>149</v>
+      </c>
+      <c r="J103" t="s">
+        <v>122</v>
+      </c>
+      <c r="K103" t="s">
+        <v>122</v>
+      </c>
+      <c r="L103" t="s">
+        <v>122</v>
+      </c>
+      <c r="M103" t="s">
+        <v>122</v>
+      </c>
+      <c r="N103" t="s">
+        <v>122</v>
+      </c>
+      <c r="O103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="I104" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" t="s">
+        <v>122</v>
+      </c>
+      <c r="L104" t="s">
+        <v>122</v>
+      </c>
+      <c r="M104" t="s">
+        <v>122</v>
+      </c>
+      <c r="N104" t="s">
+        <v>122</v>
+      </c>
+      <c r="O104" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E198D8-0F1E-4A75-B2CE-17902D047A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCD13D9-6351-442E-A698-9FB1AC7509D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="-19785" windowWidth="22170" windowHeight="18135" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="28680" yWindow="-7620" windowWidth="29040" windowHeight="15720" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966088" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="819">
   <si>
     <t>All</t>
   </si>
@@ -2120,21 +2120,12 @@
     <t>A study design's trial types must be specified according to the extensible Trial Type Response (C66739) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
   </si>
   <si>
-    <t>Range =&gt; StudyDesignPopulation, StudyCohort</t>
-  </si>
-  <si>
-    <t>unit =&gt; plannedAge</t>
-  </si>
-  <si>
     <t>plannedEnrollmentNumber, plannedCompletionNumber</t>
   </si>
   <si>
     <t>DDF00043</t>
   </si>
   <si>
-    <t>unit =&gt; plannedEnrollmentNumber, plannedCompletionNumber</t>
-  </si>
-  <si>
     <t>A planned sex must be specfied using to the Sex of participants (C66732) SDTM codelist.</t>
   </si>
   <si>
@@ -2180,21 +2171,12 @@
     <t>A study intervention's role must be specifed using the study intervention role (C207417) DDF codelist.</t>
   </si>
   <si>
-    <t>GovernanceDate =&gt; StudyProtocolDocumentVersion</t>
-  </si>
-  <si>
-    <t>type, geographicScopes =&gt; dateValues</t>
-  </si>
-  <si>
     <t>A study title type must be specified using the study title type (C207419) DDF codelist.</t>
   </si>
   <si>
     <t>CHK0213</t>
   </si>
   <si>
-    <t>GovernanceDate =&gt; StudyVersion</t>
-  </si>
-  <si>
     <t>Within a study version, if a date of a specific type exists with a global geographic scope then no other dates are expected with the same type.</t>
   </si>
   <si>
@@ -2204,24 +2186,12 @@
     <t>titles</t>
   </si>
   <si>
-    <t>StudyTitle =&gt; StudyVersion</t>
-  </si>
-  <si>
-    <t>type =&gt; titles</t>
-  </si>
-  <si>
     <t>Every study version must have a title of type "Official Study Title".</t>
   </si>
   <si>
     <t>SubjectEnrollment</t>
   </si>
   <si>
-    <t>Quantity =&gt; SubjectEnrollment</t>
-  </si>
-  <si>
-    <t>unit =&gt; quantity</t>
-  </si>
-  <si>
     <t>A referenced substance must not have any references itself.</t>
   </si>
   <si>
@@ -2285,12 +2255,6 @@
     <t>CHK0229</t>
   </si>
   <si>
-    <t>DDF00054</t>
-  </si>
-  <si>
-    <t>DDF00053</t>
-  </si>
-  <si>
     <t>Encounter ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their specified default conditions.</t>
   </si>
   <si>
@@ -2324,9 +2288,6 @@
     <t>CHK0222</t>
   </si>
   <si>
-    <t>DDF00058</t>
-  </si>
-  <si>
     <t>CHK0106</t>
   </si>
   <si>
@@ -2342,9 +2303,6 @@
     <t>When included in text, references to items stored elsewhere in the data model must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
   </si>
   <si>
-    <t>N =&gt; ?</t>
-  </si>
-  <si>
     <t>Narrative content text is expected to be HTML formatted.</t>
   </si>
   <si>
@@ -2387,15 +2345,6 @@
     <t>CHK0224</t>
   </si>
   <si>
-    <t>DDF00056</t>
-  </si>
-  <si>
-    <t>DDF00057</t>
-  </si>
-  <si>
-    <t>DDF00055</t>
-  </si>
-  <si>
     <t>Epoch ordering using previous and next attributes is expected to be consistent with the order of corresponding scheduled activity instances according to their specified default conditions.</t>
   </si>
   <si>
@@ -2414,19 +2363,142 @@
     <t>CHK0227</t>
   </si>
   <si>
-    <t>DDF00059</t>
-  </si>
-  <si>
     <t>Within a study version, if more than 1 business therapeutic area is defined then they must be distinct.</t>
   </si>
   <si>
     <t>If timing type is "Fixed Reference" then it must point to only one scheduled instance (e.g. attribute relativeToScheduledInstance must be equal to relativeFromScheduledInstance or it must be missing).</t>
   </si>
   <si>
-    <t>DDF00051</t>
-  </si>
-  <si>
-    <t>A window must not be defined for an anchor timing (e.g. type is "Fixed Reference".</t>
+    <t>Internal Ideation Number</t>
+  </si>
+  <si>
+    <t>V3 change</t>
+  </si>
+  <si>
+    <t>V4 change</t>
+  </si>
+  <si>
+    <t>Y=&gt;N</t>
+  </si>
+  <si>
+    <t>A window must not be defined for an anchor timing (i.e., type is "Fixed Reference").</t>
+  </si>
+  <si>
+    <t>Quantity=&gt;SubjectEnrollment</t>
+  </si>
+  <si>
+    <t>unit=&gt;quantity</t>
+  </si>
+  <si>
+    <t>Y=&gt;?</t>
+  </si>
+  <si>
+    <t>N=&gt;?</t>
+  </si>
+  <si>
+    <t>GovernanceDate=&gt;StudyProtocolDocumentVersion</t>
+  </si>
+  <si>
+    <t>type, geographicScopes=&gt;dateValues</t>
+  </si>
+  <si>
+    <t>GovernanceDate=&gt;StudyVersion</t>
+  </si>
+  <si>
+    <t>ERROR=&gt;WARNING</t>
+  </si>
+  <si>
+    <t>StudyTitle=&gt;StudyVersion</t>
+  </si>
+  <si>
+    <t>type=&gt;titles</t>
+  </si>
+  <si>
+    <t>The value for each timing must be a non-negative duration specified in ISO 8601 format.</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>DDF00060</t>
+  </si>
+  <si>
+    <t>CHK0108</t>
+  </si>
+  <si>
+    <t>The value for each timing must be specified in ISO 8601 duration format.</t>
+  </si>
+  <si>
+    <t>Range=&gt;StudyDesignPopulation, StudyCohort</t>
+  </si>
+  <si>
+    <t>unit=&gt;plannedEnrollmentNumber, plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>unit=&gt;plannedAge</t>
+  </si>
+  <si>
+    <t>ScheduledActivityInstance, ScheduledDecisionInstance=&gt;ScheduledActivityInstance</t>
+  </si>
+  <si>
+    <t>When specified, the lower limit of a timing window must be a non-negative duration in ISO 8601 format.</t>
+  </si>
+  <si>
+    <t>DDF00061</t>
+  </si>
+  <si>
+    <t>When specified, the upper limit of a timing window must be a non-negative duration in ISO 8601 format.</t>
+  </si>
+  <si>
+    <t>DDF00062</t>
+  </si>
+  <si>
+    <t>?=&gt;Y</t>
+  </si>
+  <si>
+    <t>A planned sex must ether include a single entry of male or female or both female and male as entries.</t>
+  </si>
+  <si>
+    <t>CHK0232</t>
+  </si>
+  <si>
+    <t>Every study role must apply to either a study version or at least one study design, but not both.</t>
+  </si>
+  <si>
+    <t>StudyRole</t>
+  </si>
+  <si>
+    <t>CHK0233</t>
+  </si>
+  <si>
+    <t>A study role must not reference both assigned persons and organizations.</t>
+  </si>
+  <si>
+    <t>assignedPersons, organizations</t>
+  </si>
+  <si>
+    <t>CHK0234</t>
+  </si>
+  <si>
+    <t>A masking is not expected to be defined for any study role in a study design with an open label blinding schema.</t>
+  </si>
+  <si>
+    <t>masking</t>
+  </si>
+  <si>
+    <t>CHK0235</t>
+  </si>
+  <si>
+    <t>A masking is expected to be defined for at least two study roles in a study design with a double blind blinding schema.</t>
+  </si>
+  <si>
+    <t>CHK0236</t>
+  </si>
+  <si>
+    <t>A masking is expected to be defined for at least one study role in a study design with a blinding schema that is not open label or double blind.</t>
+  </si>
+  <si>
+    <t>CHK0237</t>
   </si>
 </sst>
 </file>
@@ -2867,19 +2939,20 @@
   <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="59.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="24.453125" customWidth="1"/>
     <col min="5" max="5" width="27.1796875" customWidth="1"/>
     <col min="8" max="8" width="17.90625" customWidth="1"/>
     <col min="10" max="10" width="63.6328125" customWidth="1"/>
     <col min="11" max="11" width="18.7265625" customWidth="1"/>
-    <col min="12" max="12" width="20.36328125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="12" max="12" width="29.90625" customWidth="1"/>
+    <col min="13" max="13" width="30.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -2908,7 +2981,7 @@
         <v>552</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>306</v>
+        <v>775</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>615</v>
@@ -2923,10 +2996,10 @@
         <v>396</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>397</v>
+        <v>776</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>398</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -2934,7 +3007,7 @@
         <v>416</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>95</v>
@@ -2955,7 +3028,7 @@
         <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>122</v>
@@ -2970,10 +3043,10 @@
         <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>407</v>
+        <v>778</v>
       </c>
       <c r="O2" t="s">
-        <v>431</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -2981,7 +3054,7 @@
         <v>416</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>95</v>
@@ -2990,7 +3063,7 @@
         <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
@@ -3002,7 +3075,7 @@
         <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>122</v>
@@ -3017,10 +3090,10 @@
         <v>122</v>
       </c>
       <c r="N3" t="s">
-        <v>407</v>
+        <v>778</v>
       </c>
       <c r="O3" t="s">
-        <v>431</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -3028,7 +3101,7 @@
         <v>416</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>95</v>
@@ -3037,7 +3110,7 @@
         <v>108</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
@@ -3049,7 +3122,7 @@
         <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>122</v>
@@ -3064,10 +3137,10 @@
         <v>122</v>
       </c>
       <c r="N4" t="s">
-        <v>407</v>
+        <v>778</v>
       </c>
       <c r="O4" t="s">
-        <v>431</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -3075,7 +3148,7 @@
         <v>415</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
@@ -3096,18 +3169,18 @@
         <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>741</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="J5" t="s">
         <v>122</v>
       </c>
       <c r="K5" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" t="s">
         <v>122</v>
       </c>
       <c r="N5" t="s">
@@ -3122,7 +3195,7 @@
         <v>415</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
@@ -3143,18 +3216,18 @@
         <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>743</v>
-      </c>
-      <c r="J6" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="J6" t="s">
         <v>122</v>
       </c>
       <c r="K6" t="s">
         <v>122</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="L6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" t="s">
         <v>122</v>
       </c>
       <c r="N6" t="s">
@@ -3192,16 +3265,16 @@
       <c r="I7" t="s">
         <v>619</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>122</v>
       </c>
       <c r="K7" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="L7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" t="s">
         <v>122</v>
       </c>
       <c r="N7" t="s">
@@ -3239,16 +3312,16 @@
       <c r="I8" t="s">
         <v>622</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>122</v>
       </c>
       <c r="K8" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s">
         <v>122</v>
       </c>
       <c r="N8" t="s">
@@ -3286,16 +3359,16 @@
       <c r="I9" t="s">
         <v>626</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>122</v>
       </c>
       <c r="K9" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="s">
         <v>122</v>
       </c>
       <c r="N9" t="s">
@@ -3333,16 +3406,16 @@
       <c r="I10" t="s">
         <v>629</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>122</v>
       </c>
       <c r="K10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="s">
         <v>122</v>
       </c>
       <c r="N10" t="s">
@@ -3380,16 +3453,16 @@
       <c r="I11" t="s">
         <v>632</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>122</v>
       </c>
       <c r="K11" t="s">
         <v>122</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
         <v>122</v>
       </c>
       <c r="N11" t="s">
@@ -3427,16 +3500,16 @@
       <c r="I12" t="s">
         <v>634</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>122</v>
       </c>
       <c r="K12" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s">
         <v>122</v>
       </c>
       <c r="N12" t="s">
@@ -3474,16 +3547,16 @@
       <c r="I13" t="s">
         <v>636</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>122</v>
       </c>
       <c r="K13" t="s">
         <v>122</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
         <v>122</v>
       </c>
       <c r="N13" t="s">
@@ -3537,7 +3610,7 @@
         <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>407</v>
+        <v>778</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
@@ -3584,7 +3657,7 @@
         <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>407</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -3675,10 +3748,10 @@
         <v>122</v>
       </c>
       <c r="N17" t="s">
-        <v>407</v>
+        <v>778</v>
       </c>
       <c r="O17" t="s">
-        <v>431</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -3686,7 +3759,7 @@
         <v>416</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
@@ -3733,7 +3806,7 @@
         <v>415</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>95</v>
@@ -3754,18 +3827,18 @@
         <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>746</v>
-      </c>
-      <c r="J19" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="J19" t="s">
         <v>122</v>
       </c>
       <c r="K19" t="s">
         <v>122</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="L19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" t="s">
         <v>122</v>
       </c>
       <c r="N19" t="s">
@@ -3775,12 +3848,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>257</v>
+        <v>641</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
@@ -3798,13 +3871,13 @@
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>747</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="K20" t="s">
         <v>122</v>
@@ -3827,7 +3900,7 @@
         <v>416</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>1</v>
@@ -3836,22 +3909,22 @@
         <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K21" t="s">
         <v>122</v>
@@ -3869,12 +3942,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>642</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
@@ -3883,22 +3956,22 @@
         <v>94</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>748</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>296</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
         <v>122</v>
@@ -3916,36 +3989,36 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>642</v>
+        <v>737</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>282</v>
+        <v>738</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>283</v>
+        <v>739</v>
       </c>
       <c r="K23" t="s">
         <v>122</v>
@@ -3963,12 +4036,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>642</v>
+        <v>740</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
@@ -3977,10 +4050,10 @@
         <v>94</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>295</v>
+        <v>88</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2</v>
@@ -3989,18 +4062,18 @@
         <v>122</v>
       </c>
       <c r="I24" t="s">
-        <v>296</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>297</v>
+        <v>741</v>
+      </c>
+      <c r="J24" t="s">
+        <v>122</v>
       </c>
       <c r="K24" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="L24" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" t="s">
         <v>122</v>
       </c>
       <c r="N24" t="s">
@@ -4010,21 +4083,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>749</v>
+        <v>643</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>2</v>
@@ -4036,18 +4109,18 @@
         <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>750</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>751</v>
+        <v>644</v>
+      </c>
+      <c r="J25" t="s">
+        <v>122</v>
       </c>
       <c r="K25" t="s">
         <v>122</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="L25" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" t="s">
         <v>122</v>
       </c>
       <c r="N25" t="s">
@@ -4062,16 +4135,16 @@
         <v>415</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>752</v>
+        <v>645</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>2</v>
@@ -4083,18 +4156,18 @@
         <v>122</v>
       </c>
       <c r="I26" t="s">
-        <v>753</v>
-      </c>
-      <c r="J26" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J26" t="s">
         <v>122</v>
       </c>
       <c r="K26" t="s">
         <v>122</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="L26" t="s">
+        <v>122</v>
+      </c>
+      <c r="M26" t="s">
         <v>122</v>
       </c>
       <c r="N26" t="s">
@@ -4104,21 +4177,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>643</v>
+        <v>742</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>94</v>
+        <v>648</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>675</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>2</v>
@@ -4130,10 +4203,10 @@
         <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>644</v>
+        <v>743</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>122</v>
+        <v>744</v>
       </c>
       <c r="K27" t="s">
         <v>122</v>
@@ -4156,16 +4229,16 @@
         <v>415</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>81</v>
+        <v>648</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>2</v>
@@ -4177,18 +4250,18 @@
         <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>646</v>
-      </c>
-      <c r="J28" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J28" t="s">
         <v>122</v>
       </c>
       <c r="K28" t="s">
         <v>122</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="L28" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" t="s">
         <v>122</v>
       </c>
       <c r="N28" t="s">
@@ -4198,21 +4271,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>648</v>
+        <v>125</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>675</v>
+        <v>746</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>2</v>
@@ -4224,18 +4297,18 @@
         <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>755</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>756</v>
+        <v>747</v>
+      </c>
+      <c r="J29" t="s">
+        <v>122</v>
       </c>
       <c r="K29" t="s">
         <v>122</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="L29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" t="s">
         <v>122</v>
       </c>
       <c r="N29" t="s">
@@ -4245,18 +4318,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>648</v>
+        <v>125</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>66</v>
@@ -4271,18 +4344,18 @@
         <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>649</v>
-      </c>
-      <c r="J30" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J30" t="s">
         <v>122</v>
       </c>
       <c r="K30" t="s">
         <v>122</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="L30" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" t="s">
         <v>122</v>
       </c>
       <c r="N30" t="s">
@@ -4292,21 +4365,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>757</v>
+        <v>652</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>758</v>
+        <v>173</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>2</v>
@@ -4318,10 +4391,10 @@
         <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>759</v>
+        <v>205</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s">
         <v>122</v>
@@ -4339,21 +4412,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>2</v>
@@ -4365,10 +4438,10 @@
         <v>122</v>
       </c>
       <c r="I32" t="s">
-        <v>651</v>
+        <v>748</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>122</v>
+        <v>749</v>
       </c>
       <c r="K32" t="s">
         <v>122</v>
@@ -4388,19 +4461,19 @@
     </row>
     <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>277</v>
+        <v>653</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>2</v>
@@ -4409,13 +4482,13 @@
         <v>2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>760</v>
+        <v>122</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>750</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>122</v>
+        <v>653</v>
       </c>
       <c r="K33" t="s">
         <v>122</v>
@@ -4433,21 +4506,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>173</v>
+        <v>654</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>2</v>
@@ -4459,10 +4532,10 @@
         <v>122</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>751</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>206</v>
+        <v>655</v>
       </c>
       <c r="K34" t="s">
         <v>122</v>
@@ -4480,36 +4553,36 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>122</v>
+        <v>752</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I35" t="s">
-        <v>761</v>
+        <v>102</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>762</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s">
         <v>122</v>
@@ -4521,18 +4594,18 @@
         <v>122</v>
       </c>
       <c r="N35" t="s">
-        <v>122</v>
+        <v>778</v>
       </c>
       <c r="O35" t="s">
-        <v>122</v>
+        <v>783</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>122</v>
+        <v>753</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>95</v>
@@ -4541,30 +4614,30 @@
         <v>104</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I36" t="s">
-        <v>763</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>653</v>
+        <v>754</v>
+      </c>
+      <c r="J36" t="s">
+        <v>122</v>
       </c>
       <c r="K36" t="s">
         <v>122</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M36" s="1" t="s">
+      <c r="L36" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" t="s">
         <v>122</v>
       </c>
       <c r="N36" t="s">
@@ -4576,22 +4649,22 @@
     </row>
     <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>122</v>
+        <v>755</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>104</v>
+        <v>582</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>654</v>
+        <v>99</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>2</v>
@@ -4600,18 +4673,18 @@
         <v>122</v>
       </c>
       <c r="I37" t="s">
-        <v>764</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>655</v>
+        <v>756</v>
+      </c>
+      <c r="J37" t="s">
+        <v>122</v>
       </c>
       <c r="K37" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="1" t="s">
+      <c r="L37" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" t="s">
         <v>122</v>
       </c>
       <c r="N37" t="s">
@@ -4621,36 +4694,36 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s">
         <v>122</v>
@@ -4662,42 +4735,42 @@
         <v>122</v>
       </c>
       <c r="N38" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
       <c r="O38" t="s">
-        <v>766</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>767</v>
+        <v>184</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I39" t="s">
-        <v>768</v>
+        <v>183</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s">
         <v>122</v>
@@ -4720,19 +4793,19 @@
         <v>415</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>769</v>
+        <v>656</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>582</v>
+        <v>77</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>2</v>
@@ -4741,18 +4814,18 @@
         <v>122</v>
       </c>
       <c r="I40" t="s">
-        <v>770</v>
-      </c>
-      <c r="J40" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J40" t="s">
         <v>122</v>
       </c>
       <c r="K40" t="s">
         <v>122</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M40" s="1" t="s">
+      <c r="L40" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" t="s">
         <v>122</v>
       </c>
       <c r="N40" t="s">
@@ -4762,21 +4835,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>771</v>
+        <v>658</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>77</v>
+        <v>659</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>78</v>
+        <v>660</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>2</v>
@@ -4788,18 +4861,18 @@
         <v>122</v>
       </c>
       <c r="I41" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>76</v>
+        <v>661</v>
+      </c>
+      <c r="J41" t="s">
+        <v>122</v>
       </c>
       <c r="K41" t="s">
         <v>122</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="L41" t="s">
+        <v>122</v>
+      </c>
+      <c r="M41" t="s">
         <v>122</v>
       </c>
       <c r="N41" t="s">
@@ -4811,19 +4884,19 @@
     </row>
     <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>122</v>
+        <v>758</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>2</v>
@@ -4835,10 +4908,10 @@
         <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="K42" t="s">
         <v>122</v>
@@ -4856,21 +4929,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>656</v>
+        <v>759</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>2</v>
@@ -4882,10 +4955,10 @@
         <v>122</v>
       </c>
       <c r="I43" t="s">
-        <v>657</v>
+        <v>304</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="K43" t="s">
         <v>122</v>
@@ -4903,21 +4976,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>659</v>
+        <v>469</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>660</v>
+        <v>474</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>2</v>
@@ -4929,18 +5002,18 @@
         <v>122</v>
       </c>
       <c r="I44" t="s">
-        <v>661</v>
-      </c>
-      <c r="J44" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="J44" t="s">
         <v>122</v>
       </c>
       <c r="K44" t="s">
         <v>122</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M44" s="1" t="s">
+      <c r="L44" t="s">
+        <v>122</v>
+      </c>
+      <c r="M44" t="s">
         <v>122</v>
       </c>
       <c r="N44" t="s">
@@ -4950,21 +5023,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>772</v>
+        <v>664</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>210</v>
+        <v>665</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>2</v>
@@ -4976,18 +5049,18 @@
         <v>122</v>
       </c>
       <c r="I45" t="s">
-        <v>208</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>209</v>
+        <v>666</v>
+      </c>
+      <c r="J45" t="s">
+        <v>122</v>
       </c>
       <c r="K45" t="s">
         <v>122</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="L45" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" t="s">
         <v>122</v>
       </c>
       <c r="N45" t="s">
@@ -4997,24 +5070,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>773</v>
+        <v>667</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>210</v>
+        <v>668</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>2</v>
@@ -5023,18 +5096,18 @@
         <v>122</v>
       </c>
       <c r="I46" t="s">
-        <v>304</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>305</v>
+        <v>669</v>
+      </c>
+      <c r="J46" t="s">
+        <v>122</v>
       </c>
       <c r="K46" t="s">
         <v>122</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="L46" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" t="s">
         <v>122</v>
       </c>
       <c r="N46" t="s">
@@ -5044,21 +5117,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>662</v>
+        <v>760</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>469</v>
+        <v>42</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>474</v>
+        <v>140</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>2</v>
@@ -5070,16 +5143,16 @@
         <v>122</v>
       </c>
       <c r="I47" t="s">
-        <v>663</v>
+        <v>494</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>122</v>
+        <v>493</v>
       </c>
       <c r="K47" t="s">
         <v>122</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>122</v>
+        <v>798</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>122</v>
@@ -5091,21 +5164,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>664</v>
+        <v>761</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>665</v>
+        <v>62</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>2</v>
@@ -5114,13 +5187,13 @@
         <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>122</v>
+        <v>496</v>
       </c>
       <c r="I48" t="s">
-        <v>666</v>
+        <v>60</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="K48" t="s">
         <v>122</v>
@@ -5138,24 +5211,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>667</v>
+        <v>134</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>668</v>
+        <v>62</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>2</v>
@@ -5164,10 +5237,10 @@
         <v>122</v>
       </c>
       <c r="I49" t="s">
-        <v>669</v>
+        <v>133</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K49" t="s">
         <v>122</v>
@@ -5185,24 +5258,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>774</v>
+        <v>670</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>42</v>
+        <v>671</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>140</v>
+        <v>672</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>2</v>
@@ -5211,18 +5284,18 @@
         <v>122</v>
       </c>
       <c r="I50" t="s">
-        <v>494</v>
-      </c>
-      <c r="J50" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J50" t="s">
         <v>122</v>
       </c>
       <c r="K50" t="s">
         <v>122</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M50" s="1" t="s">
+      <c r="L50" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50" t="s">
         <v>122</v>
       </c>
       <c r="N50" t="s">
@@ -5234,19 +5307,19 @@
     </row>
     <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>140</v>
+        <v>675</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>2</v>
@@ -5258,18 +5331,18 @@
         <v>122</v>
       </c>
       <c r="I51" t="s">
-        <v>494</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>493</v>
+        <v>676</v>
+      </c>
+      <c r="J51" t="s">
+        <v>122</v>
       </c>
       <c r="K51" t="s">
         <v>122</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M51" s="1" t="s">
+      <c r="L51" t="s">
+        <v>122</v>
+      </c>
+      <c r="M51" t="s">
         <v>122</v>
       </c>
       <c r="N51" t="s">
@@ -5279,21 +5352,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>775</v>
+        <v>677</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>63</v>
+        <v>678</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>2</v>
@@ -5302,21 +5375,21 @@
         <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>496</v>
+        <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>679</v>
+      </c>
+      <c r="J52" t="s">
+        <v>122</v>
       </c>
       <c r="K52" t="s">
         <v>122</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M52" s="1" t="s">
+      <c r="L52" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" t="s">
         <v>122</v>
       </c>
       <c r="N52" t="s">
@@ -5328,19 +5401,19 @@
     </row>
     <row r="53" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>122</v>
+        <v>680</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>2</v>
@@ -5349,13 +5422,13 @@
         <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>122</v>
+        <v>613</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
+        <v>614</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>134</v>
+        <v>612</v>
       </c>
       <c r="K53" t="s">
         <v>122</v>
@@ -5373,24 +5446,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>670</v>
+        <v>762</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>671</v>
+        <v>83</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>672</v>
+        <v>763</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>2</v>
@@ -5399,18 +5472,18 @@
         <v>122</v>
       </c>
       <c r="I54" t="s">
-        <v>673</v>
-      </c>
-      <c r="J54" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="J54" t="s">
         <v>122</v>
       </c>
       <c r="K54" t="s">
         <v>122</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="L54" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" t="s">
         <v>122</v>
       </c>
       <c r="N54" t="s">
@@ -5420,33 +5493,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>674</v>
+        <v>585</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>675</v>
+        <v>84</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>676</v>
+        <v>586</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>122</v>
@@ -5461,27 +5534,27 @@
         <v>122</v>
       </c>
       <c r="N55" t="s">
-        <v>122</v>
+        <v>803</v>
       </c>
       <c r="O55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>677</v>
+        <v>765</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>678</v>
+        <v>140</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>2</v>
@@ -5493,18 +5566,18 @@
         <v>122</v>
       </c>
       <c r="I56" t="s">
-        <v>679</v>
-      </c>
-      <c r="J56" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="J56" t="s">
         <v>122</v>
       </c>
       <c r="K56" t="s">
         <v>122</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M56" s="1" t="s">
+      <c r="L56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M56" t="s">
         <v>122</v>
       </c>
       <c r="N56" t="s">
@@ -5516,34 +5589,34 @@
     </row>
     <row r="57" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>680</v>
+        <v>587</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>136</v>
+        <v>588</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>137</v>
+        <v>589</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>613</v>
+        <v>122</v>
       </c>
       <c r="I57" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="K57" t="s">
         <v>122</v>
@@ -5561,115 +5634,115 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" t="s">
+        <v>592</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K58" t="s">
+        <v>122</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N58" t="s">
+        <v>122</v>
+      </c>
+      <c r="O58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I58" t="s">
-        <v>778</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K58" t="s">
-        <v>122</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N58" t="s">
-        <v>122</v>
-      </c>
-      <c r="O58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="B59" s="3" t="s">
-        <v>585</v>
+        <v>124</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>83</v>
+        <v>594</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>84</v>
+        <v>682</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I59" t="s">
-        <v>586</v>
-      </c>
-      <c r="J59" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J59" t="s">
         <v>122</v>
       </c>
       <c r="K59" t="s">
         <v>122</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M59" s="1" t="s">
+      <c r="L59" t="s">
+        <v>122</v>
+      </c>
+      <c r="M59" t="s">
         <v>122</v>
       </c>
       <c r="N59" t="s">
-        <v>405</v>
+        <v>122</v>
       </c>
       <c r="O59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>122</v>
+        <v>684</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>589</v>
+        <v>682</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
@@ -5681,18 +5754,18 @@
         <v>122</v>
       </c>
       <c r="I60" t="s">
-        <v>590</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>587</v>
+        <v>685</v>
+      </c>
+      <c r="J60" t="s">
+        <v>122</v>
       </c>
       <c r="K60" t="s">
         <v>122</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M60" s="1" t="s">
+      <c r="L60" t="s">
+        <v>122</v>
+      </c>
+      <c r="M60" t="s">
         <v>122</v>
       </c>
       <c r="N60" t="s">
@@ -5704,22 +5777,22 @@
     </row>
     <row r="61" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>779</v>
+        <v>686</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>83</v>
+        <v>594</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>140</v>
+        <v>595</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2</v>
@@ -5728,10 +5801,10 @@
         <v>122</v>
       </c>
       <c r="I61" t="s">
-        <v>780</v>
+        <v>596</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>122</v>
+        <v>593</v>
       </c>
       <c r="K61" t="s">
         <v>122</v>
@@ -5754,19 +5827,19 @@
         <v>416</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>588</v>
+        <v>191</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>2</v>
@@ -5775,10 +5848,10 @@
         <v>122</v>
       </c>
       <c r="I62" t="s">
-        <v>592</v>
+        <v>199</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>591</v>
+        <v>200</v>
       </c>
       <c r="K62" t="s">
         <v>122</v>
@@ -5796,24 +5869,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>124</v>
+        <v>688</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>594</v>
+        <v>191</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>682</v>
+        <v>204</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>2</v>
@@ -5822,10 +5895,10 @@
         <v>122</v>
       </c>
       <c r="I63" t="s">
-        <v>683</v>
+        <v>202</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="K63" t="s">
         <v>122</v>
@@ -5843,24 +5916,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>594</v>
+        <v>191</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>682</v>
+        <v>198</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2</v>
@@ -5869,18 +5942,18 @@
         <v>122</v>
       </c>
       <c r="I64" t="s">
-        <v>685</v>
-      </c>
-      <c r="J64" t="s">
-        <v>122</v>
+        <v>196</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="K64" t="s">
         <v>122</v>
       </c>
-      <c r="L64" t="s">
-        <v>122</v>
-      </c>
-      <c r="M64" t="s">
+      <c r="L64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N64" t="s">
@@ -5890,24 +5963,24 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>594</v>
+        <v>191</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>595</v>
+        <v>192</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2</v>
@@ -5916,18 +5989,18 @@
         <v>122</v>
       </c>
       <c r="I65" t="s">
-        <v>596</v>
-      </c>
-      <c r="J65" t="s">
-        <v>593</v>
+        <v>189</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="K65" t="s">
         <v>122</v>
       </c>
-      <c r="L65" t="s">
-        <v>122</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="L65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N65" t="s">
@@ -5942,7 +6015,7 @@
         <v>416</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>1</v>
@@ -5951,7 +6024,7 @@
         <v>191</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>2</v>
@@ -5963,18 +6036,18 @@
         <v>122</v>
       </c>
       <c r="I66" t="s">
-        <v>199</v>
-      </c>
-      <c r="J66" t="s">
-        <v>200</v>
+        <v>193</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="K66" t="s">
         <v>122</v>
       </c>
-      <c r="L66" t="s">
-        <v>122</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="L66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N66" t="s">
@@ -5984,21 +6057,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>688</v>
+        <v>479</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>2</v>
@@ -6010,19 +6083,19 @@
         <v>122</v>
       </c>
       <c r="I67" t="s">
-        <v>202</v>
-      </c>
-      <c r="J67" t="s">
-        <v>203</v>
+        <v>480</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="K67" t="s">
         <v>122</v>
       </c>
-      <c r="L67" t="s">
-        <v>122</v>
-      </c>
-      <c r="M67" t="s">
-        <v>122</v>
+      <c r="L67" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>797</v>
       </c>
       <c r="N67" t="s">
         <v>122</v>
@@ -6031,21 +6104,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>689</v>
+        <v>230</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>2</v>
@@ -6057,18 +6130,18 @@
         <v>122</v>
       </c>
       <c r="I68" t="s">
-        <v>196</v>
-      </c>
-      <c r="J68" t="s">
-        <v>197</v>
+        <v>229</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="K68" t="s">
         <v>122</v>
       </c>
-      <c r="L68" t="s">
-        <v>122</v>
-      </c>
-      <c r="M68" t="s">
+      <c r="L68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N68" t="s">
@@ -6078,21 +6151,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>272</v>
+        <v>477</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>273</v>
+        <v>692</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>2</v>
@@ -6101,22 +6174,22 @@
         <v>2</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>781</v>
+        <v>693</v>
       </c>
       <c r="I69" t="s">
-        <v>271</v>
-      </c>
-      <c r="J69" t="s">
+        <v>478</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K69" t="s">
         <v>122</v>
       </c>
-      <c r="L69" t="s">
-        <v>122</v>
-      </c>
-      <c r="M69" t="s">
-        <v>122</v>
+      <c r="L69" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="N69" t="s">
         <v>122</v>
@@ -6125,21 +6198,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>2</v>
@@ -6151,10 +6224,10 @@
         <v>122</v>
       </c>
       <c r="I70" t="s">
-        <v>189</v>
+        <v>695</v>
       </c>
       <c r="J70" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="K70" t="s">
         <v>122</v>
@@ -6174,31 +6247,31 @@
     </row>
     <row r="71" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>275</v>
+        <v>804</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>782</v>
+        <v>122</v>
       </c>
       <c r="I71" t="s">
-        <v>274</v>
+        <v>805</v>
       </c>
       <c r="J71" t="s">
         <v>122</v>
@@ -6219,21 +6292,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>691</v>
+        <v>767</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>191</v>
+        <v>768</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>2</v>
@@ -6242,21 +6315,21 @@
         <v>2</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>193</v>
-      </c>
-      <c r="J72" t="s">
-        <v>194</v>
+        <v>769</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="K72" t="s">
         <v>122</v>
       </c>
-      <c r="L72" t="s">
-        <v>122</v>
-      </c>
-      <c r="M72" t="s">
+      <c r="L72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N72" t="s">
@@ -6268,19 +6341,19 @@
     </row>
     <row r="73" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>270</v>
+        <v>771</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>191</v>
+        <v>768</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>2</v>
@@ -6289,10 +6362,10 @@
         <v>2</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>783</v>
+        <v>122</v>
       </c>
       <c r="I73" t="s">
-        <v>269</v>
+        <v>772</v>
       </c>
       <c r="J73" t="s">
         <v>122</v>
@@ -6315,22 +6388,22 @@
     </row>
     <row r="74" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>479</v>
+        <v>696</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>35</v>
+        <v>697</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>2</v>
@@ -6339,19 +6412,19 @@
         <v>122</v>
       </c>
       <c r="I74" t="s">
-        <v>480</v>
-      </c>
-      <c r="J74" t="s">
+        <v>698</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K74" t="s">
         <v>122</v>
       </c>
-      <c r="L74" t="s">
-        <v>692</v>
-      </c>
-      <c r="M74" t="s">
-        <v>693</v>
+      <c r="L74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="N74" t="s">
         <v>122</v>
@@ -6362,22 +6435,22 @@
     </row>
     <row r="75" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>122</v>
+        <v>699</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>231</v>
+        <v>697</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>2</v>
@@ -6386,10 +6459,10 @@
         <v>122</v>
       </c>
       <c r="I75" t="s">
-        <v>229</v>
+        <v>700</v>
       </c>
       <c r="J75" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="K75" t="s">
         <v>122</v>
@@ -6409,43 +6482,43 @@
     </row>
     <row r="76" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>477</v>
+        <v>701</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>695</v>
+        <v>122</v>
       </c>
       <c r="I76" t="s">
-        <v>478</v>
-      </c>
-      <c r="J76" t="s">
+        <v>703</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K76" t="s">
         <v>122</v>
       </c>
-      <c r="L76" t="s">
-        <v>692</v>
-      </c>
-      <c r="M76" t="s">
-        <v>696</v>
+      <c r="L76" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="N76" t="s">
         <v>122</v>
@@ -6456,66 +6529,66 @@
     </row>
     <row r="77" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>122</v>
+        <v>523</v>
       </c>
       <c r="I77" t="s">
-        <v>698</v>
-      </c>
-      <c r="J77" t="s">
-        <v>122</v>
+        <v>16</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="K77" t="s">
         <v>122</v>
       </c>
-      <c r="L77" t="s">
-        <v>122</v>
-      </c>
-      <c r="M77" t="s">
+      <c r="L77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M77" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N77" t="s">
         <v>122</v>
       </c>
       <c r="O77" t="s">
-        <v>122</v>
+        <v>778</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>784</v>
+        <v>145</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>785</v>
+        <v>18</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>2</v>
@@ -6524,21 +6597,21 @@
         <v>2</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="I78" t="s">
-        <v>786</v>
-      </c>
-      <c r="J78" t="s">
-        <v>787</v>
+        <v>144</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K78" t="s">
         <v>122</v>
       </c>
-      <c r="L78" t="s">
-        <v>122</v>
-      </c>
-      <c r="M78" t="s">
+      <c r="L78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N78" t="s">
@@ -6553,39 +6626,39 @@
         <v>415</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>788</v>
+        <v>699</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>785</v>
+        <v>18</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I79" t="s">
-        <v>789</v>
-      </c>
-      <c r="J79" t="s">
+        <v>704</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K79" t="s">
         <v>122</v>
       </c>
-      <c r="L79" t="s">
-        <v>122</v>
-      </c>
-      <c r="M79" t="s">
+      <c r="L79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M79" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N79" t="s">
@@ -6595,21 +6668,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>18</v>
+        <v>705</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>700</v>
+        <v>99</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>8</v>
@@ -6621,18 +6694,18 @@
         <v>122</v>
       </c>
       <c r="I80" t="s">
-        <v>701</v>
-      </c>
-      <c r="J80" t="s">
+        <v>706</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K80" t="s">
         <v>122</v>
       </c>
-      <c r="L80" t="s">
-        <v>122</v>
-      </c>
-      <c r="M80" t="s">
+      <c r="L80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N80" t="s">
@@ -6644,22 +6717,22 @@
     </row>
     <row r="81" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>700</v>
+        <v>249</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2</v>
@@ -6668,18 +6741,18 @@
         <v>122</v>
       </c>
       <c r="I81" t="s">
-        <v>703</v>
-      </c>
-      <c r="J81" t="s">
-        <v>122</v>
+        <v>247</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="K81" t="s">
         <v>122</v>
       </c>
-      <c r="L81" t="s">
-        <v>122</v>
-      </c>
-      <c r="M81" t="s">
+      <c r="L81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N81" t="s">
@@ -6691,42 +6764,42 @@
     </row>
     <row r="82" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>705</v>
+        <v>173</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I82" t="s">
-        <v>706</v>
-      </c>
-      <c r="J82" t="s">
-        <v>122</v>
+        <v>170</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="K82" t="s">
         <v>122</v>
       </c>
-      <c r="L82" t="s">
-        <v>122</v>
-      </c>
-      <c r="M82" t="s">
+      <c r="L82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M82" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N82" t="s">
@@ -6736,21 +6809,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>699</v>
+        <v>124</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>19</v>
+        <v>682</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>2</v>
@@ -6759,75 +6832,75 @@
         <v>8</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>523</v>
+        <v>122</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" t="s">
-        <v>522</v>
+        <v>123</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="K83" t="s">
         <v>122</v>
       </c>
-      <c r="L83" t="s">
-        <v>122</v>
-      </c>
-      <c r="M83" t="s">
-        <v>122</v>
+      <c r="L83" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="N83" t="s">
         <v>122</v>
       </c>
       <c r="O83" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>122</v>
+        <v>684</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>19</v>
+        <v>682</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
-      </c>
-      <c r="J84" t="s">
-        <v>145</v>
+        <v>131</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="K84" t="s">
-        <v>122</v>
-      </c>
-      <c r="L84" t="s">
-        <v>122</v>
-      </c>
-      <c r="M84" t="s">
-        <v>122</v>
+        <v>787</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="N84" t="s">
         <v>122</v>
       </c>
       <c r="O84" t="s">
-        <v>122</v>
+        <v>778</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -6835,28 +6908,28 @@
         <v>415</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>702</v>
+        <v>806</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>18</v>
+        <v>807</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I85" t="s">
-        <v>707</v>
+        <v>808</v>
       </c>
       <c r="J85" t="s">
         <v>122</v>
@@ -6877,21 +6950,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>415</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>704</v>
+        <v>809</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>708</v>
+        <v>807</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>99</v>
+        <v>810</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>8</v>
@@ -6903,7 +6976,7 @@
         <v>122</v>
       </c>
       <c r="I86" t="s">
-        <v>709</v>
+        <v>811</v>
       </c>
       <c r="J86" t="s">
         <v>122</v>
@@ -6926,31 +6999,31 @@
     </row>
     <row r="87" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>281</v>
+        <v>812</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>172</v>
+        <v>807</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>279</v>
+        <v>813</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>790</v>
+        <v>122</v>
       </c>
       <c r="I87" t="s">
-        <v>280</v>
+        <v>814</v>
       </c>
       <c r="J87" t="s">
         <v>122</v>
@@ -6973,22 +7046,22 @@
     </row>
     <row r="88" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>710</v>
+        <v>815</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>172</v>
+        <v>807</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>249</v>
+        <v>813</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2</v>
@@ -6997,10 +7070,10 @@
         <v>122</v>
       </c>
       <c r="I88" t="s">
-        <v>247</v>
+        <v>816</v>
       </c>
       <c r="J88" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="K88" t="s">
         <v>122</v>
@@ -7020,207 +7093,207 @@
     </row>
     <row r="89" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I89" t="s">
+        <v>818</v>
+      </c>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+      <c r="K89" t="s">
+        <v>122</v>
+      </c>
+      <c r="L89" t="s">
+        <v>122</v>
+      </c>
+      <c r="M89" t="s">
+        <v>122</v>
+      </c>
+      <c r="N89" t="s">
+        <v>122</v>
+      </c>
+      <c r="O89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I90" t="s">
+        <v>710</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+      <c r="K90" t="s">
+        <v>122</v>
+      </c>
+      <c r="L90" t="s">
+        <v>122</v>
+      </c>
+      <c r="M90" t="s">
+        <v>122</v>
+      </c>
+      <c r="N90" t="s">
+        <v>122</v>
+      </c>
+      <c r="O90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>122</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N91" t="s">
+        <v>122</v>
+      </c>
+      <c r="O91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K92" t="s">
+        <v>122</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="N92" t="s">
+        <v>122</v>
+      </c>
+      <c r="O92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I89" t="s">
-        <v>170</v>
-      </c>
-      <c r="J89" t="s">
-        <v>171</v>
-      </c>
-      <c r="K89" t="s">
-        <v>122</v>
-      </c>
-      <c r="L89" t="s">
-        <v>122</v>
-      </c>
-      <c r="M89" t="s">
-        <v>122</v>
-      </c>
-      <c r="N89" t="s">
-        <v>122</v>
-      </c>
-      <c r="O89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I90" t="s">
-        <v>123</v>
-      </c>
-      <c r="J90" t="s">
-        <v>122</v>
-      </c>
-      <c r="K90" t="s">
-        <v>122</v>
-      </c>
-      <c r="L90" t="s">
-        <v>712</v>
-      </c>
-      <c r="M90" t="s">
-        <v>713</v>
-      </c>
-      <c r="N90" t="s">
-        <v>122</v>
-      </c>
-      <c r="O90" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I91" t="s">
-        <v>131</v>
-      </c>
-      <c r="J91" t="s">
-        <v>132</v>
-      </c>
-      <c r="K91" t="s">
-        <v>438</v>
-      </c>
-      <c r="L91" t="s">
-        <v>712</v>
-      </c>
-      <c r="M91" t="s">
-        <v>713</v>
-      </c>
-      <c r="N91" t="s">
-        <v>122</v>
-      </c>
-      <c r="O91" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I92" t="s">
-        <v>715</v>
-      </c>
-      <c r="J92" t="s">
-        <v>122</v>
-      </c>
-      <c r="K92" t="s">
-        <v>122</v>
-      </c>
-      <c r="L92" t="s">
-        <v>122</v>
-      </c>
-      <c r="M92" t="s">
-        <v>122</v>
-      </c>
-      <c r="N92" t="s">
-        <v>122</v>
-      </c>
-      <c r="O92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>23</v>
+        <v>682</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>2</v>
@@ -7229,22 +7302,22 @@
         <v>2</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>533</v>
+        <v>122</v>
       </c>
       <c r="I93" t="s">
-        <v>20</v>
-      </c>
-      <c r="J93" t="s">
-        <v>21</v>
+        <v>129</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="K93" t="s">
-        <v>122</v>
-      </c>
-      <c r="L93" t="s">
-        <v>122</v>
-      </c>
-      <c r="M93" t="s">
-        <v>122</v>
+        <v>787</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="N93" t="s">
         <v>122</v>
@@ -7253,12 +7326,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>128</v>
+        <v>712</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>1</v>
@@ -7267,7 +7340,7 @@
         <v>22</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>682</v>
+        <v>50</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>2</v>
@@ -7276,22 +7349,22 @@
         <v>2</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>122</v>
+        <v>535</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-      <c r="J94" t="s">
-        <v>122</v>
+        <v>48</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="K94" t="s">
         <v>122</v>
       </c>
-      <c r="L94" t="s">
-        <v>716</v>
-      </c>
-      <c r="M94" t="s">
-        <v>713</v>
+      <c r="L94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="N94" t="s">
         <v>122</v>
@@ -7305,16 +7378,16 @@
         <v>416</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>717</v>
+        <v>527</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>682</v>
+        <v>713</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>2</v>
@@ -7326,19 +7399,19 @@
         <v>122</v>
       </c>
       <c r="I95" t="s">
-        <v>129</v>
-      </c>
-      <c r="J95" t="s">
-        <v>130</v>
+        <v>529</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="K95" t="s">
-        <v>438</v>
-      </c>
-      <c r="L95" t="s">
-        <v>716</v>
-      </c>
-      <c r="M95" t="s">
-        <v>713</v>
+        <v>122</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>789</v>
       </c>
       <c r="N95" t="s">
         <v>122</v>
@@ -7347,12 +7420,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>1</v>
@@ -7361,7 +7434,7 @@
         <v>22</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>50</v>
+        <v>713</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>2</v>
@@ -7370,22 +7443,22 @@
         <v>2</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>535</v>
+        <v>122</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
-      </c>
-      <c r="J96" t="s">
-        <v>49</v>
+        <v>531</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="K96" t="s">
         <v>122</v>
       </c>
-      <c r="L96" t="s">
-        <v>122</v>
-      </c>
-      <c r="M96" t="s">
-        <v>122</v>
+      <c r="L96" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>789</v>
       </c>
       <c r="N96" t="s">
         <v>122</v>
@@ -7394,21 +7467,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>527</v>
+        <v>37</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>22</v>
+        <v>715</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>719</v>
+        <v>244</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>2</v>
@@ -7417,22 +7490,22 @@
         <v>2</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>122</v>
+        <v>466</v>
       </c>
       <c r="I97" t="s">
-        <v>529</v>
-      </c>
-      <c r="J97" t="s">
+        <v>36</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K97" t="s">
         <v>122</v>
       </c>
-      <c r="L97" t="s">
-        <v>720</v>
-      </c>
-      <c r="M97" t="s">
-        <v>721</v>
+      <c r="L97" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="N97" t="s">
         <v>122</v>
@@ -7443,90 +7516,90 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>22</v>
+        <v>717</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I98" t="s">
         <v>719</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I98" t="s">
-        <v>531</v>
-      </c>
       <c r="J98" t="s">
-        <v>530</v>
+        <v>122</v>
       </c>
       <c r="K98" t="s">
         <v>122</v>
       </c>
       <c r="L98" t="s">
+        <v>122</v>
+      </c>
+      <c r="M98" t="s">
+        <v>122</v>
+      </c>
+      <c r="N98" t="s">
+        <v>122</v>
+      </c>
+      <c r="O98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="M98" t="s">
+      <c r="C99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="N98" t="s">
-        <v>122</v>
-      </c>
-      <c r="O98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="I99" t="s">
-        <v>36</v>
-      </c>
-      <c r="J99" t="s">
-        <v>122</v>
+        <v>538</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="K99" t="s">
         <v>122</v>
       </c>
-      <c r="L99" t="s">
-        <v>724</v>
-      </c>
-      <c r="M99" t="s">
-        <v>725</v>
+      <c r="L99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="N99" t="s">
         <v>122</v>
@@ -7535,44 +7608,44 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>726</v>
+        <v>774</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>727</v>
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>728</v>
+        <v>69</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>122</v>
+        <v>541</v>
       </c>
       <c r="I100" t="s">
-        <v>729</v>
-      </c>
-      <c r="J100" t="s">
-        <v>122</v>
+        <v>67</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K100" t="s">
         <v>122</v>
       </c>
-      <c r="L100" t="s">
-        <v>122</v>
-      </c>
-      <c r="M100" t="s">
+      <c r="L100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M100" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N100" t="s">
@@ -7582,12 +7655,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>1</v>
@@ -7596,7 +7669,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>537</v>
+        <v>791</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>2</v>
@@ -7605,21 +7678,21 @@
         <v>2</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>731</v>
+        <v>792</v>
       </c>
       <c r="I101" t="s">
-        <v>538</v>
-      </c>
-      <c r="J101" t="s">
-        <v>536</v>
+        <v>793</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="K101" t="s">
         <v>122</v>
       </c>
-      <c r="L101" t="s">
-        <v>122</v>
-      </c>
-      <c r="M101" t="s">
+      <c r="L101" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M101" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N101" t="s">
@@ -7629,12 +7702,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>416</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>1</v>
@@ -7643,7 +7716,7 @@
         <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>2</v>
@@ -7652,21 +7725,21 @@
         <v>2</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I102" t="s">
-        <v>67</v>
-      </c>
-      <c r="J102" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="K102" t="s">
         <v>122</v>
       </c>
-      <c r="L102" t="s">
-        <v>122</v>
-      </c>
-      <c r="M102" t="s">
+      <c r="L102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M102" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N102" t="s">
@@ -7681,7 +7754,7 @@
         <v>416</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>150</v>
+        <v>799</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>1</v>
@@ -7690,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>2</v>
@@ -7699,21 +7772,21 @@
         <v>2</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="I103" t="s">
-        <v>149</v>
-      </c>
-      <c r="J103" t="s">
-        <v>122</v>
+        <v>217</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="K103" t="s">
         <v>122</v>
       </c>
-      <c r="L103" t="s">
-        <v>122</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="L103" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M103" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N103" t="s">
@@ -7728,7 +7801,7 @@
         <v>416</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>1</v>
@@ -7737,7 +7810,7 @@
         <v>4</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>2</v>
@@ -7746,21 +7819,21 @@
         <v>2</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>544</v>
+        <v>802</v>
       </c>
       <c r="I104" t="s">
-        <v>27</v>
-      </c>
-      <c r="J104" t="s">
-        <v>28</v>
+        <v>220</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="K104" t="s">
         <v>122</v>
       </c>
-      <c r="L104" t="s">
-        <v>122</v>
-      </c>
-      <c r="M104" t="s">
+      <c r="L104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M104" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N104" t="s">
@@ -7771,6 +7844,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O104">
+    <sortCondition ref="D2:D104"/>
+    <sortCondition ref="E2:E104"/>
+    <sortCondition ref="I2:I104"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCD13D9-6351-442E-A698-9FB1AC7509D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7B1989-BEAA-49E8-90AB-B631DE2F9D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7620" windowWidth="29040" windowHeight="15720" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="21015" yWindow="-20925" windowWidth="16035" windowHeight="8625" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId1"/>
-    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId2"/>
-    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId3"/>
-    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId4"/>
+    <sheet name="Changes release 3.6 -&gt; 3.7" sheetId="9" r:id="rId1"/>
+    <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId2"/>
+    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId3"/>
+    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId4"/>
+    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3953" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="833">
   <si>
     <t>All</t>
   </si>
@@ -2499,6 +2500,48 @@
   </si>
   <si>
     <t>CHK0237</t>
+  </si>
+  <si>
+    <t>DDF00045</t>
+  </si>
+  <si>
+    <t>CHK0238</t>
+  </si>
+  <si>
+    <t>CHK0239</t>
+  </si>
+  <si>
+    <t>Each study enrollment must apply to either a geographic scope, a study site, or a study cohort.</t>
+  </si>
+  <si>
+    <t>CHK0240</t>
+  </si>
+  <si>
+    <t>There must be a one-to-one relationship between referenced section number and title within a study amendment.</t>
+  </si>
+  <si>
+    <t>DocumentContentReference</t>
+  </si>
+  <si>
+    <t>sectionNumber, sectionTitle</t>
+  </si>
+  <si>
+    <t>CHK0241</t>
+  </si>
+  <si>
+    <t>A study version is expected to be documented by only one version of a study definition document.</t>
+  </si>
+  <si>
+    <t>CHK0242</t>
+  </si>
+  <si>
+    <t>Each study definition document version is expected to be referenced by either a study version or a study design.</t>
+  </si>
+  <si>
+    <t>StudyVersion, StudyDesign</t>
+  </si>
+  <si>
+    <t>documentVersions, documentVersion</t>
   </si>
 </sst>
 </file>
@@ -2576,7 +2619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2602,6 +2645,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2935,11 +2979,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B8281-AB10-416A-8A55-B2F46EB8E8FB}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>820</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
+        <v>821</v>
+      </c>
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>823</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>827</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>829</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A424D0F2-3B88-4770-93C0-98D49DE8D516}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4600,7 +4998,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>415</v>
       </c>
@@ -4647,7 +5045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>415</v>
       </c>
@@ -5117,7 +5515,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>416</v>
       </c>
@@ -6151,7 +6549,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>416</v>
       </c>
@@ -7232,7 +7630,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>416</v>
       </c>
@@ -7279,7 +7677,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>416</v>
       </c>
@@ -7373,7 +7771,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>416</v>
       </c>
@@ -7420,7 +7818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>416</v>
       </c>
@@ -7853,7 +8251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B456D714-2DB6-4B8B-BC8E-8AA7501F8C79}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -8204,7 +8602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}">
   <dimension ref="A1:O195"/>
   <sheetViews>
@@ -10059,7 +10457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2720FBDC-F538-4F79-9784-827E5ACB3995}">
   <dimension ref="A1:P130"/>
   <sheetViews>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7B1989-BEAA-49E8-90AB-B631DE2F9D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A0C30B-BC8E-4D50-A193-A14D409AD687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21015" yWindow="-20925" windowWidth="16035" windowHeight="8625" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-2220" yWindow="-19020" windowWidth="22350" windowHeight="15165" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Changes release 3.6 -&gt; 3.7" sheetId="9" r:id="rId1"/>
-    <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId2"/>
-    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId3"/>
-    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId4"/>
-    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId5"/>
+    <sheet name="Changes release 3.7 -&gt; 3.8" sheetId="10" r:id="rId1"/>
+    <sheet name="Changes release 3.6 -&gt; 3.7" sheetId="9" r:id="rId2"/>
+    <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId3"/>
+    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId4"/>
+    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId5"/>
+    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="859">
   <si>
     <t>All</t>
   </si>
@@ -2542,6 +2543,84 @@
   </si>
   <si>
     <t>documentVersions, documentVersion</t>
+  </si>
+  <si>
+    <t>If timing type is not "Fixed Reference" then it must point to two scheduled instances (e.g. the relativeFromScheduledInstance and relativeToScheduledInstance attributes must not be missing and must not be equal to each other).</t>
+  </si>
+  <si>
+    <t>A standard code alias is not expected to be equal to the standard code (e.g. no equal code for the same coding system version is expected).</t>
+  </si>
+  <si>
+    <t>DDF00063</t>
+  </si>
+  <si>
+    <t>Anchor timings (e.g. type is "Fixed Reference") must be related to a scheduled activity instance.</t>
+  </si>
+  <si>
+    <t>relativeFromScheduledInstance</t>
+  </si>
+  <si>
+    <t>relativeToScheduledInstance=&gt;relativeFromScheduledInstance</t>
+  </si>
+  <si>
+    <t>There must be exactly one sponsor study identifier (i.e., a study identifier whose scope is an organization that is identified as the organization for the sponsor study role).</t>
+  </si>
+  <si>
+    <t>A study definition document version must not be referenced more than once by the same study design.</t>
+  </si>
+  <si>
+    <t>StudyVersion=&gt;StudyDesign</t>
+  </si>
+  <si>
+    <t>documentVersions, documentVersion=&gt;documentVersions</t>
+  </si>
+  <si>
+    <t>An study impact type must be specified according to the extensible study amendment impact type (Cxxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>StudyAmendmentImpact</t>
+  </si>
+  <si>
+    <t>CHK0243</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>CHK0244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There must be exactly one study role with a code of sponsor. </t>
+  </si>
+  <si>
+    <t>CHK0245</t>
+  </si>
+  <si>
+    <t>The sponsor study role must point to exactly one organization.</t>
+  </si>
+  <si>
+    <t>organizations</t>
+  </si>
+  <si>
+    <t>CHK0246</t>
+  </si>
+  <si>
+    <t>The sponsor study role must be applicable to a study version.</t>
+  </si>
+  <si>
+    <t>CHK0247</t>
+  </si>
+  <si>
+    <t>CORE v3.0 Public Review change</t>
+  </si>
+  <si>
+    <t>Warning/ Error change</t>
+  </si>
+  <si>
+    <t>Version 4.0 (Version 3.8)</t>
+  </si>
+  <si>
+    <t>V4 (V3.8) change</t>
   </si>
 </sst>
 </file>
@@ -2650,7 +2729,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2979,11 +3066,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF31D4B-F1B8-4E5E-A34A-AF6E16EC4595}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="63.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" customWidth="1"/>
+    <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="J3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" t="s">
+        <v>838</v>
+      </c>
+      <c r="O4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="s">
+        <v>698</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="L5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" t="s">
+        <v>661</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
+        <v>827</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="L7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" t="s">
+        <v>841</v>
+      </c>
+      <c r="N7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" t="s">
+        <v>829</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" t="s">
+        <v>842</v>
+      </c>
+      <c r="O8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
+        <v>845</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>847</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>849</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>852</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>854</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B8281-AB10-416A-8A55-B2F46EB8E8FB}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3332,7 +4103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A424D0F2-3B88-4770-93C0-98D49DE8D516}">
   <dimension ref="A1:O104"/>
   <sheetViews>
@@ -8251,7 +9022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B456D714-2DB6-4B8B-BC8E-8AA7501F8C79}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -8602,7 +9373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}">
   <dimension ref="A1:O195"/>
   <sheetViews>
@@ -10457,7 +11228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2720FBDC-F538-4F79-9784-827E5ACB3995}">
   <dimension ref="A1:P130"/>
   <sheetViews>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -5,24 +5,25 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D4C58F-A760-46A5-B0FD-5269F2849C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA2923E-2C1F-4FAA-A675-FDB71525A4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="14650" windowHeight="12160" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-13560" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Changes release 3.8 -&gt; 3.9" sheetId="11" r:id="rId1"/>
-    <sheet name="Changes release 3.7 -&gt; 3.8" sheetId="10" r:id="rId2"/>
-    <sheet name="Changes release 3.6 -&gt; 3.7" sheetId="9" r:id="rId3"/>
-    <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId4"/>
-    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId5"/>
-    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId6"/>
-    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId7"/>
+    <sheet name="Changes release 3.9 -&gt; 3.10" sheetId="12" r:id="rId1"/>
+    <sheet name="Changes release 3.8 -&gt; 3.9" sheetId="11" r:id="rId2"/>
+    <sheet name="Changes release 3.7 -&gt; 3.8" sheetId="10" r:id="rId3"/>
+    <sheet name="Changes release 3.6 -&gt; 3.7" sheetId="9" r:id="rId4"/>
+    <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId5"/>
+    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId6"/>
+    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId7"/>
+    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5050" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1132">
   <si>
     <t>All</t>
   </si>
@@ -51000,6 +51001,451 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>A study version's study phase must be specified according to the extensible Trial Phase Response (C66737) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>If the intervention model indicates a single group design then only one intervention is expected. In all other cases more interventions are expected.</t>
+  </si>
+  <si>
+    <t>A study version's study type must be specified using the Study Type Response (C99077) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>A study design's trial intent types must be specified according to the extensible Trial Intent Type Response (C66736) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00118</t>
+  </si>
+  <si>
+    <t>A study design's trial types must be specified according to the extensible Trial Type Response (C66739) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00119</t>
+  </si>
+  <si>
+    <t>A study design's intervention model must be specified according to the extensible Intervention Model Response (C99076) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00120</t>
+  </si>
+  <si>
+    <t>A study design's blinding schema must be specified according to the extensible Trial Blinding Schema Response (C66735) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00121</t>
+  </si>
+  <si>
+    <t>A study design's characteristics must be specified according to the Study design characteristics (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>Within a study design, if more characteristics are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>DDF00134</t>
+  </si>
+  <si>
+    <t>Within a study design, if more trial types are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>DDF00055</t>
+  </si>
+  <si>
+    <t>Within a study design, if more therapeutic areas are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>DDF00056</t>
+  </si>
+  <si>
+    <t>Within a study design, if more trial intent types are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>DDF00057</t>
+  </si>
+  <si>
+    <t>DDF00070</t>
+  </si>
+  <si>
+    <t>A study definition document version must not be referenced more than once by the same study design.</t>
+  </si>
+  <si>
+    <t>ObservationalStudyDesign, InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <t>StudyDesign=&gt;ObservationalStudyDesign, InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <t>StudyVersion, ObservationalStudyDesign, InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <t>StudyVersion, StudyDesign=&gt;StudyVersion, ObservationalStudyDesign, InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <t>CHK0257</t>
+  </si>
+  <si>
+    <t>InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>CHK0258</t>
+  </si>
+  <si>
+    <t>An interventional study design's intent types must be specified according to the extensible Trial Intent Type Response (C66736) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>intentTypes</t>
+  </si>
+  <si>
+    <t>CHK0259</t>
+  </si>
+  <si>
+    <t>An interventional study design's sub types must be specified according to the extensible Trial Type Response (C66739) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>subTypes</t>
+  </si>
+  <si>
+    <t>CHK0260</t>
+  </si>
+  <si>
+    <t>CHK0261</t>
+  </si>
+  <si>
+    <t>CHK0262</t>
+  </si>
+  <si>
+    <t>A study design's characteristics must be specified according to the study design characteristics (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>InterventionalStudyDesign, ObservationalStudyDesign</t>
+  </si>
+  <si>
+    <t>CHK0263</t>
+  </si>
+  <si>
+    <t>CHK0264</t>
+  </si>
+  <si>
+    <t>Within a study design, if more sub types are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>CHK0265</t>
+  </si>
+  <si>
+    <t>CHK0266</t>
+  </si>
+  <si>
+    <t>Within a study design, if more intent types are defined, they must be distinct.</t>
+  </si>
+  <si>
+    <t>CHK0267</t>
+  </si>
+  <si>
+    <t>A study design's observational model must be specified according to the extensible Observational Study Model (C127259) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>ObservationalStudyDesign</t>
+  </si>
+  <si>
+    <t>CHK0268</t>
+  </si>
+  <si>
+    <t>An observational study design's time perspective must be specified according to the extensible Observational Study Time Perspective (C127261) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>timePerspective</t>
+  </si>
+  <si>
+    <t>CHK0269</t>
+  </si>
+  <si>
+    <t>An observational study design's sampling method must be specified according to the extensible Observational Study Sampling Method (C127260) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>samplingMethod</t>
+  </si>
+  <si>
+    <t>CHK0270</t>
+  </si>
+  <si>
+    <t>A observational study design's sub types must be specified according to the (Cxxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An interventional study must be specified using the InterventionalStudyDesign class. </t>
+  </si>
+  <si>
+    <t>CHK0272</t>
+  </si>
+  <si>
+    <t>An observational study (including patient registries) must be specified using the ObservationalStudyDesign class.</t>
+  </si>
+  <si>
+    <t>CHK0273</t>
+  </si>
+  <si>
+    <t>A study design's study phase must be specified according to the extensible Trial Phase Response (C66737) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>CHK0274</t>
+  </si>
+  <si>
+    <t>A study design's study type must be specified using the Study Type Response (C99077) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>CHK0275</t>
+  </si>
+  <si>
+    <t>If a biospecimen retention indicates that a type of biospecimen is retained, then there must be an indication of whether the type of biospecimen includes DNA.</t>
+  </si>
+  <si>
+    <t>BiospecimenRetention</t>
+  </si>
+  <si>
+    <t>includesDNA</t>
+  </si>
+  <si>
+    <t>Version 4.0 (Version 3.10)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The minimum value of a range must be less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> range.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The minimum value of a range must be less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of the range.</t>
     </r>
   </si>
 </sst>
@@ -51149,7 +51595,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -51493,12 +51946,1799 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56E3A9-6AF6-4F10-BAF1-2E2148AC6531}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="49.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.90625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="J3" t="s">
+        <v>609</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="J9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J14" t="s">
+        <v>448</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" t="s">
+        <v>578</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>580</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O31" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" t="s">
+        <v>98</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" t="s">
+        <v>98</v>
+      </c>
+      <c r="P33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N34" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N35" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B35">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04922479-DC74-45C1-A6FB-8A5685DCA4C3}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54015,7 +56255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF31D4B-F1B8-4E5E-A34A-AF6E16EC4595}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P13"/>
@@ -54700,7 +56940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B8281-AB10-416A-8A55-B2F46EB8E8FB}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O7"/>
@@ -55055,7 +57295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A424D0F2-3B88-4770-93C0-98D49DE8D516}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O104"/>
@@ -59975,7 +62215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B456D714-2DB6-4B8B-BC8E-8AA7501F8C79}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O7"/>
@@ -60327,7 +62567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O195"/>
@@ -62183,7 +64423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2720FBDC-F538-4F79-9784-827E5ACB3995}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P130"/>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA2923E-2C1F-4FAA-A675-FDB71525A4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{882D2D0D-135C-4C3D-92A6-5AA0784E194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13560" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="3180" yWindow="-19095" windowWidth="24360" windowHeight="17400" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes release 3.9 -&gt; 3.10" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5610" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5626" uniqueCount="1134">
   <si>
     <t>All</t>
   </si>
@@ -51447,6 +51447,12 @@
       </rPr>
       <t>of the range.</t>
     </r>
+  </si>
+  <si>
+    <t>An observational study (including patient registries) is expected to have a study phase decode value of "NOT APPLICABLE".</t>
+  </si>
+  <si>
+    <t>CHK0276</t>
   </si>
 </sst>
 </file>
@@ -51595,7 +51601,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -51948,10 +51968,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56E3A9-6AF6-4F10-BAF1-2E2148AC6531}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51972,7 +51992,7 @@
     <col min="15" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>394</v>
       </c>
@@ -52035,7 +52055,7 @@
       <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -52053,13 +52073,13 @@
       <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>98</v>
       </c>
       <c r="L2" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>98</v>
       </c>
       <c r="N2" t="s">
@@ -52085,7 +52105,7 @@
       <c r="D3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -52103,13 +52123,13 @@
       <c r="J3" t="s">
         <v>609</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" t="s">
         <v>98</v>
       </c>
       <c r="L3" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>98</v>
       </c>
       <c r="N3" t="s">
@@ -52135,7 +52155,7 @@
       <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -52153,13 +52173,13 @@
       <c r="J4" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" t="s">
         <v>98</v>
       </c>
       <c r="L4" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>98</v>
       </c>
       <c r="N4" t="s">
@@ -52185,7 +52205,7 @@
       <c r="D5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -52203,13 +52223,13 @@
       <c r="J5" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" t="s">
         <v>98</v>
       </c>
       <c r="L5" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>98</v>
       </c>
       <c r="N5" t="s">
@@ -52235,7 +52255,7 @@
       <c r="D6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -52253,13 +52273,13 @@
       <c r="J6" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" t="s">
         <v>98</v>
       </c>
       <c r="L6" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>98</v>
       </c>
       <c r="N6" t="s">
@@ -52285,7 +52305,7 @@
       <c r="D7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -52303,13 +52323,13 @@
       <c r="J7" t="s">
         <v>157</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" t="s">
         <v>98</v>
       </c>
       <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>98</v>
       </c>
       <c r="N7" t="s">
@@ -52335,7 +52355,7 @@
       <c r="D8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -52353,13 +52373,13 @@
       <c r="J8" t="s">
         <v>159</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" t="s">
         <v>98</v>
       </c>
       <c r="L8" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>98</v>
       </c>
       <c r="N8" t="s">
@@ -52385,7 +52405,7 @@
       <c r="D9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -52403,13 +52423,13 @@
       <c r="J9" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" t="s">
         <v>98</v>
       </c>
       <c r="L9" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>98</v>
       </c>
       <c r="N9" t="s">
@@ -52435,7 +52455,7 @@
       <c r="D10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -52453,13 +52473,13 @@
       <c r="J10" t="s">
         <v>207</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" t="s">
         <v>98</v>
       </c>
       <c r="L10" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>98</v>
       </c>
       <c r="N10" t="s">
@@ -52485,7 +52505,7 @@
       <c r="D11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -52503,13 +52523,13 @@
       <c r="J11" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" t="s">
         <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>98</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>98</v>
       </c>
       <c r="N11" t="s">
@@ -52535,7 +52555,7 @@
       <c r="D12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -52553,13 +52573,13 @@
       <c r="J12" t="s">
         <v>209</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" t="s">
         <v>98</v>
       </c>
       <c r="L12" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>98</v>
       </c>
       <c r="N12" t="s">
@@ -52585,7 +52605,7 @@
       <c r="D13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -52603,13 +52623,13 @@
       <c r="J13" t="s">
         <v>211</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" t="s">
         <v>98</v>
       </c>
       <c r="L13" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>98</v>
       </c>
       <c r="N13" t="s">
@@ -52635,7 +52655,7 @@
       <c r="D14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="11" t="s">
         <v>291</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -52659,7 +52679,7 @@
       <c r="L14" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>98</v>
       </c>
       <c r="N14" t="s">
@@ -52685,7 +52705,7 @@
       <c r="D15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="11" t="s">
         <v>1082</v>
       </c>
       <c r="F15" s="11" t="s">
@@ -52703,13 +52723,13 @@
       <c r="J15" t="s">
         <v>578</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" t="s">
         <v>98</v>
       </c>
       <c r="L15" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>1083</v>
       </c>
       <c r="N15" t="s">
@@ -52722,7 +52742,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>254</v>
       </c>
@@ -52735,7 +52755,7 @@
       <c r="D16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="11" t="s">
         <v>1084</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -52753,13 +52773,13 @@
       <c r="J16" t="s">
         <v>580</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" t="s">
         <v>98</v>
       </c>
       <c r="L16" t="s">
         <v>98</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>1085</v>
       </c>
       <c r="N16" t="s">
@@ -52785,7 +52805,7 @@
       <c r="D17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -52803,13 +52823,13 @@
       <c r="J17" t="s">
         <v>1086</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" t="s">
         <v>98</v>
       </c>
       <c r="L17" t="s">
         <v>98</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>98</v>
       </c>
       <c r="N17" t="s">
@@ -52835,7 +52855,7 @@
       <c r="D18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -52853,13 +52873,13 @@
       <c r="J18" t="s">
         <v>1089</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" t="s">
         <v>98</v>
       </c>
       <c r="L18" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>98</v>
       </c>
       <c r="N18" t="s">
@@ -52885,7 +52905,7 @@
       <c r="D19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="F19" s="11" t="s">
@@ -52903,13 +52923,13 @@
       <c r="J19" t="s">
         <v>1092</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" t="s">
         <v>98</v>
       </c>
       <c r="L19" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>98</v>
       </c>
       <c r="N19" t="s">
@@ -52935,7 +52955,7 @@
       <c r="D20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -52953,13 +52973,13 @@
       <c r="J20" t="s">
         <v>1095</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" t="s">
         <v>98</v>
       </c>
       <c r="L20" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>98</v>
       </c>
       <c r="N20" t="s">
@@ -52985,7 +53005,7 @@
       <c r="D21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="F21" s="11" t="s">
@@ -53003,13 +53023,13 @@
       <c r="J21" t="s">
         <v>1096</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" t="s">
         <v>98</v>
       </c>
       <c r="L21" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" t="s">
         <v>98</v>
       </c>
       <c r="N21" t="s">
@@ -53035,7 +53055,7 @@
       <c r="D22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="11" t="s">
         <v>1099</v>
       </c>
       <c r="F22" s="11" t="s">
@@ -53053,13 +53073,13 @@
       <c r="J22" t="s">
         <v>1097</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" t="s">
         <v>98</v>
       </c>
       <c r="L22" t="s">
         <v>98</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" t="s">
         <v>98</v>
       </c>
       <c r="N22" t="s">
@@ -53085,7 +53105,7 @@
       <c r="D23" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="11" t="s">
         <v>1099</v>
       </c>
       <c r="F23" s="11" t="s">
@@ -53103,13 +53123,13 @@
       <c r="J23" t="s">
         <v>1100</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" t="s">
         <v>98</v>
       </c>
       <c r="L23" t="s">
         <v>98</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" t="s">
         <v>98</v>
       </c>
       <c r="N23" t="s">
@@ -53135,7 +53155,7 @@
       <c r="D24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="11" t="s">
         <v>1099</v>
       </c>
       <c r="F24" s="11" t="s">
@@ -53153,13 +53173,13 @@
       <c r="J24" t="s">
         <v>1101</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" t="s">
         <v>98</v>
       </c>
       <c r="L24" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" t="s">
         <v>98</v>
       </c>
       <c r="N24" t="s">
@@ -53185,7 +53205,7 @@
       <c r="D25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="11" t="s">
         <v>1099</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -53203,13 +53223,13 @@
       <c r="J25" t="s">
         <v>1103</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" t="s">
         <v>98</v>
       </c>
       <c r="L25" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" t="s">
         <v>98</v>
       </c>
       <c r="N25" t="s">
@@ -53235,7 +53255,7 @@
       <c r="D26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="F26" s="11" t="s">
@@ -53253,13 +53273,13 @@
       <c r="J26" t="s">
         <v>1104</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" t="s">
         <v>98</v>
       </c>
       <c r="L26" t="s">
         <v>98</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" t="s">
         <v>98</v>
       </c>
       <c r="N26" t="s">
@@ -53285,7 +53305,7 @@
       <c r="D27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="11" t="s">
         <v>1108</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -53303,13 +53323,13 @@
       <c r="J27" t="s">
         <v>1106</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" t="s">
         <v>98</v>
       </c>
       <c r="L27" t="s">
         <v>98</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" t="s">
         <v>98</v>
       </c>
       <c r="N27" t="s">
@@ -53335,7 +53355,7 @@
       <c r="D28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="11" t="s">
         <v>1108</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -53353,13 +53373,13 @@
       <c r="J28" t="s">
         <v>1109</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" t="s">
         <v>98</v>
       </c>
       <c r="L28" t="s">
         <v>98</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" t="s">
         <v>98</v>
       </c>
       <c r="N28" t="s">
@@ -53385,7 +53405,7 @@
       <c r="D29" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="11" t="s">
         <v>1108</v>
       </c>
       <c r="F29" s="11" t="s">
@@ -53403,13 +53423,13 @@
       <c r="J29" t="s">
         <v>1112</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" t="s">
         <v>98</v>
       </c>
       <c r="L29" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" t="s">
         <v>98</v>
       </c>
       <c r="N29" t="s">
@@ -53435,7 +53455,7 @@
       <c r="D30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="11" t="s">
         <v>1108</v>
       </c>
       <c r="F30" s="11" t="s">
@@ -53453,13 +53473,13 @@
       <c r="J30" t="s">
         <v>1115</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" t="s">
         <v>98</v>
       </c>
       <c r="L30" t="s">
         <v>98</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" t="s">
         <v>98</v>
       </c>
       <c r="N30" t="s">
@@ -53485,7 +53505,7 @@
       <c r="D31" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="F31" s="11" t="s">
@@ -53503,13 +53523,13 @@
       <c r="J31" t="s">
         <v>1117</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" t="s">
         <v>98</v>
       </c>
       <c r="L31" t="s">
         <v>98</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" t="s">
         <v>98</v>
       </c>
       <c r="N31" t="s">
@@ -53535,7 +53555,7 @@
       <c r="D32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="11" t="s">
         <v>1108</v>
       </c>
       <c r="F32" s="11" t="s">
@@ -53553,13 +53573,13 @@
       <c r="J32" t="s">
         <v>1119</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" t="s">
         <v>98</v>
       </c>
       <c r="L32" t="s">
         <v>98</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" t="s">
         <v>98</v>
       </c>
       <c r="N32" t="s">
@@ -53585,7 +53605,7 @@
       <c r="D33" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="11" t="s">
         <v>1082</v>
       </c>
       <c r="F33" s="11" t="s">
@@ -53603,13 +53623,13 @@
       <c r="J33" t="s">
         <v>1121</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" t="s">
         <v>98</v>
       </c>
       <c r="L33" t="s">
         <v>98</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" t="s">
         <v>98</v>
       </c>
       <c r="N33" t="s">
@@ -53635,7 +53655,7 @@
       <c r="D34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="11" t="s">
         <v>1082</v>
       </c>
       <c r="F34" s="11" t="s">
@@ -53653,13 +53673,13 @@
       <c r="J34" t="s">
         <v>1123</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" t="s">
         <v>98</v>
       </c>
       <c r="L34" t="s">
         <v>98</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" t="s">
         <v>98</v>
       </c>
       <c r="N34" t="s">
@@ -53685,7 +53705,7 @@
       <c r="D35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="11" t="s">
         <v>1127</v>
       </c>
       <c r="F35" s="11" t="s">
@@ -53703,13 +53723,13 @@
       <c r="J35" t="s">
         <v>1125</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" t="s">
         <v>98</v>
       </c>
       <c r="L35" t="s">
         <v>98</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" t="s">
         <v>98</v>
       </c>
       <c r="N35" t="s">
@@ -53719,12 +53739,62 @@
         <v>98</v>
       </c>
       <c r="P35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" t="s">
+        <v>98</v>
+      </c>
+      <c r="N36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" t="s">
+        <v>98</v>
+      </c>
+      <c r="P36" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="B2:B36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56247,7 +56317,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B49">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56932,7 +57002,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{882D2D0D-135C-4C3D-92A6-5AA0784E194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9777CA-54F9-4760-99D4-FF84EB69137A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="-19095" windowWidth="24360" windowHeight="17400" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-165" yWindow="-19080" windowWidth="23295" windowHeight="18015" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Changes release 3.9 -&gt; 3.10" sheetId="12" r:id="rId1"/>
-    <sheet name="Changes release 3.8 -&gt; 3.9" sheetId="11" r:id="rId2"/>
-    <sheet name="Changes release 3.7 -&gt; 3.8" sheetId="10" r:id="rId3"/>
-    <sheet name="Changes release 3.6 -&gt; 3.7" sheetId="9" r:id="rId4"/>
-    <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId5"/>
-    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId6"/>
-    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId7"/>
-    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId8"/>
+    <sheet name="Changes release 3.10 -&gt; 3.11" sheetId="13" r:id="rId1"/>
+    <sheet name="Changes release 3.9 -&gt; 3.10" sheetId="12" r:id="rId2"/>
+    <sheet name="Changes release 3.8 -&gt; 3.9" sheetId="11" r:id="rId3"/>
+    <sheet name="Changes release 3.7 -&gt; 3.8" sheetId="10" r:id="rId4"/>
+    <sheet name="Changes release 3.6 -&gt; 3.7" sheetId="9" r:id="rId5"/>
+    <sheet name="Changes release 3.5-&gt;3.6" sheetId="8" r:id="rId6"/>
+    <sheet name="Changes release 3.4-&gt;3.5" sheetId="7" r:id="rId7"/>
+    <sheet name="Changes release 3.3-&gt;3.4" sheetId="5" r:id="rId8"/>
+    <sheet name="Changes release 3.1-&gt;3.3" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Changes release 3.3-&gt;3.4'!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5626" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="1186">
   <si>
     <t>All</t>
   </si>
@@ -51453,6 +51454,517 @@
   </si>
   <si>
     <t>CHK0276</t>
+  </si>
+  <si>
+    <t>EligibilityCriterionItem, Characteristic, Condition, Objective, Endpoint</t>
+  </si>
+  <si>
+    <t>EligibilityCriterion, Characteristic, Condition, Objective, Endpoint=&gt;EligibilityCriterionItem, Characteristic, Condition, Objective, Endpoint</t>
+  </si>
+  <si>
+    <t>Any parameter name referenced in a tag in the text should be specified in the data dictionary parameter maps.</t>
+  </si>
+  <si>
+    <t>DDF00089</t>
+  </si>
+  <si>
+    <t>The unit of a planned age is expected to be specified using terms from the Age Unit (C66781) SDTM codelist.</t>
+  </si>
+  <si>
+    <t>Within a study design, if a planned completion number is defined, it must be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>DDF00132</t>
+  </si>
+  <si>
+    <t>Within a study design, if a planned enrollment number is defined, it must be specified either in the study population or in all cohorts.</t>
+  </si>
+  <si>
+    <t>DDF00133</t>
+  </si>
+  <si>
+    <t>DDF00067</t>
+  </si>
+  <si>
+    <t>?=&gt;N</t>
+  </si>
+  <si>
+    <t>The minimum value of a range must be less than or equal to the maximum value of the range.</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>numerator, denominator=&gt;denominator</t>
+  </si>
+  <si>
+    <t>DDF00086</t>
+  </si>
+  <si>
+    <t>forStudyCohort, forStudySite, forGeographicScope</t>
+  </si>
+  <si>
+    <t>appliesTo=&gt;forStudyCohort, forStudySite, forGeographicScope</t>
+  </si>
+  <si>
+    <t>CHK0277</t>
+  </si>
+  <si>
+    <t>CHK0278</t>
+  </si>
+  <si>
+    <t>A unit must not be specified for a planned enrollment number.</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumberQuantity, plannedEnrollmentNumberRange</t>
+  </si>
+  <si>
+    <t>CHK0279</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumberRange, plannedCompletionNumberQuantity</t>
+  </si>
+  <si>
+    <t>CHK0280</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumberRange, plannedEnrollmentNumberQuantity</t>
+  </si>
+  <si>
+    <t>CHK0281</t>
+  </si>
+  <si>
+    <t>CHK0282</t>
+  </si>
+  <si>
+    <t>If a strength numerator quantity is specified, it must have a unit.</t>
+  </si>
+  <si>
+    <t>numeratorQuantity</t>
+  </si>
+  <si>
+    <t>CHK0283</t>
+  </si>
+  <si>
+    <t>If a strength numerator range is specified, both the minValue and maxValue must have a unit.</t>
+  </si>
+  <si>
+    <t>numeratorRange</t>
+  </si>
+  <si>
+    <t>CHK0284</t>
+  </si>
+  <si>
+    <t>For each strength, either a numerator quantity or range must be specified.</t>
+  </si>
+  <si>
+    <t>numeratorQuantity, numeratorRange</t>
+  </si>
+  <si>
+    <t>CHK0285</t>
+  </si>
+  <si>
+    <t>If the unit is the same (or missing) for both the minimum and maximum value, then the minimum value must be less than the maximum value.</t>
+  </si>
+  <si>
+    <t>CHK0286</t>
+  </si>
+  <si>
+    <t>For each range, a unit must be specified either for both the minimum and the maximum value, or for neither of them.</t>
+  </si>
+  <si>
+    <t>CHK0287</t>
+  </si>
+  <si>
+    <t>A unit must not be specified for a planned completion number.</t>
+  </si>
+  <si>
+    <t>CHK0288</t>
+  </si>
+  <si>
+    <t>For planned enrollment number, both a quantity and a range must not be specified for the same study design population or study cohort.</t>
+  </si>
+  <si>
+    <t>CHK0289</t>
+  </si>
+  <si>
+    <t>For planned completion number, both a quantity and a range must not be specified for the same study design population or study cohort.</t>
+  </si>
+  <si>
+    <t>CHK0290</t>
+  </si>
+  <si>
+    <t>CHK0291</t>
+  </si>
+  <si>
+    <t>CHK0292</t>
+  </si>
+  <si>
+    <t>An eligibility criterion item must not be used more than once within a study design.</t>
+  </si>
+  <si>
+    <t>EligibilityCriterionItem</t>
+  </si>
+  <si>
+    <r>
+      <t>If</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>denominator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specified,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a unit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>every</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>denominator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numerator</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -51601,21 +52113,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -51966,12 +52464,1403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F073237-C241-4A12-AF73-84AEF043C739}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="62.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="10" max="10" width="41.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="47.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.81640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="I4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="I5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I9" t="s">
+        <v>448</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I10" t="s">
+        <v>451</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>458</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I12" t="s">
+        <v>506</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>572</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA56E3A9-6AF6-4F10-BAF1-2E2148AC6531}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53794,7 +55683,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53802,7 +55691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04922479-DC74-45C1-A6FB-8A5685DCA4C3}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q49"/>
@@ -56317,7 +58206,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B49">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56325,7 +58214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF31D4B-F1B8-4E5E-A34A-AF6E16EC4595}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P13"/>
@@ -57002,7 +58891,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57010,7 +58899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067B8281-AB10-416A-8A55-B2F46EB8E8FB}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O7"/>
@@ -57365,7 +59254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A424D0F2-3B88-4770-93C0-98D49DE8D516}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O104"/>
@@ -62285,7 +64174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B456D714-2DB6-4B8B-BC8E-8AA7501F8C79}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O7"/>
@@ -62637,7 +64526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E83C4-68F7-4929-AA83-3F95502173FC}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O195"/>
@@ -64493,7 +66382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2720FBDC-F538-4F79-9784-827E5ACB3995}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P130"/>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.11b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9777CA-54F9-4760-99D4-FF84EB69137A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B11B03E9-4984-41F5-9D2A-EC10426EF327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-19080" windowWidth="23295" windowHeight="18015" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="2400" yWindow="-19740" windowWidth="24375" windowHeight="15915" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes release 3.10 -&gt; 3.11" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="1201">
   <si>
     <t>All</t>
   </si>
@@ -51607,11 +51607,252 @@
   </si>
   <si>
     <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>specified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>every</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>denominator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numerator</t>
+    </r>
+  </si>
+  <si>
+    <t>A study element must only reference study interventions that are defined within the same study design as the study element.</t>
+  </si>
+  <si>
+    <t>DDF00109</t>
+  </si>
+  <si>
+    <t>CHK0293</t>
+  </si>
+  <si>
+    <t>An eligibility criterion item is expected to be used in at least one study design.</t>
+  </si>
+  <si>
+    <t>CHK0294</t>
+  </si>
+  <si>
+    <t>An eligibility criterion must be referenced by either a study design population or cohorts, not both.</t>
+  </si>
+  <si>
+    <t>CHK0295</t>
+  </si>
+  <si>
+    <t>A study cohort must only reference indications that are  defined within the same study design.</t>
+  </si>
+  <si>
+    <t>StudyCohort</t>
+  </si>
+  <si>
+    <t>indications</t>
+  </si>
+  <si>
+    <t>CHK0296</t>
+  </si>
+  <si>
+    <t>A study element must only reference study interventions that are referenced by the same study design as the study element.</t>
+  </si>
+  <si>
+    <t>CHK0297</t>
+  </si>
+  <si>
+    <t>CHK0298</t>
+  </si>
+  <si>
+    <t>An activity must only reference child activities that are specified within the same study design.</t>
+  </si>
+  <si>
+    <r>
       <t>If</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -51631,6 +51872,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -51650,6 +51892,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -51669,6 +51912,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -51688,6 +51932,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -51707,6 +51952,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -51726,6 +51972,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -51745,6 +51992,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -51764,206 +52012,12 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> a unit.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>unit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>must</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>specified</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>every</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>denominator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>numerator</t>
     </r>
   </si>
 </sst>
@@ -52466,23 +52520,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F073237-C241-4A12-AF73-84AEF043C739}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="62.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
-    <col min="10" max="10" width="41.08984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="47.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="71.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" style="1" customWidth="1"/>
     <col min="14" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -52502,10 +52558,10 @@
       <c r="E1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>349</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -52520,24 +52576,24 @@
       <c r="K1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -52580,11 +52636,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="3" t="s">
         <v>1136</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -52631,17 +52687,17 @@
       <c r="A4" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>298</v>
+      <c r="B4" s="3" t="s">
+        <v>1185</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>469</v>
+        <v>132</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>2</v>
@@ -52650,10 +52706,10 @@
         <v>8</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>470</v>
+        <v>1186</v>
       </c>
       <c r="I4" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>98</v>
@@ -52678,8 +52734,8 @@
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>1138</v>
+      <c r="B5" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>1</v>
@@ -52688,7 +52744,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>469</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>2</v>
@@ -52697,10 +52753,10 @@
         <v>8</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>616</v>
+        <v>470</v>
       </c>
       <c r="I5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>98</v>
@@ -52725,8 +52781,8 @@
       <c r="A6" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>1139</v>
+      <c r="B6" s="3" t="s">
+        <v>1138</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>1</v>
@@ -52735,7 +52791,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>2</v>
@@ -52744,10 +52800,10 @@
         <v>8</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1140</v>
+        <v>616</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>98</v>
@@ -52772,8 +52828,8 @@
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>1141</v>
+      <c r="B7" s="3" t="s">
+        <v>1139</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>1</v>
@@ -52782,7 +52838,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>2</v>
@@ -52791,10 +52847,10 @@
         <v>8</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>98</v>
@@ -52815,21 +52871,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>379</v>
+      <c r="B8" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>2</v>
@@ -52838,10 +52894,10 @@
         <v>8</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I8" t="s">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>98</v>
@@ -52859,24 +52915,24 @@
         <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>1144</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>1145</v>
+      <c r="B9" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>296</v>
+        <v>66</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>2</v>
@@ -52885,10 +52941,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="I9" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>98</v>
@@ -52906,24 +52962,24 @@
         <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>534</v>
+        <v>1144</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>1036</v>
+      <c r="B10" s="3" t="s">
+        <v>1145</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>450</v>
+        <v>291</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>296</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>2</v>
@@ -52932,10 +52988,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>1037</v>
+        <v>1080</v>
       </c>
       <c r="I10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>98</v>
@@ -52960,32 +53016,32 @@
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>1184</v>
+      <c r="B11" s="3" t="s">
+        <v>1036</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1146</v>
+        <v>32</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>98</v>
+        <v>1037</v>
       </c>
       <c r="I11" t="s">
-        <v>458</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>1185</v>
+        <v>451</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="K11" t="s">
         <v>98</v>
@@ -52994,45 +53050,45 @@
         <v>98</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1147</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
         <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>505</v>
+      <c r="B12" s="15" t="s">
+        <v>1200</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>78</v>
+        <v>1146</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>1148</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>506</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>98</v>
+        <v>458</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>1184</v>
       </c>
       <c r="K12" t="s">
         <v>98</v>
@@ -53041,77 +53097,77 @@
         <v>98</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>98</v>
+        <v>1147</v>
       </c>
       <c r="N12" t="s">
         <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>534</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I13" t="s">
+        <v>506</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" t="s">
-        <v>572</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="N13" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>1036</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>487</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>1149</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>8</v>
@@ -53123,7 +53179,7 @@
         <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>1151</v>
+        <v>572</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>98</v>
@@ -53135,7 +53191,7 @@
         <v>98</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>98</v>
+        <v>1150</v>
       </c>
       <c r="N14" t="s">
         <v>98</v>
@@ -53144,21 +53200,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>1153</v>
+      <c r="B15" s="3" t="s">
+        <v>1036</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1154</v>
+        <v>32</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>8</v>
@@ -53170,7 +53226,7 @@
         <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>98</v>
@@ -53191,12 +53247,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>1139</v>
+      <c r="B16" s="3" t="s">
+        <v>1153</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>1</v>
@@ -53205,7 +53261,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>8</v>
@@ -53217,7 +53273,7 @@
         <v>98</v>
       </c>
       <c r="I16" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>98</v>
@@ -53238,12 +53294,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>1141</v>
+      <c r="B17" s="3" t="s">
+        <v>1139</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>1</v>
@@ -53252,7 +53308,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>8</v>
@@ -53264,7 +53320,7 @@
         <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>98</v>
@@ -53285,12 +53341,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>1138</v>
+      <c r="B18" s="3" t="s">
+        <v>1141</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>1</v>
@@ -53299,7 +53355,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>1158</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>8</v>
@@ -53311,7 +53367,7 @@
         <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>98</v>
@@ -53332,21 +53388,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>1161</v>
+      <c r="B19" s="3" t="s">
+        <v>1138</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1162</v>
+        <v>28</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>8</v>
@@ -53358,7 +53414,7 @@
         <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>98</v>
@@ -53379,12 +53435,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>1164</v>
+      <c r="B20" s="3" t="s">
+        <v>1161</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>1</v>
@@ -53393,7 +53449,7 @@
         <v>456</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>8</v>
@@ -53405,7 +53461,7 @@
         <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>98</v>
@@ -53426,12 +53482,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>1167</v>
+      <c r="B21" s="3" t="s">
+        <v>1164</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>1</v>
@@ -53440,7 +53496,7 @@
         <v>456</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>8</v>
@@ -53452,7 +53508,7 @@
         <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>98</v>
@@ -53477,17 +53533,17 @@
       <c r="A22" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>1170</v>
+      <c r="B22" s="3" t="s">
+        <v>1167</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>291</v>
+        <v>456</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>296</v>
+        <v>1168</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>8</v>
@@ -53499,7 +53555,7 @@
         <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>98</v>
@@ -53524,8 +53580,8 @@
       <c r="A23" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>1172</v>
+      <c r="B23" s="3" t="s">
+        <v>1170</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>1</v>
@@ -53546,7 +53602,7 @@
         <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>98</v>
@@ -53571,17 +53627,17 @@
       <c r="A24" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>1174</v>
+      <c r="B24" s="3" t="s">
+        <v>1172</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1156</v>
+        <v>296</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>8</v>
@@ -53593,7 +53649,7 @@
         <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>98</v>
@@ -53614,12 +53670,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>1176</v>
+      <c r="B25" s="3" t="s">
+        <v>1174</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>1</v>
@@ -53628,7 +53684,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>8</v>
@@ -53640,7 +53696,7 @@
         <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>98</v>
@@ -53661,12 +53717,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>1178</v>
+      <c r="B26" s="3" t="s">
+        <v>1176</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>1</v>
@@ -53675,7 +53731,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>8</v>
@@ -53687,7 +53743,7 @@
         <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>98</v>
@@ -53708,21 +53764,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>1136</v>
+      <c r="B27" s="3" t="s">
+        <v>1178</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1134</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>78</v>
+        <v>1156</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>8</v>
@@ -53734,7 +53790,7 @@
         <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>98</v>
@@ -53759,11 +53815,11 @@
       <c r="A28" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>505</v>
+      <c r="B28" s="3" t="s">
+        <v>1136</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>1134</v>
@@ -53781,7 +53837,7 @@
         <v>98</v>
       </c>
       <c r="I28" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>98</v>
@@ -53802,21 +53858,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>1182</v>
+      <c r="B29" s="3" t="s">
+        <v>505</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>112</v>
+        <v>1134</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1183</v>
+        <v>78</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>8</v>
@@ -53828,24 +53884,353 @@
         <v>98</v>
       </c>
       <c r="I29" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" t="s">
         <v>1181</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K29" t="s">
-        <v>98</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="J30" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" t="s">
+        <v>98</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N34" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N35" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" t="s">
         <v>98</v>
       </c>
     </row>
@@ -53860,7 +54245,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53915,19 +54300,19 @@
       <c r="K1" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>533</v>
       </c>
     </row>
@@ -55696,7 +56081,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.11b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B11B03E9-4984-41F5-9D2A-EC10426EF327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE94A9BB-5110-4B7A-822A-57812D9E0826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="-19740" windowWidth="24375" windowHeight="15915" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-8820" yWindow="-20565" windowWidth="20070" windowHeight="18600" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes release 3.10 -&gt; 3.11" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6226" uniqueCount="1208">
   <si>
     <t>All</t>
   </si>
@@ -52019,6 +52019,27 @@
       </rPr>
       <t xml:space="preserve"> a unit.</t>
     </r>
+  </si>
+  <si>
+    <t>If the reason for a study amendment is 'Other' then this must be specified (attribute reasonOther must be completed)</t>
+  </si>
+  <si>
+    <t>If a transition start rule is defined then an end rule is expected and vice versa.</t>
+  </si>
+  <si>
+    <t>DDF00078</t>
+  </si>
+  <si>
+    <t>CHK0299</t>
+  </si>
+  <si>
+    <t>A primary study amendment reason is not expected to be 'not applicable'.</t>
+  </si>
+  <si>
+    <t>CHK0300</t>
+  </si>
+  <si>
+    <t>The same reason is not expected to be given as a primary and secondary reason.</t>
   </si>
 </sst>
 </file>
@@ -52520,29 +52541,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F073237-C241-4A12-AF73-84AEF043C739}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="71.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="47.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.54296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>394</v>
       </c>
@@ -52558,10 +52580,10 @@
       <c r="E1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>349</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -52573,7 +52595,7 @@
       <c r="J1" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>240</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -52582,40 +52604,40 @@
       <c r="M1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>1201</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1134</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>98</v>
@@ -52624,45 +52646,45 @@
         <v>98</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
         <v>98</v>
       </c>
       <c r="N2" t="s">
         <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1136</v>
+        <v>76</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>1134</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1137</v>
+        <v>286</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>98</v>
@@ -52671,7 +52693,7 @@
         <v>98</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>98</v>
+        <v>1135</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>98</v>
@@ -52680,24 +52702,24 @@
         <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>534</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1185</v>
+        <v>1136</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>2</v>
@@ -52706,10 +52728,10 @@
         <v>8</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>1186</v>
+        <v>1137</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>98</v>
@@ -52730,21 +52752,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>298</v>
+        <v>1185</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>469</v>
+        <v>132</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>2</v>
@@ -52753,10 +52775,10 @@
         <v>8</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>470</v>
+        <v>1186</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>98</v>
@@ -52777,21 +52799,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1138</v>
+        <v>1202</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>2</v>
@@ -52800,10 +52822,10 @@
         <v>8</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>616</v>
+        <v>1203</v>
       </c>
       <c r="I6" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>98</v>
@@ -52814,7 +52836,7 @@
       <c r="L6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>98</v>
       </c>
       <c r="N6" t="s">
@@ -52824,12 +52846,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1139</v>
+        <v>298</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>1</v>
@@ -52838,7 +52860,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>204</v>
+        <v>469</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>2</v>
@@ -52847,10 +52869,10 @@
         <v>8</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1140</v>
+        <v>470</v>
       </c>
       <c r="I7" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>98</v>
@@ -52871,12 +52893,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>1</v>
@@ -52885,7 +52907,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>2</v>
@@ -52894,10 +52916,10 @@
         <v>8</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>1142</v>
+        <v>616</v>
       </c>
       <c r="I8" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>98</v>
@@ -52918,21 +52940,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>379</v>
+        <v>1139</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>2</v>
@@ -52941,10 +52963,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="I9" t="s">
-        <v>380</v>
+        <v>203</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>98</v>
@@ -52962,24 +52984,24 @@
         <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>1144</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>291</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>2</v>
@@ -52988,10 +53010,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>1080</v>
+        <v>1142</v>
       </c>
       <c r="I10" t="s">
-        <v>448</v>
+        <v>205</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>98</v>
@@ -53012,21 +53034,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1036</v>
+        <v>379</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>2</v>
@@ -53035,10 +53057,10 @@
         <v>8</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1037</v>
+        <v>1143</v>
       </c>
       <c r="I11" t="s">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>98</v>
@@ -53056,39 +53078,39 @@
         <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>534</v>
+        <v>1144</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>1200</v>
+      <c r="B12" s="3" t="s">
+        <v>1145</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>456</v>
+        <v>291</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1146</v>
+        <v>296</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>98</v>
+        <v>1080</v>
       </c>
       <c r="I12" t="s">
-        <v>458</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>1184</v>
+        <v>448</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="K12" t="s">
         <v>98</v>
@@ -53097,30 +53119,30 @@
         <v>98</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1147</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
         <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>505</v>
+        <v>1036</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>2</v>
@@ -53129,10 +53151,10 @@
         <v>8</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>1148</v>
+        <v>1037</v>
       </c>
       <c r="I13" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>98</v>
@@ -53153,21 +53175,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>573</v>
+      <c r="B14" s="15" t="s">
+        <v>1200</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>8</v>
@@ -53179,10 +53201,10 @@
         <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>572</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>98</v>
+        <v>458</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>1184</v>
       </c>
       <c r="K14" t="s">
         <v>98</v>
@@ -53191,7 +53213,7 @@
         <v>98</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="N14" t="s">
         <v>98</v>
@@ -53200,33 +53222,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1036</v>
+        <v>505</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="H15" s="11" t="s">
-        <v>98</v>
+        <v>1148</v>
       </c>
       <c r="I15" t="s">
-        <v>1151</v>
+        <v>506</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>98</v>
@@ -53244,24 +53266,24 @@
         <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1153</v>
+        <v>573</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>487</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>8</v>
@@ -53273,7 +53295,7 @@
         <v>98</v>
       </c>
       <c r="I16" t="s">
-        <v>1152</v>
+        <v>572</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>98</v>
@@ -53285,7 +53307,7 @@
         <v>98</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>98</v>
+        <v>1150</v>
       </c>
       <c r="N16" t="s">
         <v>98</v>
@@ -53294,21 +53316,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1139</v>
+        <v>1036</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1156</v>
+        <v>32</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>8</v>
@@ -53320,7 +53342,7 @@
         <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>98</v>
@@ -53341,12 +53363,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>1</v>
@@ -53355,7 +53377,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>8</v>
@@ -53367,7 +53389,7 @@
         <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>98</v>
@@ -53388,12 +53410,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>1</v>
@@ -53402,7 +53424,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>1156</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>8</v>
@@ -53414,7 +53436,7 @@
         <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>98</v>
@@ -53435,21 +53457,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>8</v>
@@ -53461,7 +53483,7 @@
         <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>98</v>
@@ -53482,21 +53504,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1164</v>
+        <v>1138</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1165</v>
+        <v>28</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>8</v>
@@ -53508,7 +53530,7 @@
         <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>98</v>
@@ -53529,12 +53551,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>1</v>
@@ -53543,7 +53565,7 @@
         <v>456</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>8</v>
@@ -53555,7 +53577,7 @@
         <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>98</v>
@@ -53576,21 +53598,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>291</v>
+        <v>456</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>296</v>
+        <v>1165</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>8</v>
@@ -53602,7 +53624,7 @@
         <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>98</v>
@@ -53623,21 +53645,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>291</v>
+        <v>456</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>296</v>
+        <v>1168</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>8</v>
@@ -53649,7 +53671,7 @@
         <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>98</v>
@@ -53670,21 +53692,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1156</v>
+        <v>296</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>8</v>
@@ -53696,7 +53718,7 @@
         <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>98</v>
@@ -53717,21 +53739,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1154</v>
+        <v>296</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>8</v>
@@ -53743,7 +53765,7 @@
         <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>98</v>
@@ -53764,12 +53786,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>1</v>
@@ -53790,7 +53812,7 @@
         <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>98</v>
@@ -53811,21 +53833,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1136</v>
+        <v>1176</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1134</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>78</v>
+        <v>1154</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>8</v>
@@ -53837,7 +53859,7 @@
         <v>98</v>
       </c>
       <c r="I28" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>98</v>
@@ -53858,21 +53880,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>505</v>
+        <v>1178</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1134</v>
+        <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>78</v>
+        <v>1156</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>8</v>
@@ -53884,7 +53906,7 @@
         <v>98</v>
       </c>
       <c r="I29" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>98</v>
@@ -53905,21 +53927,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1182</v>
+        <v>1136</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>112</v>
+        <v>1134</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1183</v>
+        <v>78</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>8</v>
@@ -53931,7 +53953,7 @@
         <v>98</v>
       </c>
       <c r="I30" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>98</v>
@@ -53952,21 +53974,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1188</v>
+        <v>505</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>112</v>
+        <v>1134</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1183</v>
+        <v>78</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>8</v>
@@ -53978,7 +54000,7 @@
         <v>98</v>
       </c>
       <c r="I31" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>98</v>
@@ -53999,21 +54021,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>7</v>
+        <v>1183</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>8</v>
@@ -54025,7 +54047,7 @@
         <v>98</v>
       </c>
       <c r="I32" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>98</v>
@@ -54046,21 +54068,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1193</v>
+        <v>112</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>8</v>
@@ -54072,7 +54094,7 @@
         <v>98</v>
       </c>
       <c r="I33" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>98</v>
@@ -54093,21 +54115,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>8</v>
@@ -54119,7 +54141,7 @@
         <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>98</v>
@@ -54140,21 +54162,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1061</v>
+        <v>1192</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>153</v>
+        <v>1193</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>132</v>
+        <v>1194</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>8</v>
@@ -54166,7 +54188,7 @@
         <v>98</v>
       </c>
       <c r="I35" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>98</v>
@@ -54187,21 +54209,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>8</v>
@@ -54213,24 +54235,212 @@
         <v>98</v>
       </c>
       <c r="I36" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" t="s">
+        <v>98</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" t="s">
         <v>1198</v>
       </c>
-      <c r="J36" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K36" t="s">
-        <v>98</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N36" t="s">
-        <v>98</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="J38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" t="s">
+        <v>98</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" t="s">
+        <v>98</v>
+      </c>
+      <c r="N40" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" t="s">
         <v>98</v>
       </c>
     </row>
@@ -54248,25 +54458,25 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="49.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="10" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.90625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>394</v>
       </c>
@@ -54316,7 +54526,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -54366,7 +54576,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>254</v>
       </c>
@@ -54416,7 +54626,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>254</v>
       </c>
@@ -54466,7 +54676,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
@@ -54516,7 +54726,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>254</v>
       </c>
@@ -54566,7 +54776,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -54616,7 +54826,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>254</v>
       </c>
@@ -54666,7 +54876,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>254</v>
       </c>
@@ -54716,7 +54926,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>254</v>
       </c>
@@ -54766,7 +54976,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
@@ -54816,7 +55026,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>254</v>
       </c>
@@ -54866,7 +55076,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>254</v>
       </c>
@@ -54916,7 +55126,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>254</v>
       </c>
@@ -54966,7 +55176,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -55016,7 +55226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>254</v>
       </c>
@@ -55066,7 +55276,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>253</v>
       </c>
@@ -55116,7 +55326,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>253</v>
       </c>
@@ -55166,7 +55376,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>253</v>
       </c>
@@ -55216,7 +55426,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>253</v>
       </c>
@@ -55266,7 +55476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>253</v>
       </c>
@@ -55316,7 +55526,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>253</v>
       </c>
@@ -55366,7 +55576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>253</v>
       </c>
@@ -55416,7 +55626,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>253</v>
       </c>
@@ -55466,7 +55676,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>253</v>
       </c>
@@ -55516,7 +55726,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>253</v>
       </c>
@@ -55566,7 +55776,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>253</v>
       </c>
@@ -55616,7 +55826,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>253</v>
       </c>
@@ -55666,7 +55876,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>253</v>
       </c>
@@ -55716,7 +55926,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>253</v>
       </c>
@@ -55766,7 +55976,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>253</v>
       </c>
@@ -55816,7 +56026,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>253</v>
       </c>
@@ -55866,7 +56076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>253</v>
       </c>
@@ -55916,7 +56126,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>253</v>
       </c>
@@ -55966,7 +56176,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>253</v>
       </c>
@@ -56016,7 +56226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>253</v>
       </c>
@@ -56085,23 +56295,23 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="63.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.6328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>394</v>
       </c>
@@ -56151,7 +56361,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -56202,7 +56412,7 @@
       </c>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>254</v>
       </c>
@@ -56253,7 +56463,7 @@
       </c>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>254</v>
       </c>
@@ -56304,7 +56514,7 @@
       </c>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
@@ -56355,7 +56565,7 @@
       </c>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>254</v>
       </c>
@@ -56406,7 +56616,7 @@
       </c>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -56457,7 +56667,7 @@
       </c>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>254</v>
       </c>
@@ -56508,7 +56718,7 @@
       </c>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>254</v>
       </c>
@@ -56559,7 +56769,7 @@
       </c>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>254</v>
       </c>
@@ -56610,7 +56820,7 @@
       </c>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
@@ -56661,7 +56871,7 @@
       </c>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>254</v>
       </c>
@@ -56712,7 +56922,7 @@
       </c>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>254</v>
       </c>
@@ -56763,7 +56973,7 @@
       </c>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>254</v>
       </c>
@@ -56814,7 +57024,7 @@
       </c>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -56865,7 +57075,7 @@
       </c>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>254</v>
       </c>
@@ -56916,7 +57126,7 @@
       </c>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>254</v>
       </c>
@@ -56967,7 +57177,7 @@
       </c>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>254</v>
       </c>
@@ -57018,7 +57228,7 @@
       </c>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>254</v>
       </c>
@@ -57069,7 +57279,7 @@
       </c>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>254</v>
       </c>
@@ -57120,7 +57330,7 @@
       </c>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>254</v>
       </c>
@@ -57171,7 +57381,7 @@
       </c>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>254</v>
       </c>
@@ -57222,7 +57432,7 @@
       </c>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>254</v>
       </c>
@@ -57273,7 +57483,7 @@
       </c>
       <c r="Q23" s="12"/>
     </row>
-    <row r="24" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>254</v>
       </c>
@@ -57324,7 +57534,7 @@
       </c>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>254</v>
       </c>
@@ -57375,7 +57585,7 @@
       </c>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>254</v>
       </c>
@@ -57426,7 +57636,7 @@
       </c>
       <c r="Q26" s="12"/>
     </row>
-    <row r="27" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>254</v>
       </c>
@@ -57477,7 +57687,7 @@
       </c>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>254</v>
       </c>
@@ -57528,7 +57738,7 @@
       </c>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>254</v>
       </c>
@@ -57579,7 +57789,7 @@
       </c>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>254</v>
       </c>
@@ -57630,7 +57840,7 @@
       </c>
       <c r="Q30" s="12"/>
     </row>
-    <row r="31" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>254</v>
       </c>
@@ -57681,7 +57891,7 @@
       </c>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>254</v>
       </c>
@@ -57732,7 +57942,7 @@
       </c>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>254</v>
       </c>
@@ -57783,7 +57993,7 @@
       </c>
       <c r="Q33" s="12"/>
     </row>
-    <row r="34" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>254</v>
       </c>
@@ -57834,7 +58044,7 @@
       </c>
       <c r="Q34" s="12"/>
     </row>
-    <row r="35" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>254</v>
       </c>
@@ -57885,7 +58095,7 @@
       </c>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>254</v>
       </c>
@@ -57936,7 +58146,7 @@
       </c>
       <c r="Q36" s="12"/>
     </row>
-    <row r="37" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>254</v>
       </c>
@@ -57987,7 +58197,7 @@
       </c>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>254</v>
       </c>
@@ -58038,7 +58248,7 @@
       </c>
       <c r="Q38" s="12"/>
     </row>
-    <row r="39" spans="1:17" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>254</v>
       </c>
@@ -58089,7 +58299,7 @@
       </c>
       <c r="Q39" s="12"/>
     </row>
-    <row r="40" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>254</v>
       </c>
@@ -58139,7 +58349,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>253</v>
       </c>
@@ -58189,7 +58399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>253</v>
       </c>
@@ -58239,7 +58449,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>253</v>
       </c>
@@ -58289,7 +58499,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>253</v>
       </c>
@@ -58339,7 +58549,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>253</v>
       </c>
@@ -58389,7 +58599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>253</v>
       </c>
@@ -58439,7 +58649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>253</v>
       </c>
@@ -58489,7 +58699,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>253</v>
       </c>
@@ -58539,7 +58749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>253</v>
       </c>
@@ -58608,23 +58818,23 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="63.6328125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>394</v>
       </c>
@@ -58674,7 +58884,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -58724,7 +58934,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>254</v>
       </c>
@@ -58774,7 +58984,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>254</v>
       </c>
@@ -58824,7 +59034,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
@@ -58874,7 +59084,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>254</v>
       </c>
@@ -58924,7 +59134,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -58974,7 +59184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>254</v>
       </c>
@@ -59024,7 +59234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>253</v>
       </c>
@@ -59074,7 +59284,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>253</v>
       </c>
@@ -59124,7 +59334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>253</v>
       </c>
@@ -59174,7 +59384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>253</v>
       </c>
@@ -59224,7 +59434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>253</v>
       </c>
@@ -59293,19 +59503,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>394</v>
       </c>
@@ -59352,7 +59562,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -59399,7 +59609,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>253</v>
       </c>
@@ -59446,7 +59656,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>253</v>
       </c>
@@ -59493,7 +59703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>253</v>
       </c>
@@ -59540,7 +59750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>253</v>
       </c>
@@ -59587,7 +59797,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>253</v>
       </c>
@@ -59648,20 +59858,20 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" customWidth="1"/>
-    <col min="10" max="10" width="63.6328125" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" customWidth="1"/>
-    <col min="12" max="12" width="29.90625" customWidth="1"/>
-    <col min="13" max="13" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="63.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>394</v>
       </c>
@@ -59708,7 +59918,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -59755,7 +59965,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>254</v>
       </c>
@@ -59802,7 +60012,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>254</v>
       </c>
@@ -59849,7 +60059,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>253</v>
       </c>
@@ -59896,7 +60106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>253</v>
       </c>
@@ -59943,7 +60153,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>253</v>
       </c>
@@ -59990,7 +60200,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>253</v>
       </c>
@@ -60037,7 +60247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>253</v>
       </c>
@@ -60084,7 +60294,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>253</v>
       </c>
@@ -60131,7 +60341,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>253</v>
       </c>
@@ -60178,7 +60388,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>253</v>
       </c>
@@ -60225,7 +60435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>253</v>
       </c>
@@ -60272,7 +60482,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>254</v>
       </c>
@@ -60319,7 +60529,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -60366,7 +60576,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>254</v>
       </c>
@@ -60413,7 +60623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>254</v>
       </c>
@@ -60460,7 +60670,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>254</v>
       </c>
@@ -60507,7 +60717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>253</v>
       </c>
@@ -60554,7 +60764,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>254</v>
       </c>
@@ -60601,7 +60811,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>254</v>
       </c>
@@ -60648,7 +60858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>254</v>
       </c>
@@ -60695,7 +60905,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>254</v>
       </c>
@@ -60742,7 +60952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>253</v>
       </c>
@@ -60789,7 +60999,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>253</v>
       </c>
@@ -60836,7 +61046,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>253</v>
       </c>
@@ -60883,7 +61093,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>254</v>
       </c>
@@ -60930,7 +61140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>253</v>
       </c>
@@ -60977,7 +61187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>253</v>
       </c>
@@ -61024,7 +61234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>253</v>
       </c>
@@ -61071,7 +61281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>254</v>
       </c>
@@ -61118,7 +61328,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>255</v>
       </c>
@@ -61165,7 +61375,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>255</v>
       </c>
@@ -61212,7 +61422,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>255</v>
       </c>
@@ -61259,7 +61469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>254</v>
       </c>
@@ -61306,7 +61516,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>253</v>
       </c>
@@ -61353,7 +61563,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>253</v>
       </c>
@@ -61400,7 +61610,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>254</v>
       </c>
@@ -61447,7 +61657,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>255</v>
       </c>
@@ -61494,7 +61704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>253</v>
       </c>
@@ -61541,7 +61751,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>253</v>
       </c>
@@ -61588,7 +61798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>254</v>
       </c>
@@ -61635,7 +61845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>254</v>
       </c>
@@ -61682,7 +61892,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>253</v>
       </c>
@@ -61729,7 +61939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>253</v>
       </c>
@@ -61776,7 +61986,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>253</v>
       </c>
@@ -61823,7 +62033,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>254</v>
       </c>
@@ -61870,7 +62080,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>254</v>
       </c>
@@ -61917,7 +62127,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>255</v>
       </c>
@@ -61964,7 +62174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>253</v>
       </c>
@@ -62011,7 +62221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>253</v>
       </c>
@@ -62058,7 +62268,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>253</v>
       </c>
@@ -62105,7 +62315,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>254</v>
       </c>
@@ -62152,7 +62362,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>253</v>
       </c>
@@ -62199,7 +62409,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>254</v>
       </c>
@@ -62246,7 +62456,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>253</v>
       </c>
@@ -62293,7 +62503,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>255</v>
       </c>
@@ -62340,7 +62550,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>254</v>
       </c>
@@ -62387,7 +62597,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>253</v>
       </c>
@@ -62434,7 +62644,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>253</v>
       </c>
@@ -62481,7 +62691,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>254</v>
       </c>
@@ -62528,7 +62738,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>254</v>
       </c>
@@ -62575,7 +62785,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>254</v>
       </c>
@@ -62622,7 +62832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>254</v>
       </c>
@@ -62669,7 +62879,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>254</v>
       </c>
@@ -62716,7 +62926,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>254</v>
       </c>
@@ -62763,7 +62973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>254</v>
       </c>
@@ -62810,7 +63020,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>255</v>
       </c>
@@ -62857,7 +63067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>254</v>
       </c>
@@ -62904,7 +63114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>253</v>
       </c>
@@ -62951,7 +63161,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>253</v>
       </c>
@@ -62998,7 +63208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>254</v>
       </c>
@@ -63045,7 +63255,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>253</v>
       </c>
@@ -63092,7 +63302,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>253</v>
       </c>
@@ -63139,7 +63349,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>253</v>
       </c>
@@ -63186,7 +63396,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>253</v>
       </c>
@@ -63233,7 +63443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>254</v>
       </c>
@@ -63280,7 +63490,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>255</v>
       </c>
@@ -63327,7 +63537,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>253</v>
       </c>
@@ -63374,7 +63584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>253</v>
       </c>
@@ -63421,7 +63631,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>254</v>
       </c>
@@ -63468,7 +63678,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>254</v>
       </c>
@@ -63515,7 +63725,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>254</v>
       </c>
@@ -63562,7 +63772,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>254</v>
       </c>
@@ -63609,7 +63819,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>253</v>
       </c>
@@ -63656,7 +63866,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>253</v>
       </c>
@@ -63703,7 +63913,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>253</v>
       </c>
@@ -63750,7 +63960,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>253</v>
       </c>
@@ -63797,7 +64007,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>253</v>
       </c>
@@ -63844,7 +64054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>253</v>
       </c>
@@ -63891,7 +64101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>254</v>
       </c>
@@ -63938,7 +64148,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>254</v>
       </c>
@@ -63985,7 +64195,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>254</v>
       </c>
@@ -64032,7 +64242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>254</v>
       </c>
@@ -64079,7 +64289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>254</v>
       </c>
@@ -64126,7 +64336,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>254</v>
       </c>
@@ -64173,7 +64383,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>254</v>
       </c>
@@ -64220,7 +64430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>253</v>
       </c>
@@ -64267,7 +64477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>254</v>
       </c>
@@ -64314,7 +64524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>254</v>
       </c>
@@ -64361,7 +64571,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>254</v>
       </c>
@@ -64408,7 +64618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>254</v>
       </c>
@@ -64455,7 +64665,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>254</v>
       </c>
@@ -64502,7 +64712,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>254</v>
       </c>
@@ -64568,16 +64778,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="10" max="10" width="47.7265625" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>394</v>
       </c>
@@ -64624,7 +64834,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -64671,7 +64881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>253</v>
       </c>
@@ -64718,7 +64928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>254</v>
       </c>
@@ -64765,7 +64975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
@@ -64812,7 +65022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>254</v>
       </c>
@@ -64859,7 +65069,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>253</v>
       </c>
@@ -64920,22 +65130,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.54296875" customWidth="1"/>
-    <col min="5" max="5" width="30.08984375" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="4"/>
-    <col min="10" max="10" width="99.36328125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="28.08984375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.26953125" style="6" customWidth="1"/>
-    <col min="14" max="15" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="77.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4"/>
+    <col min="10" max="10" width="99.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" style="6" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>257</v>
       </c>
@@ -64982,7 +65192,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -65029,7 +65239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>253</v>
       </c>
@@ -65076,7 +65286,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>253</v>
       </c>
@@ -65123,7 +65333,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
@@ -65170,7 +65380,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>253</v>
       </c>
@@ -65217,7 +65427,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>253</v>
       </c>
@@ -65264,7 +65474,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>254</v>
       </c>
@@ -65311,7 +65521,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>253</v>
       </c>
@@ -65358,7 +65568,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>254</v>
       </c>
@@ -65405,7 +65615,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>253</v>
       </c>
@@ -65452,7 +65662,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>253</v>
       </c>
@@ -65499,7 +65709,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>253</v>
       </c>
@@ -65546,7 +65756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>253</v>
       </c>
@@ -65593,7 +65803,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -65640,7 +65850,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>253</v>
       </c>
@@ -65687,1075 +65897,1075 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="J17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="J18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="J20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="J22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="J24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="J25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="J26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="J27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="J29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="J30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="J31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="J32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="J33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="J34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="J35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="J36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="J37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="J38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="J39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="J40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="J41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="J42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="J43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="J44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="J45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="J46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="J47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="J48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="J49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="J50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="J51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="J52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="J53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="J54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="J55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="J56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="J57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="J58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="J59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="J60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="J61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="J62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="J63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="J64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="J65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="J66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="J67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="J68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="J69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="J70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="J71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="J72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="J73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="J74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="J75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="J76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="J77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="J78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="J79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="J80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="J81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="J82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="J83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="J84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="J85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="J86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="J87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="J88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="J89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="J90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="J91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="J92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="J93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="J94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="J95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="J96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="J97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="J98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="J99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="J100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="J101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="J102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="J103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="J104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="J105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="J106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="J107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="J108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="J109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="J110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="J111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="J112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="J113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="J114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="J115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="J116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="J117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="J118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="J119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="J120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="J121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="J122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="J123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="J124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="J125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="J126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="J127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="J128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="J129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="J130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="J131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="J132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="J133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="J134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="J135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="J136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="J137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="J138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="J139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="J140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="J141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="J142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="J143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="J144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="J145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="J146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="J147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="J148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="J149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="J150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="J151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="J152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="J153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="J154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="J155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="J156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="J157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="J158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="J159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="J160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="J161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="J162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="J163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="J164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="J165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
     </row>
-    <row r="166" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="J166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
     </row>
-    <row r="167" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="J167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
     </row>
-    <row r="168" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="J168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
     </row>
-    <row r="169" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="J169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="J170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="J171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
     </row>
-    <row r="172" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="J172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
     </row>
-    <row r="173" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="J173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
     </row>
-    <row r="174" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="J174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
     </row>
-    <row r="175" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="J175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
     </row>
-    <row r="176" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="J176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
     </row>
-    <row r="177" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="J177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
     </row>
-    <row r="178" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="J178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
     </row>
-    <row r="179" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="J179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
     </row>
-    <row r="180" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="J180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
     </row>
-    <row r="181" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="J181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
     </row>
-    <row r="182" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="J182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
     </row>
-    <row r="183" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="J183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
     </row>
-    <row r="184" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="J184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
     </row>
-    <row r="185" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="J185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
     </row>
-    <row r="186" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="J186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
     </row>
-    <row r="187" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="J187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
     </row>
-    <row r="188" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="J188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
     </row>
-    <row r="189" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="J189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
     </row>
-    <row r="190" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="J190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
     </row>
-    <row r="191" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="J191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
     </row>
-    <row r="192" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="J192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
     </row>
-    <row r="193" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="J193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
     </row>
-    <row r="194" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="J194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
     </row>
-    <row r="195" spans="2:13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="J195" s="1"/>
       <c r="L195" s="1"/>
@@ -66776,22 +66986,22 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.54296875" customWidth="1"/>
-    <col min="5" max="5" width="30.08984375" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="4"/>
-    <col min="10" max="10" width="99.36328125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="28.08984375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.26953125" style="6" customWidth="1"/>
-    <col min="14" max="15" width="8.7265625" style="4"/>
-    <col min="16" max="16" width="14.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4"/>
+    <col min="10" max="10" width="99.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" style="6" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" style="4"/>
+    <col min="16" max="16" width="14.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>257</v>
       </c>
@@ -66841,7 +67051,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -66891,7 +67101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>254</v>
       </c>
@@ -66941,7 +67151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>254</v>
       </c>
@@ -66991,7 +67201,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
@@ -67041,7 +67251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>254</v>
       </c>
@@ -67091,7 +67301,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -67141,7 +67351,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>254</v>
       </c>
@@ -67191,7 +67401,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>253</v>
       </c>
@@ -67219,7 +67429,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>254</v>
       </c>
@@ -67269,7 +67479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>253</v>
       </c>
@@ -67297,7 +67507,7 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>254</v>
       </c>
@@ -67347,7 +67557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>254</v>
       </c>
@@ -67397,7 +67607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>254</v>
       </c>
@@ -67447,7 +67657,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -67497,7 +67707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>254</v>
       </c>
@@ -67547,7 +67757,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>254</v>
       </c>
@@ -67597,7 +67807,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>254</v>
       </c>
@@ -67647,7 +67857,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>254</v>
       </c>
@@ -67697,7 +67907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>254</v>
       </c>
@@ -67747,7 +67957,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>254</v>
       </c>
@@ -67797,7 +68007,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>254</v>
       </c>
@@ -67847,7 +68057,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>254</v>
       </c>
@@ -67897,7 +68107,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>254</v>
       </c>
@@ -67947,7 +68157,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>254</v>
       </c>
@@ -67997,7 +68207,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>253</v>
       </c>
@@ -68045,7 +68255,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>254</v>
       </c>
@@ -68095,7 +68305,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>254</v>
       </c>
@@ -68145,7 +68355,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>254</v>
       </c>
@@ -68195,7 +68405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>254</v>
       </c>
@@ -68245,7 +68455,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>254</v>
       </c>
@@ -68295,7 +68505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>255</v>
       </c>
@@ -68345,7 +68555,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>254</v>
       </c>
@@ -68395,7 +68605,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>254</v>
       </c>
@@ -68445,7 +68655,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>254</v>
       </c>
@@ -68495,7 +68705,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>254</v>
       </c>
@@ -68545,7 +68755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>254</v>
       </c>
@@ -68595,7 +68805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>254</v>
       </c>
@@ -68645,7 +68855,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>253</v>
       </c>
@@ -68693,7 +68903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>253</v>
       </c>
@@ -68741,7 +68951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>254</v>
       </c>
@@ -68791,7 +69001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>254</v>
       </c>
@@ -68841,7 +69051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>254</v>
       </c>
@@ -68891,7 +69101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>254</v>
       </c>
@@ -68941,7 +69151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>254</v>
       </c>
@@ -68991,7 +69201,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>254</v>
       </c>
@@ -69041,7 +69251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>254</v>
       </c>
@@ -69091,7 +69301,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>254</v>
       </c>
@@ -69141,7 +69351,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>254</v>
       </c>
@@ -69191,7 +69401,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>254</v>
       </c>
@@ -69241,7 +69451,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>254</v>
       </c>
@@ -69291,7 +69501,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>254</v>
       </c>
@@ -69341,7 +69551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>254</v>
       </c>
@@ -69391,7 +69601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>254</v>
       </c>
@@ -69441,7 +69651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>254</v>
       </c>
@@ -69491,7 +69701,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>253</v>
       </c>
@@ -69539,7 +69749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>254</v>
       </c>
@@ -69589,7 +69799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>254</v>
       </c>
@@ -69639,7 +69849,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>254</v>
       </c>
@@ -69689,7 +69899,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>254</v>
       </c>
@@ -69739,7 +69949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>254</v>
       </c>
@@ -69789,7 +69999,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>254</v>
       </c>
@@ -69839,7 +70049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>254</v>
       </c>
@@ -69889,7 +70099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>254</v>
       </c>
@@ -69939,7 +70149,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>254</v>
       </c>
@@ -69989,7 +70199,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>254</v>
       </c>
@@ -70039,7 +70249,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>254</v>
       </c>
@@ -70089,7 +70299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>254</v>
       </c>
@@ -70139,7 +70349,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>254</v>
       </c>
@@ -70189,7 +70399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>254</v>
       </c>
@@ -70239,7 +70449,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>254</v>
       </c>
@@ -70289,7 +70499,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>254</v>
       </c>
@@ -70337,7 +70547,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>253</v>
       </c>
@@ -70385,7 +70595,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>253</v>
       </c>
@@ -70433,7 +70643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>253</v>
       </c>
@@ -70481,7 +70691,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>253</v>
       </c>
@@ -70529,7 +70739,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>254</v>
       </c>
@@ -70579,7 +70789,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>254</v>
       </c>
@@ -70629,7 +70839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>254</v>
       </c>
@@ -70679,7 +70889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>254</v>
       </c>
@@ -70729,7 +70939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>254</v>
       </c>
@@ -70779,7 +70989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>254</v>
       </c>
@@ -70829,7 +71039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>254</v>
       </c>
@@ -70879,7 +71089,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>254</v>
       </c>
@@ -70929,7 +71139,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>254</v>
       </c>
@@ -70979,7 +71189,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>254</v>
       </c>
@@ -71029,7 +71239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>254</v>
       </c>
@@ -71079,7 +71289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>254</v>
       </c>
@@ -71129,7 +71339,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>254</v>
       </c>
@@ -71179,7 +71389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>254</v>
       </c>
@@ -71229,7 +71439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>254</v>
       </c>
@@ -71279,7 +71489,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>254</v>
       </c>
@@ -71329,7 +71539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>254</v>
       </c>
@@ -71379,7 +71589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>254</v>
       </c>
@@ -71429,7 +71639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>254</v>
       </c>
@@ -71479,7 +71689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>254</v>
       </c>
@@ -71529,7 +71739,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>254</v>
       </c>
@@ -71579,7 +71789,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>254</v>
       </c>
@@ -71629,7 +71839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>254</v>
       </c>
@@ -71679,7 +71889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>254</v>
       </c>
@@ -71729,7 +71939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>254</v>
       </c>
@@ -71779,7 +71989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>254</v>
       </c>
@@ -71829,7 +72039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>254</v>
       </c>
@@ -71879,7 +72089,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>254</v>
       </c>
@@ -71929,7 +72139,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>254</v>
       </c>
@@ -71979,7 +72189,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>254</v>
       </c>
@@ -72029,7 +72239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>254</v>
       </c>
@@ -72079,7 +72289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>254</v>
       </c>
@@ -72129,7 +72339,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>254</v>
       </c>
@@ -72179,7 +72389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>254</v>
       </c>
@@ -72229,7 +72439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>254</v>
       </c>
@@ -72279,7 +72489,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>254</v>
       </c>
@@ -72329,7 +72539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>254</v>
       </c>
@@ -72379,7 +72589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>254</v>
       </c>
@@ -72429,7 +72639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>253</v>
       </c>
@@ -72477,7 +72687,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>253</v>
       </c>
@@ -72525,7 +72735,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>254</v>
       </c>
@@ -72575,7 +72785,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>254</v>
       </c>
@@ -72625,7 +72835,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>254</v>
       </c>
@@ -72675,7 +72885,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>254</v>
       </c>
@@ -72725,7 +72935,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>254</v>
       </c>
@@ -72775,7 +72985,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>254</v>
       </c>
@@ -72825,7 +73035,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>254</v>
       </c>
@@ -72875,7 +73085,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>254</v>
       </c>
@@ -72925,7 +73135,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>254</v>
       </c>
@@ -72975,7 +73185,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>254</v>
       </c>
@@ -73025,7 +73235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>254</v>
       </c>
@@ -73075,7 +73285,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>254</v>
       </c>
@@ -73125,7 +73335,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>254</v>
       </c>
@@ -73175,7 +73385,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>254</v>
       </c>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.11b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE94A9BB-5110-4B7A-822A-57812D9E0826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E89AF2-9EE9-4512-A3A4-F07939E72E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8820" yWindow="-20565" windowWidth="20070" windowHeight="18600" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="-13560" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes release 3.10 -&gt; 3.11" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6226" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6319" uniqueCount="1209">
   <si>
     <t>All</t>
   </si>
@@ -51456,12 +51456,6 @@
     <t>CHK0276</t>
   </si>
   <si>
-    <t>EligibilityCriterionItem, Characteristic, Condition, Objective, Endpoint</t>
-  </si>
-  <si>
-    <t>EligibilityCriterion, Characteristic, Condition, Objective, Endpoint=&gt;EligibilityCriterionItem, Characteristic, Condition, Objective, Endpoint</t>
-  </si>
-  <si>
     <t>Any parameter name referenced in a tag in the text should be specified in the data dictionary parameter maps.</t>
   </si>
   <si>
@@ -51606,201 +51600,6 @@
     <t>EligibilityCriterionItem</t>
   </si>
   <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>unit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>must</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>specified</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>every</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>denominator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>numerator</t>
-    </r>
-  </si>
-  <si>
     <t>A study element must only reference study interventions that are defined within the same study design as the study element.</t>
   </si>
   <si>
@@ -51846,181 +51645,6 @@
     <t>An activity must only reference child activities that are specified within the same study design.</t>
   </si>
   <si>
-    <r>
-      <t>If</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>denominator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>specified,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>it</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>must</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a unit.</t>
-    </r>
-  </si>
-  <si>
     <t>If the reason for a study amendment is 'Other' then this must be specified (attribute reasonOther must be completed)</t>
   </si>
   <si>
@@ -52040,6 +51664,21 @@
   </si>
   <si>
     <t>The same reason is not expected to be given as a primary and secondary reason.</t>
+  </si>
+  <si>
+    <t>Within a study design, there must be at least 1 eligibility criterion that is referenced by either a study population or a cohort.</t>
+  </si>
+  <si>
+    <t>When included in text, references to items stored elsewhere in the data model must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="klassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "klassName" and "attributeName" contain only letters in upper or lower case).</t>
+  </si>
+  <si>
+    <t>For a specified range at least a minimum or maximum value is expected.</t>
+  </si>
+  <si>
+    <t>If a strength denominator is specified, it must have a unit.</t>
+  </si>
+  <si>
+    <t>EligibilityCriterionItem, Characteristic, Condition, Objective, Endpoint, IntercurrentEvent</t>
   </si>
 </sst>
 </file>
@@ -52097,7 +51736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -52133,11 +51772,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -52184,6 +51845,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -52541,27 +52211,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F073237-C241-4A12-AF73-84AEF043C739}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5703125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -52589,19 +52260,19 @@
       <c r="H1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>531</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="20" t="s">
         <v>240</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="20" t="s">
         <v>241</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -52611,108 +52282,104 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>2</v>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>314</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" t="s">
-        <v>554</v>
+        <v>5</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -52721,35 +52388,32 @@
       <c r="E4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="11" t="s">
-        <v>1137</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O4" t="s">
-        <v>534</v>
+      <c r="N4" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -52757,328 +52421,307 @@
         <v>254</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C5" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1186</v>
+        <v>1135</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="22" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>1205</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="11" t="s">
-        <v>1203</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>320</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" t="s">
-        <v>534</v>
+        <v>80</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>1</v>
+        <v>493</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H7" s="11" t="s">
-        <v>470</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>299</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" t="s">
-        <v>534</v>
+      <c r="N7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H8" s="11" t="s">
-        <v>616</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>301</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" t="s">
-        <v>534</v>
+      <c r="N8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H9" s="11" t="s">
-        <v>1140</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s">
-        <v>534</v>
+      <c r="N9" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1</v>
+        <v>495</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H10" s="11" t="s">
-        <v>1142</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N10" t="s">
-        <v>98</v>
-      </c>
-      <c r="O10" t="s">
-        <v>534</v>
+      <c r="N10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1143</v>
+        <v>1183</v>
       </c>
       <c r="I11" t="s">
-        <v>380</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N11" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" t="s">
-        <v>1144</v>
+      <c r="N11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -53086,186 +52729,180 @@
         <v>254</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>1</v>
+        <v>1198</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I12" t="s">
+        <v>320</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I12" t="s">
-        <v>448</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>8</v>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>1037</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>451</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N13" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" t="s">
-        <v>534</v>
+      <c r="N13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="F14" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>98</v>
+        <v>470</v>
       </c>
       <c r="I14" t="s">
-        <v>458</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>1184</v>
-      </c>
-      <c r="K14" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="N14" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" t="s">
-        <v>98</v>
+        <v>98</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>74</v>
+        <v>1136</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>1148</v>
+        <v>616</v>
       </c>
       <c r="I15" t="s">
-        <v>506</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N15" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="22" t="s">
         <v>534</v>
       </c>
     </row>
@@ -53274,515 +52911,515 @@
         <v>254</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="C16" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>487</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F16" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>98</v>
+        <v>1138</v>
       </c>
       <c r="I16" t="s">
-        <v>572</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="N16" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" t="s">
-        <v>98</v>
+        <v>98</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C17" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1151</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" t="s">
-        <v>98</v>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I18" t="s">
+        <v>380</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>1142</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C18" s="11" t="s">
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="D19" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1152</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" t="s">
-        <v>98</v>
-      </c>
-      <c r="O18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>98</v>
+        <v>1080</v>
       </c>
       <c r="I19" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N19" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" t="s">
-        <v>98</v>
+      <c r="N19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C20" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>450</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>2</v>
-      </c>
       <c r="H20" s="11" t="s">
-        <v>98</v>
+        <v>1037</v>
       </c>
       <c r="I20" t="s">
-        <v>1157</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N20" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" t="s">
-        <v>98</v>
+      <c r="N20" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C21" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>456</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>1159</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N21" t="s">
-        <v>98</v>
-      </c>
-      <c r="O21" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C22" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I22" t="s">
+        <v>506</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="D23" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N22" t="s">
-        <v>98</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="H23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" t="s">
+        <v>572</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1163</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N23" t="s">
-        <v>98</v>
-      </c>
-      <c r="O23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C24" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>456</v>
+        <v>31</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>1166</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N24" t="s">
-        <v>98</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C25" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>291</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F25" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N25" t="s">
-        <v>98</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N25" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C26" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>291</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F26" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K26" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N26" t="s">
-        <v>98</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" s="22" t="s">
         <v>98</v>
       </c>
     </row>
@@ -53791,9 +53428,9 @@
         <v>253</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C27" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -53802,269 +53439,269 @@
       <c r="E27" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>1173</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K27" t="s">
-        <v>98</v>
-      </c>
-      <c r="L27" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N27" t="s">
-        <v>98</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N27" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C28" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I28" t="s">
-        <v>1175</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K28" t="s">
-        <v>98</v>
-      </c>
-      <c r="L28" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="N28" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C29" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>456</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F29" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I29" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K29" t="s">
-        <v>98</v>
-      </c>
-      <c r="L29" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N29" t="s">
-        <v>98</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N29" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C30" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1134</v>
+        <v>456</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I30" t="s">
-        <v>1179</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="N30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>74</v>
+        <v>1165</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1134</v>
+        <v>456</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I31" t="s">
-        <v>1180</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K31" t="s">
-        <v>98</v>
-      </c>
-      <c r="L31" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N31" t="s">
-        <v>98</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="N31" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O31" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C32" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F32" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I32" t="s">
-        <v>1181</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K32" t="s">
-        <v>98</v>
-      </c>
-      <c r="L32" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N32" t="s">
-        <v>98</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="N32" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O32" s="22" t="s">
         <v>98</v>
       </c>
     </row>
@@ -54073,280 +53710,280 @@
         <v>253</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>74</v>
+        <v>1170</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F33" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I33" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" t="s">
-        <v>98</v>
-      </c>
-      <c r="L33" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N33" t="s">
-        <v>98</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="N33" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C34" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K34" t="s">
-        <v>98</v>
-      </c>
-      <c r="L34" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N34" t="s">
-        <v>98</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="N34" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C35" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1193</v>
+        <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F35" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I35" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K35" t="s">
-        <v>98</v>
-      </c>
-      <c r="L35" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N35" t="s">
-        <v>98</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="N35" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C36" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I36" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K36" t="s">
-        <v>98</v>
-      </c>
-      <c r="L36" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N36" t="s">
-        <v>98</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="N36" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>74</v>
+        <v>1134</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>153</v>
+        <v>1208</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I37" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" t="s">
-        <v>98</v>
-      </c>
-      <c r="L37" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N37" t="s">
-        <v>98</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N37" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O37" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>1</v>
+        <v>505</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>86</v>
+        <v>1208</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I38" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K38" t="s">
-        <v>98</v>
-      </c>
-      <c r="L38" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N38" t="s">
-        <v>98</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N38" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" s="22" t="s">
         <v>98</v>
       </c>
     </row>
@@ -54355,45 +53992,45 @@
         <v>253</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>74</v>
+        <v>1180</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F39" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I39" t="s">
-        <v>1204</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K39" t="s">
-        <v>98</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M39" t="s">
-        <v>98</v>
-      </c>
-      <c r="N39" t="s">
-        <v>98</v>
-      </c>
-      <c r="O39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" s="22" t="s">
         <v>98</v>
       </c>
     </row>
@@ -54402,45 +54039,374 @@
         <v>253</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C40" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O42" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N43" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O43" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O44" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N45" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O45" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K40" t="s">
-        <v>98</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M40" t="s">
-        <v>98</v>
-      </c>
-      <c r="N40" t="s">
-        <v>98</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="H46" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N46" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O46" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O47" s="22" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\3.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37B1AE3F-E7B1-41E9-9562-80E962FD6AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B0E0C0-C350-4892-B477-2B0605A4C6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6881" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7084" uniqueCount="1319">
   <si>
     <t>All</t>
   </si>
@@ -51775,138 +51775,6 @@
     <t>plannedCompletionNumberRange, plannedCompletionNumberQuantity=&gt;plannedCompletionNumber</t>
   </si>
   <si>
-    <t>A procedure must only reference a study intervention that is referenced by the same study design as the activity within which the procedure is defined.</t>
-  </si>
-  <si>
-    <t>DDF00240</t>
-  </si>
-  <si>
-    <t>CHK0301</t>
-  </si>
-  <si>
-    <t>DDF00245</t>
-  </si>
-  <si>
-    <t>CHK0302</t>
-  </si>
-  <si>
-    <t>Referenced items in the narrative content item texts must be available elsewhere in the data model.</t>
-  </si>
-  <si>
-    <t>DDF00244</t>
-  </si>
-  <si>
-    <t>CHK0303</t>
-  </si>
-  <si>
-    <t>Each StudyArm is expected to have one StudyCell for each StudyEpoch.</t>
-  </si>
-  <si>
-    <t>DDF00243</t>
-  </si>
-  <si>
-    <t>CHK0304</t>
-  </si>
-  <si>
-    <t>If a synonym is specified then it is not expected to be equal to the label of the biomedical concept (case insensitive).</t>
-  </si>
-  <si>
-    <t>DDF00236</t>
-  </si>
-  <si>
-    <t>CHK0305</t>
-  </si>
-  <si>
-    <t>At least the text or the family name must be specified for a person name.</t>
-  </si>
-  <si>
-    <t>PersonName</t>
-  </si>
-  <si>
-    <t>text, familyName</t>
-  </si>
-  <si>
-    <t>DDF00030</t>
-  </si>
-  <si>
-    <t>CHK0306</t>
-  </si>
-  <si>
-    <t>At least the text or the quantity must be specified for a duration.</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>text, quantity</t>
-  </si>
-  <si>
-    <t>DDF00033</t>
-  </si>
-  <si>
-    <t>CHK0307</t>
-  </si>
-  <si>
-    <t>DDF00034</t>
-  </si>
-  <si>
-    <t>CHK0308</t>
-  </si>
-  <si>
-    <t>If the duration will vary, a quantity is not expected for the duration and vice versa.</t>
-  </si>
-  <si>
-    <t>CHK0309</t>
-  </si>
-  <si>
-    <t>A planned duration is expected for the main timeline.</t>
-  </si>
-  <si>
-    <t>plannedDuration</t>
-  </si>
-  <si>
-    <t>DDF00153</t>
-  </si>
-  <si>
-    <t>CHK0310</t>
-  </si>
-  <si>
-    <t>A study design must not be characterized as both "Single-Center" and "Multi-Center".</t>
-  </si>
-  <si>
-    <t>DDF00154</t>
-  </si>
-  <si>
-    <t>CHK0311</t>
-  </si>
-  <si>
-    <t>A study design must not be characterized as both "Single-Country" and "Multi-Country".</t>
-  </si>
-  <si>
-    <t>DDF00257</t>
-  </si>
-  <si>
-    <t>CHK0312</t>
-  </si>
-  <si>
-    <t>A study design is not expected to have more than one of the following characteristics: "Randomized", "Stratification", "Randomized Stratification".</t>
-  </si>
-  <si>
-    <t>DDF00258</t>
-  </si>
-  <si>
-    <t>CHK0313</t>
-  </si>
-  <si>
-    <t>A study role code must be specified according to the (Cxxxx) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
-  </si>
-  <si>
-    <t>DDF00259</t>
-  </si>
-  <si>
-    <t>CHK0314</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The </t>
     </r>
@@ -52002,6 +51870,3334 @@
         <scheme val="minor"/>
       </rPr>
       <t>ue.</t>
+    </r>
+  </si>
+  <si>
+    <t>If timing type is not "Fixed Reference" then it must point to two scheduled instances (e.g. the relativeFromScheduledInstance and relativeToScheduledInstance attributes must not be missing and must not be equal to each other).</t>
+  </si>
+  <si>
+    <t>relativeFromScheduleInstance, relativeToScheduledInstance</t>
+  </si>
+  <si>
+    <t>relativeToScheduledInstance=&gt;relativeFromScheduleInstance, relativeToScheduledInstance</t>
+  </si>
+  <si>
+    <t>DDF00157</t>
+  </si>
+  <si>
+    <t>An encounter's environmental setting must be specified according to the extensible Environmental Setting (C127262) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+  </si>
+  <si>
+    <t>DDF00158</t>
+  </si>
+  <si>
+    <t>StudyVersion=&gt;ObservationalStudyDesign, InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <t>DDF00159</t>
+  </si>
+  <si>
+    <t>DDF00161</t>
+  </si>
+  <si>
+    <t>DDF00162</t>
+  </si>
+  <si>
+    <t>DDF00166</t>
+  </si>
+  <si>
+    <t>DDF00169</t>
+  </si>
+  <si>
+    <t>DDF00175</t>
+  </si>
+  <si>
+    <t>DDF00176</t>
+  </si>
+  <si>
+    <t>DDF00179</t>
+  </si>
+  <si>
+    <t>DDF00180</t>
+  </si>
+  <si>
+    <t>DDF00183</t>
+  </si>
+  <si>
+    <t>DDF00184</t>
+  </si>
+  <si>
+    <t>DDF00199</t>
+  </si>
+  <si>
+    <t>There must be exactly one study role with a code of sponsor.</t>
+  </si>
+  <si>
+    <t>DDF00201</t>
+  </si>
+  <si>
+    <t>Sourcing must not be defined for an administrable product which is only referenced as an embedded product for a medical device.</t>
+  </si>
+  <si>
+    <t>DDF00206</t>
+  </si>
+  <si>
+    <t>AdminstrableProduct=&gt;AdministrableProduct</t>
+  </si>
+  <si>
+    <t>DDF00207</t>
+  </si>
+  <si>
+    <t>DDF00208</t>
+  </si>
+  <si>
+    <t>DDF00209</t>
+  </si>
+  <si>
+    <t>DDF00218</t>
+  </si>
+  <si>
+    <t>DDF00226</t>
+  </si>
+  <si>
+    <t>An interventional study must be specified using the InterventionalStudyDesign class.</t>
+  </si>
+  <si>
+    <t>DDF00227</t>
+  </si>
+  <si>
+    <t>criterionItem</t>
+  </si>
+  <si>
+    <t>DDF00248</t>
+  </si>
+  <si>
+    <t>EligibilityCriterionItem=&gt;criterionItem</t>
+  </si>
+  <si>
+    <t>DDF00249</t>
+  </si>
+  <si>
+    <t>DDF00253</t>
+  </si>
+  <si>
+    <t>StudyDesign=&gt;InterventionalStudyDesign</t>
+  </si>
+  <si>
+    <r>
+      <t>If the reason for a study amendment is 'Other' then this must be specified (attribute reasonOther must be completed)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An encounter's environmental setting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must be specified according to the extensible Environmental Setting (C127262) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Each defined eli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> criterion must be used by at least one study population or cohort.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Each defined eli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> criterion must be used by at least one study population o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cohort within the same study design.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An eligi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> criterion must not be referenced by both a study design population and any of the cohorts of the same study design population.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An eligi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> criterion must not be referenced by both a study design population and any of the cohorts of the same study design populatio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The ordering of activities (using the previous and next attributes) must include the parents (e.g. activities refer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to children) preceding their childr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The ordering of activities (using the previous and next attributes) must include the parents (e.g. activities refer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to children) preceding their children.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When included in text, references to items stored elsewhere in the data model must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="KlassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and "attributeName" contain only letters in upper or lower case).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When included in text, references to items stored elsewhere in the data model must be specified in the correct format. They must start with '&lt;usdm:ref', end with either '/&gt;' or '&gt;&lt;/usdm:ref&gt;', and must contain 'klass="KlassName"',  'id="idValue"', and 'attribute="attributeName"/&gt;' in any order (where "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KlassName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and "attributeName" contain only letters in upper or lower case).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A study definition document type must be specif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to the extensibl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Cnnn)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(e.g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consistent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A study definition document type must be specif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to the extensib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C215477)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(e.g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consistent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A study definition document version's status must be specif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using the status Value Set Terminology (C188723) DDF codelist.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A study definition document version's status must be specif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using the status Value Set Terminology (C188723) DDF codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An administration's frequency must be spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An administration's frequency must be spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to the extensible Frequency (C71113) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An administration's route must be spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An administration's route must be spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to the extensible Route of Administration Response (C66729) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An administrable dose form must be spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to the extensible Pharmaceutical Dosage Form (C66726) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An administrable dose form must be spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to the extensible Pharmaceutical Dosage Form (C66726) SDTM codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An administrable product property type must be specified according to the extensible administrable property type (C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxxx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An administrable product property type must be specified according to the extensible administrable property type (C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>215479)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A reference identifier type must be specified according to the extensible reference identifier type (C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DDF codelist  (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A reference identifier type must be specified according to the extensible reference identifier type (C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>215478)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DDF codelist  (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A referenced substance must not have any references </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> itse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lf.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An study impact type must be specified according to the extensible study amendment impact type (C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxxx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An study impact type must be specified according to the extensible study amendment impact type (C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>215481)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>There must be exactly one study role with a code of sponsor.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sourcing must not be defined for an administrable product which is only referenced as an embedded product for a medical device.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A medical device identifier type must be specified according to the extensible medical device identifier type (C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A medical device identifier type must be specified according to the extensible medical device identifier type (C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>215484)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An administrable product sourcing must be specified using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sourcing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Cxxx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> codelist.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An administrable product sourcing must be specified using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extensible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>administrable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product sourcing (C215483) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A medical device sourcing must be specified using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sourcing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Cxxx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> codelist.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A medical device sourcing must be specified using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extensible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sourcing (C215482) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A study design's characteristics must be specified according to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>characteristics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A study design's characteristics must be specified according to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extensible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>characteristics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (C207416) DDF codelist (e.g. an entry with a code or decode used from the codelist should be consistent with the full entry in the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A observational study design's sub types must be specified according to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Cxxxx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(e.g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consistent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A observational study design's sub types must be specified according to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extensible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>observational</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(C215486)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(e.g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consistent with the full entry in the codelist).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An interventional study must be specified using the InterventionalStudyDesign class.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
 </sst>
@@ -52100,7 +55296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -52147,7 +55343,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -52505,10 +55700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7ACB2C-B814-4F7D-80B1-385D8AFA2512}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52522,7 +55717,7 @@
     <col min="7" max="7" width="8.453125" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" customWidth="1"/>
     <col min="9" max="9" width="9.54296875" customWidth="1"/>
-    <col min="10" max="10" width="111.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="111.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7265625" customWidth="1"/>
     <col min="12" max="12" width="30.1796875" customWidth="1"/>
     <col min="13" max="13" width="36.36328125" customWidth="1"/>
@@ -52544,10 +55739,10 @@
       <c r="E1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="2" t="s">
         <v>349</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -52556,7 +55751,7 @@
       <c r="I1" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="2" t="s">
         <v>406</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -52603,7 +55798,7 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K2" t="s">
@@ -52650,7 +55845,7 @@
       <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K3" t="s">
@@ -52669,36 +55864,36 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1212</v>
+        <v>1279</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>606</v>
+        <v>314</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>98</v>
+        <v>44</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>1197</v>
       </c>
       <c r="K4" t="s">
         <v>98</v>
@@ -52713,24 +55908,24 @@
         <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>534</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>1242</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1213</v>
+        <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>85</v>
+        <v>1243</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>2</v>
@@ -52739,22 +55934,22 @@
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K5" t="s">
         <v>98</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>1214</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>1244</v>
       </c>
       <c r="N5" t="s">
         <v>98</v>
@@ -52763,21 +55958,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>2</v>
@@ -52786,12 +55981,12 @@
         <v>8</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>1216</v>
+        <v>606</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K6" t="s">
@@ -52815,37 +56010,37 @@
         <v>254</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1217</v>
+        <v>84</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>82</v>
+        <v>1213</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>1218</v>
+        <v>277</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K7" t="s">
         <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>1214</v>
       </c>
       <c r="M7" t="s">
         <v>98</v>
@@ -52854,24 +56049,24 @@
         <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>534</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>619</v>
+        <v>89</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>620</v>
+        <v>90</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>2</v>
@@ -52880,12 +56075,12 @@
         <v>8</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>621</v>
+        <v>1216</v>
       </c>
       <c r="I8" t="s">
-        <v>622</v>
-      </c>
-      <c r="J8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K8" t="s">
@@ -52904,21 +56099,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>2</v>
@@ -52927,12 +56122,12 @@
         <v>8</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>626</v>
+        <v>1218</v>
       </c>
       <c r="I9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K9" t="s">
@@ -52956,16 +56151,16 @@
         <v>254</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>25</v>
+        <v>619</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>192</v>
+        <v>620</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>2</v>
@@ -52974,12 +56169,12 @@
         <v>8</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>267</v>
+        <v>621</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
-      </c>
-      <c r="J10" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K10" t="s">
@@ -52998,21 +56193,21 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>2</v>
@@ -53021,12 +56216,12 @@
         <v>8</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>1223</v>
+        <v>626</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K11" t="s">
@@ -53050,30 +56245,30 @@
         <v>254</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1137</v>
+        <v>1221</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>1138</v>
+        <v>267</v>
       </c>
       <c r="I12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K12" t="s">
@@ -53089,7 +56284,7 @@
         <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>1224</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -53097,30 +56292,30 @@
         <v>254</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1139</v>
+        <v>1222</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>1140</v>
+        <v>1223</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
-      </c>
-      <c r="J13" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K13" t="s">
@@ -53136,38 +56331,38 @@
         <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>1224</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>395</v>
+        <v>1137</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>396</v>
+        <v>6</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1225</v>
+        <v>204</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>1226</v>
+        <v>1138</v>
       </c>
       <c r="I14" t="s">
-        <v>398</v>
-      </c>
-      <c r="J14" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>98</v>
       </c>
       <c r="K14" t="s">
@@ -53177,13 +56372,13 @@
         <v>98</v>
       </c>
       <c r="M14" t="s">
-        <v>1227</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>98</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -53191,31 +56386,31 @@
         <v>254</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1285</v>
+        <v>1139</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>396</v>
+        <v>6</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>1228</v>
+        <v>206</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>1229</v>
+        <v>1140</v>
       </c>
       <c r="I15" t="s">
-        <v>401</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>1284</v>
+        <v>205</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="K15" t="s">
         <v>98</v>
@@ -53224,30 +56419,30 @@
         <v>98</v>
       </c>
       <c r="M15" t="s">
-        <v>1230</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s">
         <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>1224</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1151</v>
+        <v>1280</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>8</v>
@@ -53256,13 +56451,13 @@
         <v>2</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>1231</v>
+        <v>1245</v>
       </c>
       <c r="I16" t="s">
-        <v>1150</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>98</v>
+        <v>228</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>1246</v>
       </c>
       <c r="K16" t="s">
         <v>98</v>
@@ -53271,7 +56466,7 @@
         <v>98</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1232</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
         <v>98</v>
@@ -53282,19 +56477,19 @@
     </row>
     <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1137</v>
+        <v>1282</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>6</v>
+        <v>1082</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>1154</v>
+        <v>7</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>8</v>
@@ -53303,17 +56498,19 @@
         <v>2</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>98</v>
+        <v>1247</v>
       </c>
       <c r="I17" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J17" s="12"/>
+        <v>232</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>1281</v>
+      </c>
       <c r="K17" t="s">
         <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>98</v>
+        <v>1248</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>98</v>
@@ -53325,21 +56522,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1139</v>
+        <v>1284</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>6</v>
+        <v>1082</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1156</v>
+        <v>7</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>8</v>
@@ -53348,17 +56545,19 @@
         <v>2</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>98</v>
+        <v>1249</v>
       </c>
       <c r="I18" t="s">
-        <v>1155</v>
-      </c>
-      <c r="J18" s="12"/>
+        <v>234</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>1283</v>
+      </c>
       <c r="K18" t="s">
         <v>98</v>
       </c>
       <c r="L18" t="s">
-        <v>98</v>
+        <v>1248</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>98</v>
@@ -53370,21 +56569,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1159</v>
+        <v>1286</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>456</v>
+        <v>86</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>1233</v>
+        <v>69</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>8</v>
@@ -53393,12 +56592,14 @@
         <v>2</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
       <c r="I19" t="s">
-        <v>1158</v>
-      </c>
-      <c r="J19" s="12"/>
+        <v>362</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>1285</v>
+      </c>
       <c r="K19" t="s">
         <v>98</v>
       </c>
@@ -53406,7 +56607,7 @@
         <v>98</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1235</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s">
         <v>98</v>
@@ -53415,21 +56616,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1162</v>
+        <v>1288</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>456</v>
+        <v>377</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>1233</v>
+        <v>78</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>8</v>
@@ -53438,12 +56639,14 @@
         <v>2</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>1236</v>
+        <v>1251</v>
       </c>
       <c r="I20" t="s">
-        <v>1161</v>
-      </c>
-      <c r="J20" s="12"/>
+        <v>378</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>1287</v>
+      </c>
       <c r="K20" t="s">
         <v>98</v>
       </c>
@@ -53451,7 +56654,7 @@
         <v>98</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1237</v>
+        <v>98</v>
       </c>
       <c r="N20" t="s">
         <v>98</v>
@@ -53460,21 +56663,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1165</v>
+        <v>1290</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1166</v>
+        <v>53</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>8</v>
@@ -53483,12 +56686,14 @@
         <v>2</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>98</v>
+        <v>1252</v>
       </c>
       <c r="I21" t="s">
-        <v>1164</v>
-      </c>
-      <c r="J21" s="12"/>
+        <v>386</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>1289</v>
+      </c>
       <c r="K21" t="s">
         <v>98</v>
       </c>
@@ -53505,21 +56710,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1172</v>
+        <v>1292</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>204</v>
+        <v>389</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>8</v>
@@ -53528,12 +56733,14 @@
         <v>2</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>1238</v>
+        <v>1253</v>
       </c>
       <c r="I22" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J22" s="12"/>
+        <v>390</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>1291</v>
+      </c>
       <c r="K22" t="s">
         <v>98</v>
       </c>
@@ -53541,7 +56748,7 @@
         <v>98</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1239</v>
+        <v>98</v>
       </c>
       <c r="N22" t="s">
         <v>98</v>
@@ -53550,21 +56757,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1174</v>
+        <v>395</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1152</v>
+        <v>1225</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>8</v>
@@ -53573,12 +56780,14 @@
         <v>2</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>98</v>
+        <v>1226</v>
       </c>
       <c r="I23" t="s">
-        <v>1173</v>
-      </c>
-      <c r="J23" s="12"/>
+        <v>398</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="K23" t="s">
         <v>98</v>
       </c>
@@ -53586,7 +56795,7 @@
         <v>98</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>98</v>
+        <v>1227</v>
       </c>
       <c r="N23" t="s">
         <v>98</v>
@@ -53595,21 +56804,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1176</v>
+        <v>1241</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1154</v>
+        <v>1228</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>8</v>
@@ -53618,12 +56827,14 @@
         <v>2</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>98</v>
+        <v>1229</v>
       </c>
       <c r="I24" t="s">
-        <v>1175</v>
-      </c>
-      <c r="J24" s="12"/>
+        <v>401</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>1240</v>
+      </c>
       <c r="K24" t="s">
         <v>98</v>
       </c>
@@ -53631,7 +56842,7 @@
         <v>98</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>98</v>
+        <v>1230</v>
       </c>
       <c r="N24" t="s">
         <v>98</v>
@@ -53640,21 +56851,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1240</v>
+        <v>1294</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>89</v>
+        <v>415</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>8</v>
@@ -53663,13 +56874,13 @@
         <v>2</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>1241</v>
+        <v>1254</v>
       </c>
       <c r="I25" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>98</v>
+        <v>425</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>1293</v>
       </c>
       <c r="K25" t="s">
         <v>98</v>
@@ -53687,21 +56898,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1217</v>
+        <v>1296</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>8</v>
@@ -53710,13 +56921,13 @@
         <v>2</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="I26" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>98</v>
+        <v>427</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>1295</v>
       </c>
       <c r="K26" t="s">
         <v>98</v>
@@ -53734,21 +56945,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1245</v>
+        <v>1298</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>8</v>
@@ -53757,13 +56968,13 @@
         <v>2</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>1246</v>
+        <v>1256</v>
       </c>
       <c r="I27" t="s">
-        <v>1247</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>98</v>
+        <v>410</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>1297</v>
       </c>
       <c r="K27" t="s">
         <v>98</v>
@@ -53781,21 +56992,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1248</v>
+        <v>1300</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>65</v>
+        <v>412</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>8</v>
@@ -53804,13 +57015,13 @@
         <v>2</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="I28" t="s">
-        <v>1250</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>98</v>
+        <v>413</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>1299</v>
       </c>
       <c r="K28" t="s">
         <v>98</v>
@@ -53828,21 +57039,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1251</v>
+        <v>1302</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>619</v>
+        <v>453</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>620</v>
+        <v>53</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>8</v>
@@ -53851,13 +57062,13 @@
         <v>2</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="I29" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>98</v>
+        <v>454</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>1301</v>
       </c>
       <c r="K29" t="s">
         <v>98</v>
@@ -53875,21 +57086,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1254</v>
+        <v>1303</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>1255</v>
+        <v>489</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>1256</v>
+        <v>490</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>8</v>
@@ -53898,13 +57109,13 @@
         <v>2</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="I30" t="s">
-        <v>1258</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>98</v>
+        <v>491</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>488</v>
       </c>
       <c r="K30" t="s">
         <v>98</v>
@@ -53922,21 +57133,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1259</v>
+        <v>1305</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>1260</v>
+        <v>591</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>1261</v>
+        <v>53</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>8</v>
@@ -53945,13 +57156,13 @@
         <v>2</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I31" t="s">
-        <v>1263</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>98</v>
+        <v>592</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>1304</v>
       </c>
       <c r="K31" t="s">
         <v>98</v>
@@ -53969,21 +57180,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1209</v>
+        <v>1261</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1260</v>
+        <v>558</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>26</v>
+        <v>460</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>8</v>
@@ -53992,13 +57203,13 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I32" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>98</v>
+        <v>596</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>1306</v>
       </c>
       <c r="K32" t="s">
         <v>98</v>
@@ -54018,19 +57229,19 @@
     </row>
     <row r="33" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>1260</v>
+        <v>408</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>192</v>
+        <v>643</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>8</v>
@@ -54039,19 +57250,19 @@
         <v>2</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>329</v>
+        <v>1264</v>
       </c>
       <c r="I33" t="s">
-        <v>1267</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>98</v>
+        <v>644</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>1307</v>
       </c>
       <c r="K33" t="s">
         <v>98</v>
       </c>
       <c r="L33" t="s">
-        <v>98</v>
+        <v>1265</v>
       </c>
       <c r="M33" t="s">
         <v>98</v>
@@ -54063,21 +57274,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1268</v>
+        <v>1309</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>50</v>
+        <v>646</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1269</v>
+        <v>53</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>8</v>
@@ -54086,13 +57297,13 @@
         <v>2</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="I34" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>98</v>
+        <v>647</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>1308</v>
       </c>
       <c r="K34" t="s">
         <v>98</v>
@@ -54110,21 +57321,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1272</v>
+        <v>1311</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>153</v>
+        <v>408</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>162</v>
+        <v>643</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>8</v>
@@ -54133,13 +57344,13 @@
         <v>2</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="I35" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>98</v>
+        <v>649</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>1310</v>
       </c>
       <c r="K35" t="s">
         <v>98</v>
@@ -54157,21 +57368,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1275</v>
+        <v>1313</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>153</v>
+        <v>651</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>162</v>
+        <v>643</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>8</v>
@@ -54180,13 +57391,13 @@
         <v>2</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="I36" t="s">
-        <v>1277</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>98</v>
+        <v>652</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>1312</v>
       </c>
       <c r="K36" t="s">
         <v>98</v>
@@ -54204,18 +57415,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1278</v>
+        <v>1315</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>153</v>
+        <v>1099</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>162</v>
@@ -54227,13 +57438,13 @@
         <v>2</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="I37" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>98</v>
+        <v>1097</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>1314</v>
       </c>
       <c r="K37" t="s">
         <v>98</v>
@@ -54251,21 +57462,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1281</v>
+        <v>1317</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>558</v>
+        <v>1108</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>460</v>
+        <v>1094</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>8</v>
@@ -54274,13 +57485,13 @@
         <v>2</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="I38" t="s">
-        <v>1283</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>98</v>
+        <v>1115</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>1316</v>
       </c>
       <c r="K38" t="s">
         <v>98</v>
@@ -54295,6 +57506,617 @@
         <v>98</v>
       </c>
       <c r="O38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K39" t="s">
+        <v>98</v>
+      </c>
+      <c r="L39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N40" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K41" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K42" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M42" t="s">
+        <v>98</v>
+      </c>
+      <c r="N42" t="s">
+        <v>98</v>
+      </c>
+      <c r="O42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N43" t="s">
+        <v>98</v>
+      </c>
+      <c r="O43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" t="s">
+        <v>98</v>
+      </c>
+      <c r="L44" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N44" t="s">
+        <v>98</v>
+      </c>
+      <c r="O44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K45" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45" t="s">
+        <v>98</v>
+      </c>
+      <c r="M45" t="s">
+        <v>98</v>
+      </c>
+      <c r="N45" t="s">
+        <v>98</v>
+      </c>
+      <c r="O45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" t="s">
+        <v>98</v>
+      </c>
+      <c r="L46" t="s">
+        <v>98</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N46" t="s">
+        <v>98</v>
+      </c>
+      <c r="O46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K47" t="s">
+        <v>98</v>
+      </c>
+      <c r="L47" t="s">
+        <v>98</v>
+      </c>
+      <c r="M47" t="s">
+        <v>98</v>
+      </c>
+      <c r="N47" t="s">
+        <v>98</v>
+      </c>
+      <c r="O47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K48" t="s">
+        <v>98</v>
+      </c>
+      <c r="L48" t="s">
+        <v>98</v>
+      </c>
+      <c r="M48" t="s">
+        <v>98</v>
+      </c>
+      <c r="N48" t="s">
+        <v>98</v>
+      </c>
+      <c r="O48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49" t="s">
+        <v>98</v>
+      </c>
+      <c r="L49" t="s">
+        <v>98</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N49" t="s">
+        <v>98</v>
+      </c>
+      <c r="O49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1184</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" t="s">
+        <v>98</v>
+      </c>
+      <c r="L50" t="s">
+        <v>98</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N50" t="s">
+        <v>98</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51" t="s">
+        <v>98</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M51" t="s">
+        <v>98</v>
+      </c>
+      <c r="N51" t="s">
+        <v>98</v>
+      </c>
+      <c r="O51" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
+++ b/Deliverables/RULES/USDM_CORE_Rules_Changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stack\CL027\Publish\CORE\4.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B7E095-989C-45EF-AA61-333E70583077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9921B3C7-2447-45E8-962A-AC8C3BA1C2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="-19950" windowWidth="29880" windowHeight="14670" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
+    <workbookView xWindow="1755" yWindow="-16305" windowWidth="19185" windowHeight="11265" xr2:uid="{418CF395-400B-43AB-9594-6DFC1F089218}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes release 3.13 -&gt; 4.0" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7212" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7212" uniqueCount="1338">
   <si>
     <t>All</t>
   </si>
@@ -55878,6 +55878,9 @@
       </rPr>
       <t>then only one intervention is expected. In all other cases more interventions are expected.</t>
     </r>
+  </si>
+  <si>
+    <t>WARNING=&gt;ERROR</t>
   </si>
 </sst>
 </file>
@@ -56381,8 +56384,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56737,7 +56740,7 @@
         <v>1336</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>98</v>
+        <v>1337</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>1327</v>
